--- a/output_files/cl_3.xlsx
+++ b/output_files/cl_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="158">
   <si>
     <t>Cell Line</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>CUM IgG PROD. (mg)</t>
-  </si>
-  <si>
-    <t>CUM GLUCOSE (mmol)</t>
   </si>
   <si>
     <t>CUM LACTATE (mmol)</t>
@@ -1236,79 +1233,79 @@
         <v>122</v>
       </c>
       <c r="DW1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DX1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="EG1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="EI1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="EJ1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EK1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="EV1" s="1" t="s">
         <v>116</v>
@@ -1317,39 +1314,39 @@
         <v>15</v>
       </c>
       <c r="EX1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EY1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:162">
       <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>156</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1501,10 +1498,10 @@
     </row>
     <row r="3" spans="1:162">
       <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
         <v>155</v>
-      </c>
-      <c r="B3" t="s">
-        <v>156</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1633,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>2.338528830569055</v>
+        <v>1.579275025510525</v>
       </c>
       <c r="DX3">
         <v>1.275532859680284</v>
@@ -1666,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.170652926663333</v>
+        <v>0.2206975734224537</v>
       </c>
       <c r="EO3">
         <v>0.09308134786036505</v>
@@ -1681,7 +1678,7 @@
         <v>-0.006707814252209354</v>
       </c>
       <c r="ES3">
-        <v>0.5454424350072677</v>
+        <v>0.4217597249344971</v>
       </c>
       <c r="ET3">
         <v>0</v>
@@ -1696,7 +1693,7 @@
         <v>-9.178605085269693</v>
       </c>
       <c r="EY3">
-        <v>-0.3132283274699106</v>
+        <v>0.04097912870774906</v>
       </c>
       <c r="EZ3">
         <v>0.2470638845476313</v>
@@ -1711,21 +1708,21 @@
         <v>0.006178874804291539</v>
       </c>
       <c r="FD3">
-        <v>-0.788766094507735</v>
+        <v>6.029017510587336</v>
       </c>
       <c r="FE3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>-0.06038917981749432</v>
+        <v>0.4615911169418428</v>
       </c>
     </row>
     <row r="4" spans="1:162">
       <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
         <v>155</v>
-      </c>
-      <c r="B4" t="s">
-        <v>156</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1854,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>3.811141455183279</v>
+        <v>2.704989563996219</v>
       </c>
       <c r="DX4">
         <v>3.58958703374778</v>
@@ -1887,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0447939607140273</v>
+        <v>0.06488860456702468</v>
       </c>
       <c r="EO4">
         <v>0.0703889468491177</v>
@@ -1902,13 +1899,13 @@
         <v>0.006571204926065553</v>
       </c>
       <c r="ES4">
-        <v>1.571393681806648</v>
+        <v>1.084765920284379</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>-0.4272270857142857</v>
+        <v>-0.2949237916449092</v>
       </c>
       <c r="EW4">
         <v>0</v>
@@ -1917,7 +1914,7 @@
         <v>-0.7669918235791451</v>
       </c>
       <c r="EY4">
-        <v>-0.04399697723693379</v>
+        <v>0.109444126623743</v>
       </c>
       <c r="EZ4">
         <v>0.09697851781982003</v>
@@ -1932,21 +1929,21 @@
         <v>-0.001872803998002508</v>
       </c>
       <c r="FD4">
-        <v>-2.204208650461792</v>
+        <v>0.8861007055519898</v>
       </c>
       <c r="FE4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.2170099275595533</v>
+        <v>-0.08723886002444467</v>
       </c>
     </row>
     <row r="5" spans="1:162">
       <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
         <v>155</v>
-      </c>
-      <c r="B5" t="s">
-        <v>156</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2075,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="DW5">
-        <v>8.078276604720347</v>
+        <v>5.325983269066253</v>
       </c>
       <c r="DX5">
         <v>5.254773534635879</v>
@@ -2108,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.08692210398597411</v>
+        <v>0.1001062244024235</v>
       </c>
       <c r="EO5">
         <v>0.03392006794111932</v>
@@ -2123,13 +2120,13 @@
         <v>0.004697861569709145</v>
       </c>
       <c r="ES5">
-        <v>0.390235238053979</v>
+        <v>0.3388407478516204</v>
       </c>
       <c r="ET5">
         <v>0</v>
       </c>
       <c r="EU5">
-        <v>-0.01054571707317074</v>
+        <v>-0.009156832369942199</v>
       </c>
       <c r="EW5">
         <v>0</v>
@@ -2138,7 +2135,7 @@
         <v>1.259317493320244</v>
       </c>
       <c r="EY5">
-        <v>0.02098849275255318</v>
+        <v>0.1018396185585494</v>
       </c>
       <c r="EZ5">
         <v>0.04177790158484807</v>
@@ -2153,21 +2150,21 @@
         <v>-0.002901874873035509</v>
       </c>
       <c r="FD5">
-        <v>1.990514615670338</v>
+        <v>0.4102323062102713</v>
       </c>
       <c r="FE5">
         <v>0</v>
       </c>
       <c r="FF5">
-        <v>-0.5918360176972505</v>
+        <v>-0.1219736105059859</v>
       </c>
     </row>
     <row r="6" spans="1:162">
       <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
         <v>155</v>
-      </c>
-      <c r="B6" t="s">
-        <v>156</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2299,7 +2296,7 @@
         <v>52.10695</v>
       </c>
       <c r="DW6">
-        <v>1.797331201847271</v>
+        <v>8.666797010427945</v>
       </c>
       <c r="DX6">
         <v>8.343694493783303</v>
@@ -2332,7 +2329,7 @@
         <v>0.5470419473910388</v>
       </c>
       <c r="EN6">
-        <v>-0.06594015970315824</v>
+        <v>0.06506106283179931</v>
       </c>
       <c r="EO6">
         <v>0.03242886672179052</v>
@@ -2347,13 +2344,13 @@
         <v>0.00128532461829151</v>
       </c>
       <c r="ES6">
-        <v>-0.4917923594327802</v>
+        <v>0.4984373957374172</v>
       </c>
       <c r="ET6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.08239921967213101</v>
+        <v>-0.0835125875309294</v>
       </c>
       <c r="EW6">
         <v>0</v>
@@ -2362,7 +2359,7 @@
         <v>1.615743394985788</v>
       </c>
       <c r="EY6">
-        <v>0.03384123572756523</v>
+        <v>0.07922903805603643</v>
       </c>
       <c r="EZ6">
         <v>0.01573220951848438</v>
@@ -2377,21 +2374,21 @@
         <v>-0.002397381938969395</v>
       </c>
       <c r="FD6">
-        <v>0.464882832445441</v>
+        <v>0.1985662063365889</v>
       </c>
       <c r="FE6">
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>-0.2918764524429905</v>
+        <v>-0.1246696927389511</v>
       </c>
     </row>
     <row r="7" spans="1:162">
       <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
         <v>155</v>
-      </c>
-      <c r="B7" t="s">
-        <v>156</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2523,7 +2520,7 @@
         <v>160.5004</v>
       </c>
       <c r="DW7">
-        <v>-0.5453606874042531</v>
+        <v>13.45046181625142</v>
       </c>
       <c r="DX7">
         <v>11.80672735346359</v>
@@ -2556,7 +2553,7 @@
         <v>0.8589830760922424</v>
       </c>
       <c r="EN7">
-        <v>-0.01856507644480013</v>
+        <v>0.06956301184866176</v>
       </c>
       <c r="EO7">
         <v>0.02744341672321238</v>
@@ -2571,13 +2568,13 @@
         <v>-0.003868114072126906</v>
       </c>
       <c r="ES7">
-        <v>-1.478228048497962</v>
+        <v>0.3945116232591694</v>
       </c>
       <c r="ET7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU7">
-        <v>0.3415131130434803</v>
+        <v>-0.09114350977711226</v>
       </c>
       <c r="EW7">
         <v>0</v>
@@ -2586,7 +2583,7 @@
         <v>1.560100364459449</v>
       </c>
       <c r="EY7">
-        <v>0.03253592075857353</v>
+        <v>0.06603657277709407</v>
       </c>
       <c r="EZ7">
         <v>0.006862639031618985</v>
@@ -2601,21 +2598,21 @@
         <v>-0.001902392536249719</v>
       </c>
       <c r="FD7">
-        <v>0.2109249983285201</v>
+        <v>0.1039217927735857</v>
       </c>
       <c r="FE7">
         <v>0</v>
       </c>
       <c r="FF7">
-        <v>-0.2379222943298936</v>
+        <v>-0.1172232384188861</v>
       </c>
     </row>
     <row r="8" spans="1:162">
       <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="s">
         <v>155</v>
-      </c>
-      <c r="B8" t="s">
-        <v>156</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -2747,7 +2744,7 @@
         <v>388.1464</v>
       </c>
       <c r="DW8">
-        <v>0.553686804769189</v>
+        <v>21.06940013986409</v>
       </c>
       <c r="DX8">
         <v>17.00210923623446</v>
@@ -2780,7 +2777,7 @@
         <v>0.9488038950259144</v>
       </c>
       <c r="EN8">
-        <v>0.004580711022344451</v>
+        <v>0.05715883891362306</v>
       </c>
       <c r="EO8">
         <v>0.02165378950879907</v>
@@ -2795,13 +2792,13 @@
         <v>-0.002063106437353732</v>
       </c>
       <c r="ES8">
-        <v>4.727167770063009</v>
+        <v>0.3788353633551183</v>
       </c>
       <c r="ET8">
         <v>0</v>
       </c>
       <c r="EU8">
-        <v>-0.8860399636363701</v>
+        <v>-0.07100726860110276</v>
       </c>
       <c r="EW8">
         <v>0</v>
@@ -2810,7 +2807,7 @@
         <v>1.285640260908195</v>
       </c>
       <c r="EY8">
-        <v>0.02529071086442655</v>
+        <v>0.04989992534904737</v>
       </c>
       <c r="EZ8">
         <v>0.001646084905783283</v>
@@ -2825,21 +2822,21 @@
         <v>-0.00126327958415691</v>
       </c>
       <c r="FD8">
-        <v>0.0650865416400231</v>
+        <v>0.03298772281258951</v>
       </c>
       <c r="FE8">
         <v>0</v>
       </c>
       <c r="FF8">
-        <v>-0.2019821061970251</v>
+        <v>-0.1023703144220111</v>
       </c>
     </row>
     <row r="9" spans="1:162">
       <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
         <v>155</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2971,7 +2968,7 @@
         <v>738.7352</v>
       </c>
       <c r="DW9">
-        <v>4.901030218255284</v>
+        <v>30.11378001084434</v>
       </c>
       <c r="DX9">
         <v>19.76853907637656</v>
@@ -3004,7 +3001,7 @@
         <v>1.041646272219489</v>
       </c>
       <c r="EN9">
-        <v>0.01291653943513238</v>
+        <v>0.04783227344203674</v>
       </c>
       <c r="EO9">
         <v>0.008219433508260305</v>
@@ -3019,13 +3016,13 @@
         <v>-0.003416447460671151</v>
       </c>
       <c r="ES9">
-        <v>0.6363495075084765</v>
+        <v>0.1718386544645559</v>
       </c>
       <c r="ET9">
         <v>0</v>
       </c>
       <c r="EU9">
-        <v>-0.3770992636363631</v>
+        <v>-0.1018311938616284</v>
       </c>
       <c r="EW9">
         <v>0</v>
@@ -3034,7 +3031,7 @@
         <v>1.074580971333603</v>
       </c>
       <c r="EY9">
-        <v>0.01931821935342231</v>
+        <v>0.04059128247998778</v>
       </c>
       <c r="EZ9">
         <v>-0.0003679825354737586</v>
@@ -3049,21 +3046,21 @@
         <v>-0.0008390858160289199</v>
       </c>
       <c r="FD9">
-        <v>-0.01904847070745</v>
+        <v>-0.009065555779253354</v>
       </c>
       <c r="FE9">
         <v>0</v>
       </c>
       <c r="FF9">
-        <v>-0.1756462801011008</v>
+        <v>-0.08359364770695821</v>
       </c>
     </row>
     <row r="10" spans="1:162">
       <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
         <v>155</v>
-      </c>
-      <c r="B10" t="s">
-        <v>156</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -3195,7 +3192,7 @@
         <v>1314.0968</v>
       </c>
       <c r="DW10">
-        <v>20.9227003263838</v>
+        <v>41.34882051236805</v>
       </c>
       <c r="DX10">
         <v>19.96392095914743</v>
@@ -3228,7 +3225,7 @@
         <v>1.250120831155667</v>
       </c>
       <c r="EN10">
-        <v>0.03481119273874991</v>
+        <v>0.04296337881934602</v>
       </c>
       <c r="EO10">
         <v>0.0004245173151671578</v>
@@ -3243,13 +3240,13 @@
         <v>-0.002925399760894696</v>
       </c>
       <c r="ES10">
-        <v>0.01219485118918687</v>
+        <v>0.009880910832273777</v>
       </c>
       <c r="ET10">
         <v>0</v>
       </c>
       <c r="EU10">
-        <v>-0.150935575609756</v>
+        <v>-0.1222959543237656</v>
       </c>
       <c r="EW10">
         <v>0</v>
@@ -3258,7 +3255,7 @@
         <v>0.9673854953795979</v>
       </c>
       <c r="EY10">
-        <v>0.01524067901751459</v>
+        <v>0.03652306929535647</v>
       </c>
       <c r="EZ10">
         <v>-0.001362236525025273</v>
@@ -3273,21 +3270,21 @@
         <v>-0.0005489905552956294</v>
       </c>
       <c r="FD10">
-        <v>-0.08938161636104208</v>
+        <v>-0.03729797498696165</v>
       </c>
       <c r="FE10">
         <v>0</v>
       </c>
       <c r="FF10">
-        <v>-0.146744380474764</v>
+        <v>-0.06123483167183484</v>
       </c>
     </row>
     <row r="11" spans="1:162">
       <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" t="s">
         <v>155</v>
-      </c>
-      <c r="B11" t="s">
-        <v>156</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -3419,7 +3416,7 @@
         <v>2075.7818</v>
       </c>
       <c r="DW11">
-        <v>40.81879038166921</v>
+        <v>53.03225408939817</v>
       </c>
       <c r="DX11">
         <v>13.39642539964476</v>
@@ -3452,7 +3449,7 @@
         <v>1.381129551961448</v>
       </c>
       <c r="EN11">
-        <v>0.0360766956731995</v>
+        <v>0.0368619883075156</v>
       </c>
       <c r="EO11">
         <v>-0.01190854775872535</v>
@@ -3467,13 +3464,13 @@
         <v>0.001467105063762588</v>
       </c>
       <c r="ES11">
-        <v>-0.3300897584024559</v>
+        <v>-0.3230576619844832</v>
       </c>
       <c r="ET11">
         <v>0</v>
       </c>
       <c r="EU11">
-        <v>-0.1015345223300972</v>
+        <v>-0.09937147263648169</v>
       </c>
       <c r="EW11">
         <v>0</v>
@@ -3482,7 +3479,7 @@
         <v>0.8855458364173479</v>
       </c>
       <c r="EY11">
-        <v>0.01159016909094422</v>
+        <v>0.03403118697164565</v>
       </c>
       <c r="EZ11">
         <v>-0.001880757505387833</v>
@@ -3497,21 +3494,21 @@
         <v>-0.0002999948228106927</v>
       </c>
       <c r="FD11">
-        <v>-0.162271791777165</v>
+        <v>-0.05526570398366817</v>
       </c>
       <c r="FE11">
         <v>0</v>
       </c>
       <c r="FF11">
-        <v>-0.1081976508701408</v>
+        <v>-0.03684940727670535</v>
       </c>
     </row>
     <row r="12" spans="1:162">
       <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
         <v>155</v>
-      </c>
-      <c r="B12" t="s">
-        <v>156</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -3643,7 +3640,7 @@
         <v>2518.5958</v>
       </c>
       <c r="DW12">
-        <v>49.79323475210373</v>
+        <v>62.98032198101079</v>
       </c>
       <c r="DX12">
         <v>5.949711367673181</v>
@@ -3676,7 +3673,7 @@
         <v>0.6934737164100454</v>
       </c>
       <c r="EN12">
-        <v>0.01405452693519276</v>
+        <v>0.02679636283509829</v>
       </c>
       <c r="EO12">
         <v>-0.01166200810000175</v>
@@ -3691,13 +3688,13 @@
         <v>0.00186937564260467</v>
       </c>
       <c r="ES12">
-        <v>-0.8297688107025427</v>
+        <v>-0.4352086203552472</v>
       </c>
       <c r="ET12">
         <v>0</v>
       </c>
       <c r="EU12">
-        <v>-0.156390740425532</v>
+        <v>-0.0820259781990415</v>
       </c>
       <c r="EW12">
         <v>0</v>
@@ -3706,7 +3703,7 @@
         <v>0.9076816434027961</v>
       </c>
       <c r="EY12">
-        <v>0.008800213950494443</v>
+        <v>0.03611525886378609</v>
       </c>
       <c r="EZ12">
         <v>-0.002413755537590537</v>
@@ -3721,21 +3718,21 @@
         <v>-5.975826547795112E-05</v>
       </c>
       <c r="FD12">
-        <v>-0.2742837334602438</v>
+        <v>-0.06683478434127704</v>
       </c>
       <c r="FE12">
         <v>0</v>
       </c>
       <c r="FF12">
-        <v>-0.03665970147442383</v>
+        <v>-0.008932878414438855</v>
       </c>
     </row>
     <row r="13" spans="1:162">
       <c r="A13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" t="s">
         <v>155</v>
-      </c>
-      <c r="B13" t="s">
-        <v>156</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -3867,7 +3864,7 @@
         <v>3079.31884</v>
       </c>
       <c r="DW13">
-        <v>48.21360376562534</v>
+        <v>76.35100164045986</v>
       </c>
       <c r="DX13">
         <v>5.578041740674957</v>
@@ -3900,7 +3897,7 @@
         <v>0.9199580063781684</v>
       </c>
       <c r="EN13">
-        <v>-0.002591643413000889</v>
+        <v>0.03672218713705483</v>
       </c>
       <c r="EO13">
         <v>-0.0006097849110758925</v>
@@ -3915,13 +3912,13 @@
         <v>-0.0003707736173305835</v>
       </c>
       <c r="ES13">
-        <v>0.2352888935325469</v>
+        <v>-0.01660535383690652</v>
       </c>
       <c r="ET13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU13">
-        <v>-1.54616237647059</v>
+        <v>0.1091193594612017</v>
       </c>
       <c r="EW13">
         <v>0</v>
@@ -3930,7 +3927,7 @@
         <v>0.9248030825148434</v>
       </c>
       <c r="EY13">
-        <v>0.005371210884387744</v>
+        <v>0.03790993210206983</v>
       </c>
       <c r="EZ13">
         <v>-0.0028010643771424</v>
@@ -3945,21 +3942,21 @@
         <v>0.0002174108322271942</v>
       </c>
       <c r="FD13">
-        <v>-0.5214958856454747</v>
+        <v>-0.07388734882459644</v>
       </c>
       <c r="FE13">
         <v>0</v>
       </c>
       <c r="FF13">
-        <v>0.1391823062848256</v>
+        <v>0.01971983269235208</v>
       </c>
     </row>
     <row r="14" spans="1:162">
       <c r="A14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" t="s">
         <v>155</v>
-      </c>
-      <c r="B14" t="s">
-        <v>156</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4091,7 +4088,7 @@
         <v>3752.86072</v>
       </c>
       <c r="DW14">
-        <v>47.11189191589511</v>
+        <v>92.72281678693244</v>
       </c>
       <c r="DX14">
         <v>5.94527087033748</v>
@@ -4124,7 +4121,7 @@
         <v>1.174861216077997</v>
       </c>
       <c r="EN14">
-        <v>-0.001921719438651097</v>
+        <v>0.04723395376550501</v>
       </c>
       <c r="EO14">
         <v>0.0006405589239002876</v>
@@ -4139,13 +4136,13 @@
         <v>0.000369289906335602</v>
       </c>
       <c r="ES14">
-        <v>-0.3333259325044408</v>
+        <v>0.01356140811502611</v>
       </c>
       <c r="ET14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU14">
-        <v>-3.001098699999993</v>
+        <v>0.1221000837180047</v>
       </c>
       <c r="EW14">
         <v>0</v>
@@ -4154,7 +4151,7 @@
         <v>1.022053605948113</v>
       </c>
       <c r="EY14">
-        <v>0.001220271153002225</v>
+        <v>0.04429762941634992</v>
       </c>
       <c r="EZ14">
         <v>-0.003370302337438777</v>
@@ -4169,21 +4166,21 @@
         <v>0.0005969430895125171</v>
       </c>
       <c r="FD14">
-        <v>-2.761929042694195</v>
+        <v>-0.07608313089988568</v>
       </c>
       <c r="FE14">
         <v>0</v>
       </c>
       <c r="FF14">
-        <v>1.803995425404762</v>
+        <v>0.04969483935763168</v>
       </c>
     </row>
     <row r="15" spans="1:162">
       <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
         <v>155</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -4315,7 +4312,7 @@
         <v>4266.900779999999</v>
       </c>
       <c r="DW15">
-        <v>39.58386065409977</v>
+        <v>108.7289364075635</v>
       </c>
       <c r="DX15">
         <v>4.312722024866787</v>
@@ -4348,7 +4345,7 @@
         <v>0.9298130856623402</v>
       </c>
       <c r="EN15">
-        <v>-0.01361695813453233</v>
+        <v>0.04730824080212195</v>
       </c>
       <c r="EO15">
         <v>-0.002953009692477272</v>
@@ -4363,13 +4360,13 @@
         <v>0.0002305394980185718</v>
       </c>
       <c r="ES15">
-        <v>0.2168626548824071</v>
+        <v>-0.06242061937641989</v>
       </c>
       <c r="ET15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15">
-        <v>-0.03103892530120491</v>
+        <v>0.008934082925113249</v>
       </c>
       <c r="EW15">
         <v>0</v>
@@ -4378,7 +4375,7 @@
         <v>1.05742166532909</v>
       </c>
       <c r="EY15">
-        <v>-0.00502141630860822</v>
+        <v>0.04925255757822766</v>
       </c>
       <c r="EZ15">
         <v>-0.003702931615456321</v>
@@ -4393,21 +4390,21 @@
         <v>0.00108562817977026</v>
       </c>
       <c r="FD15">
-        <v>0.7374277271351474</v>
+        <v>-0.07518252447245949</v>
       </c>
       <c r="FE15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15">
-        <v>-0.812190835212408</v>
+        <v>0.08280480255588943</v>
       </c>
     </row>
     <row r="16" spans="1:162">
       <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
         <v>155</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -4539,7 +4536,7 @@
         <v>4645.30308</v>
       </c>
       <c r="DW16">
-        <v>39.67344967694664</v>
+        <v>124.6494970042862</v>
       </c>
       <c r="DX16">
         <v>7.896203374777976</v>
@@ -4572,7 +4569,7 @@
         <v>0.7106544066013509</v>
       </c>
       <c r="EN16">
-        <v>0.000168251709540968</v>
+        <v>0.04825769479046622</v>
       </c>
       <c r="EO16">
         <v>0.006729918957385141</v>
@@ -4587,13 +4584,13 @@
         <v>-3.637386598087512E-05</v>
       </c>
       <c r="ES16">
-        <v>39.99911190053292</v>
+        <v>0.1394579452376723</v>
       </c>
       <c r="ET16">
         <v>0</v>
       </c>
       <c r="EU16">
-        <v>4.323744</v>
+        <v>0.0150748460484114</v>
       </c>
       <c r="EW16">
         <v>0</v>
@@ -4602,7 +4599,7 @@
         <v>1.089507712049579</v>
       </c>
       <c r="EY16">
-        <v>-0.01365045534183949</v>
+        <v>0.05556506190729407</v>
       </c>
       <c r="EZ16">
         <v>-0.003969546261333998</v>
@@ -4617,13 +4614,13 @@
         <v>0.00174329220447737</v>
       </c>
       <c r="FD16">
-        <v>0.2907995493137209</v>
+        <v>-0.07143960836319904</v>
       </c>
       <c r="FE16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF16">
-        <v>-0.4836733336655061</v>
+        <v>0.1188221701661224</v>
       </c>
     </row>
   </sheetData>
@@ -5019,79 +5016,79 @@
         <v>122</v>
       </c>
       <c r="DW1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DX1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="EG1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="EI1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="EJ1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EK1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="EV1" s="1" t="s">
         <v>116</v>
@@ -5100,39 +5097,39 @@
         <v>15</v>
       </c>
       <c r="EX1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EY1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:162">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5284,10 +5281,10 @@
     </row>
     <row r="3" spans="1:162">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5416,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>-0.2125935300517231</v>
+        <v>0.2379092027380534</v>
       </c>
       <c r="DX3">
         <v>0.8503552397868561</v>
@@ -5449,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="EN3">
-        <v>-0.01631492370405489</v>
+        <v>0.03496350989030752</v>
       </c>
       <c r="EO3">
         <v>0.0652582458887178</v>
@@ -5464,13 +5461,13 @@
         <v>-0.007642001626552368</v>
       </c>
       <c r="ES3">
-        <v>-3.999911190053473</v>
+        <v>1.866467242375128</v>
       </c>
       <c r="ET3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3">
         <v>0</v>
@@ -5479,7 +5476,7 @@
         <v>-13.17155886762064</v>
       </c>
       <c r="EY3">
-        <v>-0.3326225509990882</v>
+        <v>-0.1192431218372063</v>
       </c>
       <c r="EZ3">
         <v>0.2404558048527507</v>
@@ -5494,21 +5491,21 @@
         <v>-0.003855851476074113</v>
       </c>
       <c r="FD3">
-        <v>-0.7229089071997703</v>
+        <v>-2.016517188983252</v>
       </c>
       <c r="FE3">
         <v>-0</v>
       </c>
       <c r="FF3">
-        <v>0.01618278173213343</v>
+        <v>0.04514103672455289</v>
       </c>
     </row>
     <row r="4" spans="1:162">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -5637,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>2.522258487088969</v>
+        <v>2.03611326186481</v>
       </c>
       <c r="DX4">
         <v>3.164409413854352</v>
@@ -5670,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.08832517894465543</v>
+        <v>0.1100522389181341</v>
       </c>
       <c r="EO4">
         <v>0.07473503053588575</v>
@@ -5685,13 +5682,13 @@
         <v>0.001652432289710543</v>
       </c>
       <c r="ES4">
-        <v>0.8461350594343514</v>
+        <v>0.6790868706585771</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>-0.1843134461538467</v>
+        <v>-0.1479253695652177</v>
       </c>
       <c r="EW4">
         <v>0</v>
@@ -5700,7 +5697,7 @@
         <v>-1.80944601021105</v>
       </c>
       <c r="EY4">
-        <v>-0.04132814520853914</v>
+        <v>0.08792954657828655</v>
       </c>
       <c r="EZ4">
         <v>0.1115829585424166</v>
@@ -5715,21 +5712,21 @@
         <v>-0.006056317813666947</v>
       </c>
       <c r="FD4">
-        <v>-2.699926599158423</v>
+        <v>1.269004138933784</v>
       </c>
       <c r="FE4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.3084951984610557</v>
+        <v>-0.1449971580006305</v>
       </c>
     </row>
     <row r="5" spans="1:162">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -5858,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="DW5">
-        <v>5.748628966007236</v>
+        <v>4.100409448709611</v>
       </c>
       <c r="DX5">
         <v>5.662189165186501</v>
@@ -5891,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.07170832491008414</v>
+        <v>0.08602578112395576</v>
       </c>
       <c r="EO5">
         <v>0.05551488991506245</v>
@@ -5906,13 +5903,13 @@
         <v>0.0005000781283548826</v>
       </c>
       <c r="ES5">
-        <v>0.7741763593651531</v>
+        <v>0.6453285188433252</v>
       </c>
       <c r="ET5">
         <v>0</v>
       </c>
       <c r="EU5">
-        <v>-0.05346565161290329</v>
+        <v>-0.04456724794934517</v>
       </c>
       <c r="EW5">
         <v>0</v>
@@ -5921,7 +5918,7 @@
         <v>1.170794693626912</v>
       </c>
       <c r="EY5">
-        <v>0.02837988501439837</v>
+        <v>0.1184864159920242</v>
       </c>
       <c r="EZ5">
         <v>0.05835408681408859</v>
@@ -5936,21 +5933,21 @@
         <v>-0.00497936979307922</v>
       </c>
       <c r="FD5">
-        <v>2.056177704190238</v>
+        <v>0.4924960074580756</v>
       </c>
       <c r="FE5">
         <v>0</v>
       </c>
       <c r="FF5">
-        <v>-0.3943909713889747</v>
+        <v>-0.09446458756495268</v>
       </c>
     </row>
     <row r="6" spans="1:162">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -6082,7 +6079,7 @@
         <v>38.41705</v>
       </c>
       <c r="DW6">
-        <v>0.4973467439330417</v>
+        <v>7.994298056374951</v>
       </c>
       <c r="DX6">
         <v>9.162966252220249</v>
@@ -6115,7 +6112,7 @@
         <v>0.4280668763103395</v>
       </c>
       <c r="EN6">
-        <v>-0.05851308149447495</v>
+        <v>0.08048501849269526</v>
       </c>
       <c r="EO6">
         <v>0.03900785490570843</v>
@@ -6130,13 +6127,13 @@
         <v>0.002542357594696849</v>
       </c>
       <c r="ES6">
-        <v>-0.6666518650088821</v>
+        <v>0.484659824104392</v>
       </c>
       <c r="ET6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.1024416470588237</v>
+        <v>-0.07447567951202266</v>
       </c>
       <c r="EW6">
         <v>0</v>
@@ -6145,7 +6142,7 @@
         <v>1.751496861795736</v>
       </c>
       <c r="EY6">
-        <v>0.03830621299672016</v>
+        <v>0.09529195075311206</v>
       </c>
       <c r="EZ6">
         <v>0.0252626866169397</v>
@@ -6160,21 +6157,21 @@
         <v>-0.003048585469868814</v>
       </c>
       <c r="FD6">
-        <v>0.6594931902848955</v>
+        <v>0.2651082952682094</v>
       </c>
       <c r="FE6">
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>-0.1878178102727473</v>
+        <v>-0.07550049073426562</v>
       </c>
     </row>
     <row r="7" spans="1:162">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -6306,7 +6303,7 @@
         <v>138.186</v>
       </c>
       <c r="DW7">
-        <v>-1.641632807122725</v>
+        <v>12.86775024048462</v>
       </c>
       <c r="DX7">
         <v>12.62599911190053</v>
@@ -6339,7 +6336,7 @@
         <v>0.8139639819943275</v>
       </c>
       <c r="EN7">
-        <v>-0.01745084330126549</v>
+        <v>0.07295962011838986</v>
       </c>
       <c r="EO7">
         <v>0.02825311899386098</v>
@@ -6354,13 +6351,13 @@
         <v>-0.003083990809101188</v>
       </c>
       <c r="ES7">
-        <v>-1.619011672164413</v>
+        <v>0.3872432305433514</v>
       </c>
       <c r="ET7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU7">
-        <v>0.267660342857141</v>
+        <v>-0.06402032649818633</v>
       </c>
       <c r="EW7">
         <v>0</v>
@@ -6369,7 +6366,7 @@
         <v>1.746456362170262</v>
       </c>
       <c r="EY7">
-        <v>0.03545683391622148</v>
+        <v>0.08065450986530082</v>
       </c>
       <c r="EZ7">
         <v>0.01379303897082914</v>
@@ -6384,21 +6381,21 @@
         <v>-0.002130240423185767</v>
       </c>
       <c r="FD7">
-        <v>0.3890093233766942</v>
+        <v>0.17101385891334</v>
       </c>
       <c r="FE7">
         <v>0</v>
       </c>
       <c r="FF7">
-        <v>-0.1476962242276524</v>
+        <v>-0.06492929535172678</v>
       </c>
     </row>
     <row r="8" spans="1:162">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -6530,7 +6527,7 @@
         <v>354.114</v>
       </c>
       <c r="DW8">
-        <v>-0.3427584981904581</v>
+        <v>20.62007982392685</v>
       </c>
       <c r="DX8">
         <v>18.22102575488455</v>
@@ -6563,7 +6560,7 @@
         <v>0.9150585185270601</v>
       </c>
       <c r="EN8">
-        <v>0.005504362569395444</v>
+        <v>0.05913500519971786</v>
       </c>
       <c r="EO8">
         <v>0.02371057385354555</v>
@@ -6578,13 +6575,13 @@
         <v>-0.002974931829156</v>
       </c>
       <c r="ES8">
-        <v>4.307596666211205</v>
+        <v>0.4009566545816196</v>
       </c>
       <c r="ET8">
         <v>0</v>
       </c>
       <c r="EU8">
-        <v>-0.8564339076923022</v>
+        <v>-0.07971797294582926</v>
       </c>
       <c r="EW8">
         <v>0</v>
@@ -6593,7 +6590,7 @@
         <v>1.461773329563884</v>
       </c>
       <c r="EY8">
-        <v>0.02668993422523402</v>
+        <v>0.06069008713091934</v>
       </c>
       <c r="EZ8">
         <v>0.005875991022152033</v>
@@ -6608,21 +6605,21 @@
         <v>-0.001247477459622097</v>
       </c>
       <c r="FD8">
-        <v>0.2201575684887441</v>
+        <v>0.09681961750156122</v>
       </c>
       <c r="FE8">
         <v>0</v>
       </c>
       <c r="FF8">
-        <v>-0.1225056911775743</v>
+        <v>-0.05387484174628108</v>
       </c>
     </row>
     <row r="9" spans="1:162">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -6754,7 +6751,7 @@
         <v>694.7882</v>
       </c>
       <c r="DW9">
-        <v>5.980650103243846</v>
+        <v>30.75676210331519</v>
       </c>
       <c r="DX9">
         <v>23.95148756660746</v>
@@ -6787,7 +6784,7 @@
         <v>0.9938045775453829</v>
       </c>
       <c r="EN9">
-        <v>0.01844645826949989</v>
+        <v>0.05263535843241177</v>
       </c>
       <c r="EO9">
         <v>0.01671673164548192</v>
@@ -6802,13 +6799,13 @@
         <v>-0.004086546854737532</v>
       </c>
       <c r="ES9">
-        <v>0.9062298789964486</v>
+        <v>0.3175950946918621</v>
       </c>
       <c r="ET9">
         <v>0</v>
       </c>
       <c r="EU9">
-        <v>-0.2474330062500003</v>
+        <v>-0.0867147628556274</v>
       </c>
       <c r="EW9">
         <v>0</v>
@@ -6817,7 +6814,7 @@
         <v>1.178632847641096</v>
       </c>
       <c r="EY9">
-        <v>0.01900386972106035</v>
+        <v>0.0465139248330608</v>
       </c>
       <c r="EZ9">
         <v>0.002097595582917149</v>
@@ -6832,21 +6829,21 @@
         <v>-0.0006988775334780627</v>
       </c>
       <c r="FD9">
-        <v>0.1103772870318388</v>
+        <v>0.04509607801202441</v>
       </c>
       <c r="FE9">
         <v>0</v>
       </c>
       <c r="FF9">
-        <v>-0.1059678620559185</v>
+        <v>-0.04329455001609791</v>
       </c>
     </row>
     <row r="10" spans="1:162">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -6978,7 +6975,7 @@
         <v>1265.0634</v>
       </c>
       <c r="DW10">
-        <v>25.91004462798907</v>
+        <v>44.22615215665403</v>
       </c>
       <c r="DX10">
         <v>26.49145204262877</v>
@@ -7011,7 +7008,7 @@
         <v>1.186851686035739</v>
       </c>
       <c r="EN10">
-        <v>0.04147687904605583</v>
+        <v>0.04933698010825944</v>
       </c>
       <c r="EO10">
         <v>0.005286151529711934</v>
@@ -7026,13 +7023,13 @@
         <v>-0.002864384971544805</v>
       </c>
       <c r="ES10">
-        <v>0.1274481506634625</v>
+        <v>0.1071438000078766</v>
       </c>
       <c r="ET10">
         <v>0</v>
       </c>
       <c r="EU10">
-        <v>-0.08663384117647056</v>
+        <v>-0.07283180575476955</v>
       </c>
       <c r="EW10">
         <v>0</v>
@@ -7041,7 +7038,7 @@
         <v>1.0656104290089</v>
       </c>
       <c r="EY10">
-        <v>0.01452030620227175</v>
+        <v>0.04080381592453328</v>
       </c>
       <c r="EZ10">
         <v>4.204903383171697E-05</v>
@@ -7056,21 +7053,21 @@
         <v>-0.0003705351515363034</v>
       </c>
       <c r="FD10">
-        <v>0.002895877899953533</v>
+        <v>0.001030517192546077</v>
       </c>
       <c r="FE10">
         <v>0</v>
       </c>
       <c r="FF10">
-        <v>-0.08959020205219789</v>
+        <v>-0.03188126250072499</v>
       </c>
     </row>
     <row r="11" spans="1:162">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -7202,7 +7199,7 @@
         <v>2056.6068</v>
       </c>
       <c r="DW11">
-        <v>41.74965030307067</v>
+        <v>58.26134056245682</v>
       </c>
       <c r="DX11">
         <v>19.34447158081705</v>
@@ -7235,7 +7232,7 @@
         <v>1.330560803253752</v>
       </c>
       <c r="EN11">
-        <v>0.02662590383579632</v>
+        <v>0.04105135424379045</v>
       </c>
       <c r="EO11">
         <v>-0.01201386059704</v>
@@ -7250,13 +7247,13 @@
         <v>0.001029560578455784</v>
       </c>
       <c r="ES11">
-        <v>-0.4512094939999132</v>
+        <v>-0.292654428053546</v>
       </c>
       <c r="ET11">
         <v>0</v>
       </c>
       <c r="EU11">
-        <v>0.02603473902439023</v>
+        <v>0.01688612886037306</v>
       </c>
       <c r="EW11">
         <v>0</v>
@@ -7265,7 +7262,7 @@
         <v>0.9332197995432762</v>
       </c>
       <c r="EY11">
-        <v>0.01008019988581934</v>
+        <v>0.03515470539748614</v>
       </c>
       <c r="EZ11">
         <v>-0.001329909758951479</v>
@@ -7280,21 +7277,21 @@
         <v>-9.738443875281272E-05</v>
       </c>
       <c r="FD11">
-        <v>-0.1319328757381463</v>
+        <v>-0.03783020633836912</v>
       </c>
       <c r="FE11">
         <v>0</v>
       </c>
       <c r="FF11">
-        <v>-0.06883024690751052</v>
+        <v>-0.01973626685739823</v>
       </c>
     </row>
     <row r="12" spans="1:162">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -7426,7 +7423,7 @@
         <v>2852.0896</v>
       </c>
       <c r="DW12">
-        <v>47.3825462377051</v>
+        <v>71.29867708916092</v>
       </c>
       <c r="DX12">
         <v>14.761878330373</v>
@@ -7459,7 +7456,7 @@
         <v>1.125478322914139</v>
       </c>
       <c r="EN12">
-        <v>0.007969628343519476</v>
+        <v>0.03172660954689219</v>
       </c>
       <c r="EO12">
         <v>-0.006483621476300211</v>
@@ -7474,13 +7471,13 @@
         <v>0.002141496949478785</v>
       </c>
       <c r="ES12">
-        <v>-0.8135412589938883</v>
+        <v>-0.2043591032542373</v>
       </c>
       <c r="ET12">
         <v>0</v>
       </c>
       <c r="EU12">
-        <v>-0.04000073898305081</v>
+        <v>-0.0100480646282065</v>
       </c>
       <c r="EW12">
         <v>0</v>
@@ -7489,7 +7486,7 @@
         <v>0.961365416901555</v>
       </c>
       <c r="EY12">
-        <v>0.00705170771034223</v>
+        <v>0.03599273784507974</v>
       </c>
       <c r="EZ12">
         <v>-0.00276511534001607</v>
@@ -7504,21 +7501,21 @@
         <v>0.0001643305216985631</v>
       </c>
       <c r="FD12">
-        <v>-0.3921199592491156</v>
+        <v>-0.07682425693532134</v>
       </c>
       <c r="FE12">
         <v>0</v>
       </c>
       <c r="FF12">
-        <v>-0.02847554820265456</v>
+        <v>-0.005578937720191543</v>
       </c>
     </row>
     <row r="13" spans="1:162">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -7650,7 +7647,7 @@
         <v>3613.20718</v>
       </c>
       <c r="DW13">
-        <v>44.68788161371256</v>
+        <v>86.4493259882359</v>
       </c>
       <c r="DX13">
         <v>9.186833925399645</v>
@@ -7683,7 +7680,7 @@
         <v>1.167107610138836</v>
       </c>
       <c r="EN13">
-        <v>-0.004132033830349306</v>
+        <v>0.03889070672939051</v>
       </c>
       <c r="EO13">
         <v>-0.008548845701220489</v>
@@ -7698,13 +7695,13 @@
         <v>0.0008162848220118967</v>
       </c>
       <c r="ES13">
-        <v>2.068919581062046</v>
+        <v>-0.2198171856506776</v>
       </c>
       <c r="ET13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU13">
-        <v>-0.3857823310344831</v>
+        <v>0.04098834341266498</v>
       </c>
       <c r="EW13">
         <v>0</v>
@@ -7713,7 +7710,7 @@
         <v>1.060481041966539</v>
       </c>
       <c r="EY13">
-        <v>0.003673870866947118</v>
+        <v>0.03916403545476685</v>
       </c>
       <c r="EZ13">
         <v>-0.004527657425061093</v>
@@ -7728,21 +7725,21 @@
         <v>0.0004909926771019313</v>
       </c>
       <c r="FD13">
-        <v>-1.232394275420858</v>
+        <v>-0.1156075305439447</v>
       </c>
       <c r="FE13">
         <v>0</v>
       </c>
       <c r="FF13">
-        <v>0.1023311224121947</v>
+        <v>0.009599402233367209</v>
       </c>
     </row>
     <row r="14" spans="1:162">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -7874,7 +7871,7 @@
         <v>4370.6234</v>
       </c>
       <c r="DW14">
-        <v>43.03531383911721</v>
+        <v>103.0546711643717</v>
       </c>
       <c r="DX14">
         <v>5.881771758436944</v>
@@ -7907,7 +7904,7 @@
         <v>1.232008672412255</v>
       </c>
       <c r="EN14">
-        <v>-0.002688056812475571</v>
+        <v>0.04467479585394783</v>
       </c>
       <c r="EO14">
         <v>-0.005375994261859993</v>
@@ -7922,13 +7919,13 @@
         <v>0.001323670139162818</v>
       </c>
       <c r="ES14">
-        <v>1.999955595026639</v>
+        <v>-0.120336179698176</v>
       </c>
       <c r="ET14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU14">
-        <v>-0.1581369333333326</v>
+        <v>0.009515008470108017</v>
       </c>
       <c r="EW14">
         <v>0</v>
@@ -7937,7 +7934,7 @@
         <v>1.093425343432265</v>
       </c>
       <c r="EY14">
-        <v>-0.001134077544519312</v>
+        <v>0.0407228691409621</v>
       </c>
       <c r="EZ14">
         <v>-0.006266671918686401</v>
@@ -7952,21 +7949,21 @@
         <v>0.0008659298570277953</v>
       </c>
       <c r="FD14">
-        <v>5.525787851960844</v>
+        <v>-0.1538858152895449</v>
       </c>
       <c r="FE14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF14">
-        <v>-0.950932587314817</v>
+        <v>0.02648220315450754</v>
       </c>
     </row>
     <row r="15" spans="1:162">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -8098,7 +8095,7 @@
         <v>4949.026720000001</v>
       </c>
       <c r="DW15">
-        <v>36.86777015475477</v>
+        <v>118.6964376074658</v>
       </c>
       <c r="DX15">
         <v>3.886434280639431</v>
@@ -8131,7 +8128,7 @@
         <v>0.9395437303561344</v>
       </c>
       <c r="EN15">
-        <v>-0.01001840203880624</v>
+        <v>0.04151681901040748</v>
       </c>
       <c r="EO15">
         <v>-0.003241175754678025</v>
@@ -8146,13 +8143,13 @@
         <v>0.0007113331819183118</v>
       </c>
       <c r="ES15">
-        <v>0.3235222286072514</v>
+        <v>-0.07806898100419311</v>
       </c>
       <c r="ET15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15">
-        <v>-0.05007277058823531</v>
+        <v>0.01208303427158279</v>
       </c>
       <c r="EW15">
         <v>0</v>
@@ -8161,7 +8158,7 @@
         <v>1.146302505006772</v>
       </c>
       <c r="EY15">
-        <v>-0.007707137342541583</v>
+        <v>0.04343188946083389</v>
       </c>
       <c r="EZ15">
         <v>-0.008535504774586724</v>
@@ -8176,21 +8173,21 @@
         <v>0.001373940874593456</v>
       </c>
       <c r="FD15">
-        <v>1.107480559282725</v>
+        <v>-0.1965262133549104</v>
       </c>
       <c r="FE15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15">
-        <v>-0.2624970649256297</v>
+        <v>0.04658100203584925</v>
       </c>
     </row>
     <row r="16" spans="1:162">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -8322,7 +8319,7 @@
         <v>5201.359480000001</v>
       </c>
       <c r="DW16">
-        <v>34.26968849219566</v>
+        <v>131.7290991415369</v>
       </c>
       <c r="DX16">
         <v>6.394871225577266</v>
@@ -8355,7 +8352,7 @@
         <v>0.4526220176914456</v>
       </c>
       <c r="EN16">
-        <v>-0.004660310314977145</v>
+        <v>0.03773103210592899</v>
       </c>
       <c r="EO16">
         <v>0.004499510056758097</v>
@@ -8370,13 +8367,13 @@
         <v>-0.002243712829159971</v>
       </c>
       <c r="ES16">
-        <v>-0.9654958044956206</v>
+        <v>0.1192522389561417</v>
       </c>
       <c r="ET16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU16">
-        <v>-0.4143587999999994</v>
+        <v>0.05117910860005626</v>
       </c>
       <c r="EW16">
         <v>0</v>
@@ -8385,7 +8382,7 @@
         <v>1.356003455692555</v>
       </c>
       <c r="EY16">
-        <v>-0.01900140368105331</v>
+        <v>0.05281139517051895</v>
       </c>
       <c r="EZ16">
         <v>-0.01292101916306174</v>
@@ -8400,13 +8397,13 @@
         <v>0.002321549196912006</v>
       </c>
       <c r="FD16">
-        <v>0.6800034029036264</v>
+        <v>-0.244663469339183</v>
       </c>
       <c r="FE16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF16">
-        <v>-0.1959564841793582</v>
+        <v>0.07050463726227162</v>
       </c>
     </row>
   </sheetData>
@@ -8802,79 +8799,79 @@
         <v>122</v>
       </c>
       <c r="DW1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DX1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="EG1" s="1" t="s">
         <v>116</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="EI1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="EJ1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EK1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="EV1" s="1" t="s">
         <v>116</v>
@@ -8883,39 +8880,39 @@
         <v>15</v>
       </c>
       <c r="EX1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="EY1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:162">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9067,10 +9064,10 @@
     </row>
     <row r="3" spans="1:162">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -9199,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>-0.8503741202069431</v>
+        <v>-0.09365129985531911</v>
       </c>
       <c r="DX3">
         <v>1.062944049733571</v>
@@ -9232,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="EN3">
-        <v>-0.05942133544477978</v>
+        <v>-0.01253184345931253</v>
       </c>
       <c r="EO3">
         <v>0.07427502017921296</v>
@@ -9247,7 +9244,7 @@
         <v>-0.01686054842071362</v>
       </c>
       <c r="ES3">
-        <v>-1.249972246891635</v>
+        <v>-5.926902966859077</v>
       </c>
       <c r="ET3">
         <v>-0</v>
@@ -9262,7 +9259,7 @@
         <v>-10.69885684993262</v>
       </c>
       <c r="EY3">
-        <v>-0.2923335472624185</v>
+        <v>-0.06064787350145411</v>
       </c>
       <c r="EZ3">
         <v>0.1759559585262335</v>
@@ -9277,21 +9274,21 @@
         <v>-2.173625629963955E-06</v>
       </c>
       <c r="FD3">
-        <v>-0.6019013560844712</v>
+        <v>-2.901271691282214</v>
       </c>
       <c r="FE3">
         <v>-0</v>
       </c>
       <c r="FF3">
-        <v>0.02856681903914181</v>
+        <v>0.1376971534462077</v>
       </c>
     </row>
     <row r="4" spans="1:162">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -9420,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>2.620784209240876</v>
+        <v>2.098699807863949</v>
       </c>
       <c r="DX4">
         <v>3.166629662522203</v>
@@ -9453,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.1047053347581976</v>
+        <v>0.1253180731183673</v>
       </c>
       <c r="EO4">
         <v>0.06345636972084683</v>
@@ -9468,13 +9465,13 @@
         <v>0.006687895247811049</v>
       </c>
       <c r="ES4">
-        <v>0.6060471500080722</v>
+        <v>0.5063624754340906</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>-0.1501299999999997</v>
+        <v>-0.125436112414533</v>
       </c>
       <c r="EW4">
         <v>0</v>
@@ -9483,7 +9480,7 @@
         <v>-1.442756292687172</v>
       </c>
       <c r="EY4">
-        <v>-0.04035054373755291</v>
+        <v>0.0920385956332451</v>
       </c>
       <c r="EZ4">
         <v>0.08827729457014298</v>
@@ -9498,21 +9495,21 @@
         <v>-0.004357861671685254</v>
       </c>
       <c r="FD4">
-        <v>-2.187759727460283</v>
+        <v>0.9591334370410199</v>
       </c>
       <c r="FE4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.3439985297289477</v>
+        <v>-0.1508120329735675</v>
       </c>
     </row>
     <row r="5" spans="1:162">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -9641,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="DW5">
-        <v>8.865372232953661</v>
+        <v>5.775161112856211</v>
       </c>
       <c r="DX5">
         <v>5.456261101243339</v>
@@ -9674,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.1297452493907848</v>
+        <v>0.1432250375486492</v>
       </c>
       <c r="EO5">
         <v>0.04757220186532496</v>
@@ -9689,13 +9686,13 @@
         <v>0.00144142041753685</v>
       </c>
       <c r="ES5">
-        <v>0.3666585257548842</v>
+        <v>0.3321500394033141</v>
       </c>
       <c r="ET5">
         <v>0</v>
       </c>
       <c r="EU5">
-        <v>-0.02732366</v>
+        <v>-0.0247520625</v>
       </c>
       <c r="EW5">
         <v>0</v>
@@ -9704,7 +9701,7 @@
         <v>1.156468434822402</v>
       </c>
       <c r="EY5">
-        <v>0.02538784172336457</v>
+        <v>0.1066231394860292</v>
       </c>
       <c r="EZ5">
         <v>0.04367763231391309</v>
@@ -9719,21 +9716,21 @@
         <v>-0.003958977400016495</v>
       </c>
       <c r="FD5">
-        <v>1.720415338564062</v>
+        <v>0.4096449656656017</v>
       </c>
       <c r="FE5">
         <v>0</v>
       </c>
       <c r="FF5">
-        <v>-0.4328726760989572</v>
+        <v>-0.1030705252175543</v>
       </c>
     </row>
     <row r="6" spans="1:162">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -9865,7 +9862,7 @@
         <v>47.20975</v>
       </c>
       <c r="DW6">
-        <v>1.245864695042066</v>
+        <v>8.399594504597491</v>
       </c>
       <c r="DX6">
         <v>8.545182060390765</v>
@@ -9898,7 +9895,7 @@
         <v>0.4953809684700526</v>
       </c>
       <c r="EN6">
-        <v>-0.07995295512887725</v>
+        <v>0.05108425757508606</v>
       </c>
       <c r="EO6">
         <v>0.0324126405301849</v>
@@ -9913,13 +9910,13 @@
         <v>0.0005644812607320844</v>
       </c>
       <c r="ES6">
-        <v>-0.4053964043972924</v>
+        <v>0.6344937181976905</v>
       </c>
       <c r="ET6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.07352312432432426</v>
+        <v>-0.1150724575256325</v>
       </c>
       <c r="EW6">
         <v>0</v>
@@ -9928,7 +9925,7 @@
         <v>1.670005123868729</v>
       </c>
       <c r="EY6">
-        <v>0.03602054378444276</v>
+        <v>0.08705572328099692</v>
       </c>
       <c r="EZ6">
         <v>0.01947016239969972</v>
@@ -9943,21 +9940,21 @@
         <v>-0.002708168140274512</v>
       </c>
       <c r="FD6">
-        <v>0.5405293855699331</v>
+        <v>0.2236517217467055</v>
       </c>
       <c r="FE6">
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>-0.1981014283151295</v>
+        <v>-0.08196728375173239</v>
       </c>
     </row>
     <row r="7" spans="1:162">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -10089,7 +10086,7 @@
         <v>151.6396</v>
       </c>
       <c r="DW7">
-        <v>-1.19868336330737</v>
+        <v>13.10528942315593</v>
       </c>
       <c r="DX7">
         <v>11.60079928952043</v>
@@ -10122,7 +10119,7 @@
         <v>0.8216886947641583</v>
       </c>
       <c r="EN7">
-        <v>-0.01923451487628686</v>
+        <v>0.0679426518290039</v>
       </c>
       <c r="EO7">
         <v>0.02404260977778314</v>
@@ -10137,13 +10134,13 @@
         <v>-0.001487154024964129</v>
       </c>
       <c r="ES7">
-        <v>-1.249972246891649</v>
+        <v>0.3538662258619649</v>
       </c>
       <c r="ET7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU7">
-        <v>0.2537196999999995</v>
+        <v>-0.07182786088978854</v>
       </c>
       <c r="EW7">
         <v>0</v>
@@ -10152,7 +10149,7 @@
         <v>1.675201950103916</v>
       </c>
       <c r="EY7">
-        <v>0.03404447289948155</v>
+        <v>0.07481890495720228</v>
       </c>
       <c r="EZ7">
         <v>0.01075127112979289</v>
@@ -10167,21 +10164,21 @@
         <v>-0.002009906631357641</v>
       </c>
       <c r="FD7">
-        <v>0.3158007809824723</v>
+        <v>0.1436972532001478</v>
       </c>
       <c r="FE7">
         <v>0</v>
       </c>
       <c r="FF7">
-        <v>-0.1532196323088766</v>
+        <v>-0.06971876456614651</v>
       </c>
     </row>
     <row r="8" spans="1:162">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -10313,7 +10310,7 @@
         <v>379.9516</v>
       </c>
       <c r="DW8">
-        <v>-0.6991163214103514</v>
+        <v>20.41356268008309</v>
       </c>
       <c r="DX8">
         <v>15.59724689165187</v>
@@ -10346,7 +10343,7 @@
         <v>0.9346256887741174</v>
       </c>
       <c r="EN8">
-        <v>0.002045044459432046</v>
+        <v>0.05385130815598403</v>
       </c>
       <c r="EO8">
         <v>0.01635999243487757</v>
@@ -10361,13 +10358,13 @@
         <v>-0.003227420779588957</v>
       </c>
       <c r="ES8">
-        <v>7.999822380106639</v>
+        <v>0.3037993503795622</v>
       </c>
       <c r="ET8">
         <v>0</v>
       </c>
       <c r="EU8">
-        <v>-2.45372472000002</v>
+        <v>-0.09318206586686022</v>
       </c>
       <c r="EW8">
         <v>0</v>
@@ -10376,7 +10373,7 @@
         <v>1.38162964650312</v>
       </c>
       <c r="EY8">
-        <v>0.02544385113389043</v>
+        <v>0.05602709221594682</v>
       </c>
       <c r="EZ8">
         <v>0.004496034830098631</v>
@@ -10391,21 +10388,21 @@
         <v>-0.001223728257712087</v>
       </c>
       <c r="FD8">
-        <v>0.1767041791920426</v>
+        <v>0.08024751334174966</v>
       </c>
       <c r="FE8">
         <v>0</v>
       </c>
       <c r="FF8">
-        <v>-0.1252343314043098</v>
+        <v>-0.05687326539849608</v>
       </c>
     </row>
     <row r="9" spans="1:162">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -10537,7 +10534,7 @@
         <v>738.1766</v>
       </c>
       <c r="DW9">
-        <v>4.043440129665395</v>
+        <v>30.24577592744748</v>
       </c>
       <c r="DX9">
         <v>18.36367673179396</v>
@@ -10570,7 +10567,7 @@
         <v>1.020790513883712</v>
       </c>
       <c r="EN9">
-        <v>0.01351429028352607</v>
+        <v>0.04987145348268991</v>
       </c>
       <c r="EO9">
         <v>0.007883160969061026</v>
@@ -10585,13 +10582,13 @@
         <v>-0.003337541158437184</v>
       </c>
       <c r="ES9">
-        <v>0.5833203818827692</v>
+        <v>0.1580696053263662</v>
       </c>
       <c r="ET9">
         <v>0</v>
       </c>
       <c r="EU9">
-        <v>-0.373448374999999</v>
+        <v>-0.1011979678397148</v>
       </c>
       <c r="EW9">
         <v>0</v>
@@ -10600,7 +10597,7 @@
         <v>1.139559090603529</v>
       </c>
       <c r="EY9">
-        <v>0.01859495534734582</v>
+        <v>0.04437783395098252</v>
       </c>
       <c r="EZ9">
         <v>0.00162249283898203</v>
@@ -10615,21 +10612,21 @@
         <v>-0.0007438775370419502</v>
       </c>
       <c r="FD9">
-        <v>0.08725446276554889</v>
+        <v>0.03656088399389101</v>
       </c>
       <c r="FE9">
         <v>0</v>
       </c>
       <c r="FF9">
-        <v>-0.1070092329185006</v>
+        <v>-0.04483841888432662</v>
       </c>
     </row>
     <row r="10" spans="1:162">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -10761,7 +10758,7 @@
         <v>1320.5606</v>
       </c>
       <c r="DW10">
-        <v>23.3866759919181</v>
+        <v>43.42082962168353</v>
       </c>
       <c r="DX10">
         <v>21.29440497335701</v>
@@ -10794,7 +10791,7 @@
         <v>1.209012781882267</v>
       </c>
       <c r="EN10">
-        <v>0.04015601287196589</v>
+        <v>0.04813783112214134</v>
       </c>
       <c r="EO10">
         <v>0.006084109289185602</v>
@@ -10809,13 +10806,13 @@
         <v>-0.002652593773486025</v>
       </c>
       <c r="ES10">
-        <v>0.1515117875020182</v>
+        <v>0.1263893521448491</v>
       </c>
       <c r="ET10">
         <v>0</v>
       </c>
       <c r="EU10">
-        <v>-0.07269931515151516</v>
+        <v>-0.06064491413416812</v>
       </c>
       <c r="EW10">
         <v>0</v>
@@ -10824,7 +10821,7 @@
         <v>1.051063398575002</v>
       </c>
       <c r="EY10">
-        <v>0.01452454102672872</v>
+        <v>0.04019213141270235</v>
       </c>
       <c r="EZ10">
         <v>1.169416334642453E-05</v>
@@ -10839,21 +10836,21 @@
         <v>-0.0004495627982125332</v>
       </c>
       <c r="FD10">
-        <v>0.0008051313514764008</v>
+        <v>0.0002909565364012692</v>
       </c>
       <c r="FE10">
         <v>0</v>
       </c>
       <c r="FF10">
-        <v>-0.08912834279315153</v>
+        <v>-0.03220899778244507</v>
       </c>
     </row>
     <row r="11" spans="1:162">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -10985,7 +10982,7 @@
         <v>2085.3254</v>
       </c>
       <c r="DW11">
-        <v>41.44768977996845</v>
+        <v>56.4275871541051</v>
       </c>
       <c r="DX11">
         <v>14.92007104795737</v>
@@ -11018,7 +11015,7 @@
         <v>1.302920207576451</v>
       </c>
       <c r="EN11">
-        <v>0.0307703228937416</v>
+        <v>0.03855744271941955</v>
       </c>
       <c r="EO11">
         <v>-0.01085987284096145</v>
@@ -11033,13 +11030,13 @@
         <v>0.001212446225197416</v>
       </c>
       <c r="ES11">
-        <v>-0.3529333402988193</v>
+        <v>-0.2816543856393218</v>
       </c>
       <c r="ET11">
         <v>0</v>
       </c>
       <c r="EU11">
-        <v>-0.01059741176470592</v>
+        <v>-0.008457142352796735</v>
       </c>
       <c r="EW11">
         <v>0</v>
@@ -11048,7 +11045,7 @@
         <v>0.9334249641805815</v>
       </c>
       <c r="EY11">
-        <v>0.01024501153534522</v>
+        <v>0.03557863210255917</v>
       </c>
       <c r="EZ11">
         <v>-0.001087126195466632</v>
@@ -11063,21 +11060,21 @@
         <v>-0.0001877141664819498</v>
       </c>
       <c r="FD11">
-        <v>-0.1061127351312445</v>
+        <v>-0.03055559281573489</v>
       </c>
       <c r="FE11">
         <v>0</v>
       </c>
       <c r="FF11">
-        <v>-0.06670312734549234</v>
+        <v>-0.01920743628164993</v>
       </c>
     </row>
     <row r="12" spans="1:162">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -11209,7 +11206,7 @@
         <v>2780.9622</v>
       </c>
       <c r="DW12">
-        <v>48.9900419636315</v>
+        <v>69.74347642302024</v>
       </c>
       <c r="DX12">
         <v>12.05595026642984</v>
@@ -11242,7 +11239,7 @@
         <v>1.002110066730851</v>
       </c>
       <c r="EN12">
-        <v>0.01086524900649039</v>
+        <v>0.03299373623739781</v>
       </c>
       <c r="EO12">
         <v>-0.004125952318080025</v>
@@ -11257,13 +11254,13 @@
         <v>0.001236408177476745</v>
       </c>
       <c r="ES12">
-        <v>-0.3797384041189829</v>
+        <v>-0.1250525944801405</v>
       </c>
       <c r="ET12">
         <v>0</v>
       </c>
       <c r="EU12">
-        <v>0.02120823797468352</v>
+        <v>0.006984137380678048</v>
       </c>
       <c r="EW12">
         <v>0</v>
@@ -11272,7 +11269,7 @@
         <v>0.9617007994367375</v>
       </c>
       <c r="EY12">
-        <v>0.007200103440877068</v>
+        <v>0.03699306626333915</v>
       </c>
       <c r="EZ12">
         <v>-0.00222516398656104</v>
@@ -11287,21 +11284,21 @@
         <v>5.475754175464794E-05</v>
       </c>
       <c r="FD12">
-        <v>-0.309046113688887</v>
+        <v>-0.06015083936867977</v>
       </c>
       <c r="FE12">
         <v>0</v>
       </c>
       <c r="FF12">
-        <v>-0.02371544247009723</v>
+        <v>-0.004615828212653175</v>
       </c>
     </row>
     <row r="13" spans="1:162">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -11433,7 +11430,7 @@
         <v>3509.68788</v>
       </c>
       <c r="DW13">
-        <v>46.3882968094318</v>
+        <v>85.90512590011704</v>
       </c>
       <c r="DX13">
         <v>9.640097690941381</v>
@@ -11466,7 +11463,7 @@
         <v>1.140903456384191</v>
       </c>
       <c r="EN13">
-        <v>-0.004073329814666685</v>
+        <v>0.0423570746790625</v>
       </c>
       <c r="EO13">
         <v>-0.003782293706857465</v>
@@ -11481,13 +11478,13 @@
         <v>0.000442921722247835</v>
       </c>
       <c r="ES13">
-        <v>0.9285508119766541</v>
+        <v>-0.08929544203691403</v>
       </c>
       <c r="ET13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU13">
-        <v>-0.6015923571428559</v>
+        <v>0.05785300574208211</v>
       </c>
       <c r="EW13">
         <v>0</v>
@@ -11496,7 +11493,7 @@
         <v>1.072237765845738</v>
       </c>
       <c r="EY13">
-        <v>0.00386585954746294</v>
+        <v>0.04133661221600577</v>
       </c>
       <c r="EZ13">
         <v>-0.00364620952964426</v>
@@ -11511,21 +11508,21 @@
         <v>0.000354840287133932</v>
       </c>
       <c r="FD13">
-        <v>-0.9431821008699526</v>
+        <v>-0.08820774935766088</v>
       </c>
       <c r="FE13">
         <v>0</v>
       </c>
       <c r="FF13">
-        <v>0.1112999688661446</v>
+        <v>0.01040893349036741</v>
       </c>
     </row>
     <row r="14" spans="1:162">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -11657,7 +11654,7 @@
         <v>4316.79026</v>
       </c>
       <c r="DW14">
-        <v>43.72582650591707</v>
+        <v>103.6134116406742</v>
       </c>
       <c r="DX14">
         <v>7.253108348134989</v>
@@ -11690,7 +11687,7 @@
         <v>1.334336691543813</v>
       </c>
       <c r="EN14">
-        <v>-0.004401711485630234</v>
+        <v>0.04842268050898105</v>
       </c>
       <c r="EO14">
         <v>-0.003946274402549306</v>
@@ -11705,13 +11702,13 @@
         <v>0.001186757637006404</v>
       </c>
       <c r="ES14">
-        <v>0.896531818460219</v>
+        <v>-0.08149640542549853</v>
       </c>
       <c r="ET14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU14">
-        <v>-0.06088030344827602</v>
+        <v>0.005534132520549501</v>
       </c>
       <c r="EW14">
         <v>0</v>
@@ -11720,7 +11717,7 @@
         <v>1.091204571776932</v>
       </c>
       <c r="EY14">
-        <v>-0.0009609274401535743</v>
+        <v>0.04314859628159266</v>
       </c>
       <c r="EZ14">
         <v>-0.004936292031930922</v>
@@ -11735,21 +11732,21 @@
         <v>0.0006967759446797673</v>
       </c>
       <c r="FD14">
-        <v>5.137008087876032</v>
+        <v>-0.1144021464734592</v>
       </c>
       <c r="FE14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF14">
-        <v>-1.185357475849065</v>
+        <v>0.02639813628005469</v>
       </c>
     </row>
     <row r="15" spans="1:162">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -11881,7 +11878,7 @@
         <v>4931.99126</v>
       </c>
       <c r="DW15">
-        <v>36.65129110326603</v>
+        <v>120.0597747390547</v>
       </c>
       <c r="DX15">
         <v>3.26243339253996</v>
@@ -11914,7 +11911,7 @@
         <v>0.9894493728101653</v>
       </c>
       <c r="EN15">
-        <v>-0.01137822373025463</v>
+        <v>0.0432213642834021</v>
       </c>
       <c r="EO15">
         <v>-0.006418342674837551</v>
@@ -11929,13 +11926,13 @@
         <v>0.00151373927951834</v>
       </c>
       <c r="ES15">
-        <v>0.5640900396228995</v>
+        <v>-0.1484993077208886</v>
       </c>
       <c r="ET15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15">
-        <v>-0.0482725692307692</v>
+        <v>0.01270797675752275</v>
       </c>
       <c r="EW15">
         <v>0</v>
@@ -11944,7 +11941,7 @@
         <v>1.109233663814932</v>
       </c>
       <c r="EY15">
-        <v>-0.007207761418698479</v>
+        <v>0.04548399747979521</v>
       </c>
       <c r="EZ15">
         <v>-0.006456069917644156</v>
@@ -11959,21 +11956,21 @@
         <v>0.001127228501990497</v>
       </c>
       <c r="FD15">
-        <v>0.8957108237372738</v>
+        <v>-0.141941567922038</v>
       </c>
       <c r="FE15">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15">
-        <v>-0.2811032040442976</v>
+        <v>0.04454588297088564</v>
       </c>
     </row>
     <row r="16" spans="1:162">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -12105,7 +12102,7 @@
         <v>5163.92306</v>
       </c>
       <c r="DW16">
-        <v>33.87403139501318</v>
+        <v>133.4777265271156</v>
       </c>
       <c r="DX16">
         <v>5.412522202486674</v>
@@ -12138,7 +12135,7 @@
         <v>0.4033515971021196</v>
       </c>
       <c r="EN16">
-        <v>-0.004829920428725824</v>
+        <v>0.03766285513955177</v>
       </c>
       <c r="EO16">
         <v>0.003739210213534331</v>
@@ -12153,13 +12150,13 @@
         <v>-0.002823741869761531</v>
       </c>
       <c r="ES16">
-        <v>-0.7741763593651516</v>
+        <v>0.09928111396970504</v>
       </c>
       <c r="ET16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU16">
-        <v>-0.2016584903225805</v>
+        <v>0.02586087694164739</v>
       </c>
       <c r="EW16">
         <v>0</v>
@@ -12168,7 +12165,7 @@
         <v>1.31277783299762</v>
       </c>
       <c r="EY16">
-        <v>-0.017871476969008</v>
+        <v>0.05652444779371728</v>
       </c>
       <c r="EZ16">
         <v>-0.00967102376493512</v>
@@ -12183,13 +12180,13 @@
         <v>0.001953538218070897</v>
       </c>
       <c r="FD16">
-        <v>0.5411429498359996</v>
+        <v>-0.1710945288705688</v>
       </c>
       <c r="FE16">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF16">
-        <v>-0.2056089720670858</v>
+        <v>0.06500790635458023</v>
       </c>
     </row>
   </sheetData>

--- a/output_files/cl_3.xlsx
+++ b/output_files/cl_3.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/development/Reserch/UMN_Research/CCDPA_git/CCDPApy/output_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC65E63-A3D4-A640-AAE8-9DF6CF23858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22360" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample CL3_1" sheetId="1" r:id="rId1"/>
     <sheet name="Sample CL3_2" sheetId="2" r:id="rId2"/>
     <sheet name="Sample CL3_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -495,8 +514,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,13 +578,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -603,7 +630,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -637,6 +664,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -671,9 +699,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,14 +875,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="23" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="24" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="24" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="20" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="17" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="23" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="15" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="45" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="17" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="34" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="37" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="31" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="39" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="41" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:162">
+    <row r="1" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1536,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:162">
+    <row r="2" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -1352,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02569444444816327</v>
+        <v>2.5694444448163271E-2</v>
       </c>
       <c r="E2">
-        <v>0.6166666667559184</v>
+        <v>0.61666666675591841</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -1364,28 +1559,28 @@
         <v>0.26</v>
       </c>
       <c r="J2">
-        <v>0.001044176706827327</v>
+        <v>1.0441767068273271E-3</v>
       </c>
       <c r="K2">
-        <v>0.2610441767068273</v>
+        <v>0.26104417670682728</v>
       </c>
       <c r="L2">
-        <v>99.59999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="S2">
         <v>335</v>
       </c>
       <c r="U2">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="V2">
-        <v>2.217</v>
+        <v>2.2170000000000001</v>
       </c>
       <c r="W2">
         <v>6.718</v>
       </c>
       <c r="X2">
-        <v>1.884</v>
+        <v>1.8839999999999999</v>
       </c>
       <c r="Y2">
         <v>1.123</v>
@@ -1397,28 +1592,28 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.499</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.212</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="AD2">
-        <v>1.309</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="AE2">
-        <v>2.979</v>
+        <v>2.9790000000000001</v>
       </c>
       <c r="AF2">
         <v>0.6660746003552398</v>
       </c>
       <c r="AG2">
-        <v>4.587</v>
+        <v>4.5869999999999997</v>
       </c>
       <c r="AH2">
-        <v>3.535</v>
+        <v>3.5350000000000001</v>
       </c>
       <c r="AI2">
-        <v>0.831</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="AJ2">
         <v>0.64</v>
@@ -1427,22 +1622,22 @@
         <v>1.357</v>
       </c>
       <c r="AL2">
-        <v>5.303</v>
+        <v>5.3029999999999999</v>
       </c>
       <c r="AM2">
-        <v>5.193</v>
+        <v>5.1929999999999996</v>
       </c>
       <c r="AN2">
-        <v>3.267</v>
+        <v>3.2669999999999999</v>
       </c>
       <c r="AO2">
         <v>1.141</v>
       </c>
       <c r="AP2">
-        <v>1.558</v>
+        <v>1.5580000000000001</v>
       </c>
       <c r="AQ2">
-        <v>3.267</v>
+        <v>3.2669999999999999</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1451,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.02569444444816327</v>
+        <v>2.5694444448163271E-2</v>
       </c>
       <c r="DO2">
-        <v>0.6166666667559184</v>
+        <v>0.61666666675591841</v>
       </c>
       <c r="DP2">
         <v>1935</v>
@@ -1478,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="DX2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY2">
         <v>0</v>
@@ -1496,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:162">
+    <row r="3" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -1516,76 +1711,76 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>0.4324999881744384</v>
+        <v>0.43249998817443841</v>
       </c>
       <c r="J3">
-        <v>0.002559032080428236</v>
+        <v>2.5590320804282358E-3</v>
       </c>
       <c r="K3">
-        <v>0.4350590202548666</v>
+        <v>0.43505902025486659</v>
       </c>
       <c r="L3">
-        <v>99.41179656982422</v>
+        <v>99.411796569824219</v>
       </c>
       <c r="S3">
         <v>330</v>
       </c>
       <c r="U3">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="V3">
         <v>2.133</v>
       </c>
       <c r="W3">
-        <v>6.363</v>
+        <v>6.3630000000000004</v>
       </c>
       <c r="X3">
-        <v>1.932</v>
+        <v>1.9319999999999999</v>
       </c>
       <c r="Y3">
         <v>1.19</v>
       </c>
       <c r="Z3">
-        <v>32.86040986700415</v>
+        <v>32.860409867004151</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.551</v>
+        <v>2.5510000000000002</v>
       </c>
       <c r="AC3">
-        <v>0.273</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="AD3">
-        <v>1.668</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="AE3">
-        <v>2.982</v>
+        <v>2.9820000000000002</v>
       </c>
       <c r="AF3">
         <v>1.33214920071048</v>
       </c>
       <c r="AG3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AH3">
-        <v>3.622</v>
+        <v>3.6219999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.822</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="AJ3">
         <v>0.8</v>
       </c>
       <c r="AK3">
-        <v>1.378</v>
+        <v>1.3779999999999999</v>
       </c>
       <c r="AL3">
-        <v>5.349</v>
+        <v>5.3490000000000002</v>
       </c>
       <c r="AM3">
-        <v>5.102</v>
+        <v>5.1020000000000003</v>
       </c>
       <c r="AN3">
         <v>3.33</v>
@@ -1594,7 +1789,7 @@
         <v>1.153</v>
       </c>
       <c r="AP3">
-        <v>1.572</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="AQ3">
         <v>3.302</v>
@@ -1618,10 +1813,10 @@
         <v>1895</v>
       </c>
       <c r="DS3">
-        <v>7.155833211122428</v>
+        <v>7.1558332111224283</v>
       </c>
       <c r="DT3">
-        <v>330.3374773540496</v>
+        <v>330.33747735404961</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -1642,7 +1837,7 @@
         <v>0.6798249999999989</v>
       </c>
       <c r="EA3">
-        <v>-0.09192000000000007</v>
+        <v>-9.1920000000000071E-2</v>
       </c>
       <c r="EH3">
         <v>0</v>
@@ -1651,34 +1846,34 @@
         <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.02410620581630087</v>
+        <v>2.4106205816300869E-2</v>
       </c>
       <c r="EK3">
-        <v>0.02431790099265662</v>
+        <v>2.431790099265662E-2</v>
       </c>
       <c r="EL3">
-        <v>0.000211695176355752</v>
+        <v>2.1169517635575199E-4</v>
       </c>
       <c r="EM3">
         <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.2206975734224537</v>
+        <v>0.22069757342245369</v>
       </c>
       <c r="EO3">
-        <v>0.09308134786036505</v>
+        <v>9.3081347860365052E-2</v>
       </c>
       <c r="EP3">
         <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.04960987624029822</v>
+        <v>4.9609876240298223E-2</v>
       </c>
       <c r="ER3">
-        <v>-0.006707814252209354</v>
+        <v>-6.7078142522093544E-3</v>
       </c>
       <c r="ES3">
-        <v>0.4217597249344971</v>
+        <v>0.42175972493449709</v>
       </c>
       <c r="ET3">
         <v>0</v>
@@ -1690,34 +1885,34 @@
         <v>0</v>
       </c>
       <c r="EX3">
-        <v>-9.178605085269693</v>
+        <v>-9.1786050852696928</v>
       </c>
       <c r="EY3">
-        <v>0.04097912870774906</v>
+        <v>4.0979128707749057E-2</v>
       </c>
       <c r="EZ3">
-        <v>0.2470638845476313</v>
+        <v>0.24706388454763131</v>
       </c>
       <c r="FA3">
-        <v>0.01891560179151342</v>
+        <v>1.8915601791513421E-2</v>
       </c>
       <c r="FB3">
-        <v>-0.04900296927229024</v>
+        <v>-4.9002969272290239E-2</v>
       </c>
       <c r="FC3">
-        <v>0.006178874804291539</v>
+        <v>6.1788748042915387E-3</v>
       </c>
       <c r="FD3">
-        <v>6.029017510587336</v>
+        <v>6.0290175105873356</v>
       </c>
       <c r="FE3">
         <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.4615911169418428</v>
+        <v>0.46159111694184279</v>
       </c>
     </row>
-    <row r="4" spans="1:162">
+    <row r="4" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -1728,10 +1923,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2.022916666668607</v>
+        <v>2.0229166666686069</v>
       </c>
       <c r="E4">
-        <v>48.55000000004657</v>
+        <v>48.550000000046573</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -1740,10 +1935,10 @@
         <v>0.84</v>
       </c>
       <c r="J4">
-        <v>0.01106382978723408</v>
+        <v>1.1063829787234081E-2</v>
       </c>
       <c r="K4">
-        <v>0.851063829787234</v>
+        <v>0.85106382978723405</v>
       </c>
       <c r="L4">
         <v>98.7</v>
@@ -1752,49 +1947,49 @@
         <v>335</v>
       </c>
       <c r="U4">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="V4">
         <v>1.657</v>
       </c>
       <c r="W4">
-        <v>5.186</v>
+        <v>5.1859999999999999</v>
       </c>
       <c r="X4">
-        <v>1.818</v>
+        <v>1.8180000000000001</v>
       </c>
       <c r="Y4">
         <v>1.083</v>
       </c>
       <c r="Z4">
-        <v>32.08330557960878</v>
+        <v>32.083305579608783</v>
       </c>
       <c r="AA4">
-        <v>0.332</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="AB4">
         <v>2.355</v>
       </c>
       <c r="AC4">
-        <v>0.386</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="AD4">
-        <v>1.437</v>
+        <v>1.4370000000000001</v>
       </c>
       <c r="AE4">
-        <v>2.639</v>
+        <v>2.6389999999999998</v>
       </c>
       <c r="AF4">
         <v>2.553285968028419</v>
       </c>
       <c r="AG4">
-        <v>4.076</v>
+        <v>4.0759999999999996</v>
       </c>
       <c r="AH4">
-        <v>3.292</v>
+        <v>3.2919999999999998</v>
       </c>
       <c r="AI4">
-        <v>0.732</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="AJ4">
         <v>1.26</v>
@@ -1803,13 +1998,13 @@
         <v>1.228</v>
       </c>
       <c r="AL4">
-        <v>4.849</v>
+        <v>4.8490000000000002</v>
       </c>
       <c r="AM4">
         <v>4.431</v>
       </c>
       <c r="AN4">
-        <v>3.013</v>
+        <v>3.0129999999999999</v>
       </c>
       <c r="AO4">
         <v>1.014</v>
@@ -1818,19 +2013,19 @@
         <v>1.454</v>
       </c>
       <c r="AQ4">
-        <v>2.965</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>2.704989563996219</v>
+        <v>2.7049895639962189</v>
       </c>
       <c r="DN4">
-        <v>2.022916666668607</v>
+        <v>2.0229166666686069</v>
       </c>
       <c r="DO4">
-        <v>48.55000000004657</v>
+        <v>48.550000000046573</v>
       </c>
       <c r="DP4">
         <v>1895</v>
@@ -1851,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>2.704989563996219</v>
+        <v>2.7049895639962189</v>
       </c>
       <c r="DX4">
         <v>3.58958703374778</v>
       </c>
       <c r="DY4">
-        <v>-0.62914</v>
+        <v>-0.62914000000000003</v>
       </c>
       <c r="DZ4">
         <v>2.910239999999999</v>
       </c>
       <c r="EA4">
-        <v>0.1241099999999997</v>
+        <v>0.12410999999999971</v>
       </c>
       <c r="EH4">
         <v>0</v>
@@ -1872,73 +2067,73 @@
         <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.02348917618491145</v>
+        <v>2.3489176184911451E-2</v>
       </c>
       <c r="EK4">
-        <v>0.02397941099707069</v>
+        <v>2.397941099707069E-2</v>
       </c>
       <c r="EL4">
-        <v>0.0004902348121592426</v>
+        <v>4.9023481215924262E-4</v>
       </c>
       <c r="EM4">
         <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.06488860456702468</v>
+        <v>6.488860456702468E-2</v>
       </c>
       <c r="EO4">
-        <v>0.0703889468491177</v>
+        <v>7.0388946849117701E-2</v>
       </c>
       <c r="EP4">
-        <v>-0.01913719329345409</v>
+        <v>-1.9137193293454091E-2</v>
       </c>
       <c r="EQ4">
-        <v>0.06784480875420322</v>
+        <v>6.784480875420322E-2</v>
       </c>
       <c r="ER4">
-        <v>0.006571204926065553</v>
+        <v>6.571204926065553E-3</v>
       </c>
       <c r="ES4">
-        <v>1.084765920284379</v>
+        <v>1.0847659202843789</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>-0.2949237916449092</v>
+        <v>-0.29492379164490917</v>
       </c>
       <c r="EW4">
         <v>0</v>
       </c>
       <c r="EX4">
-        <v>-0.7669918235791451</v>
+        <v>-0.76699182357914508</v>
       </c>
       <c r="EY4">
         <v>0.109444126623743</v>
       </c>
       <c r="EZ4">
-        <v>0.09697851781982003</v>
+        <v>9.6978517819820031E-2</v>
       </c>
       <c r="FA4">
-        <v>-0.009547780843026318</v>
+        <v>-9.5477808430263177E-3</v>
       </c>
       <c r="FB4">
-        <v>-0.002491737500690935</v>
+        <v>-2.4917375006909348E-3</v>
       </c>
       <c r="FC4">
-        <v>-0.001872803998002508</v>
+        <v>-1.872803998002508E-3</v>
       </c>
       <c r="FD4">
-        <v>0.8861007055519898</v>
+        <v>0.88610070555198983</v>
       </c>
       <c r="FE4">
         <v>0</v>
       </c>
       <c r="FF4">
-        <v>-0.08723886002444467</v>
+        <v>-8.723886002444467E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:162">
+    <row r="5" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -1949,10 +2144,10 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2.960416666668607</v>
+        <v>2.9604166666686069</v>
       </c>
       <c r="E5">
-        <v>71.05000000004657</v>
+        <v>71.050000000046566</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -1961,61 +2156,61 @@
         <v>1.487300021743774</v>
       </c>
       <c r="J5">
-        <v>0.01740190440948042</v>
+        <v>1.7401904409480421E-2</v>
       </c>
       <c r="K5">
         <v>1.504701926153255</v>
       </c>
       <c r="L5">
-        <v>98.84349822998047</v>
+        <v>98.843498229980469</v>
       </c>
       <c r="S5">
         <v>323</v>
       </c>
       <c r="U5">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="V5">
-        <v>1.689</v>
+        <v>1.6890000000000001</v>
       </c>
       <c r="W5">
-        <v>4.513</v>
+        <v>4.5129999999999999</v>
       </c>
       <c r="X5">
-        <v>1.695</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="Y5">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="Z5">
-        <v>29.80750016652235</v>
+        <v>29.807500166522349</v>
       </c>
       <c r="AA5">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="AB5">
-        <v>2.227</v>
+        <v>2.2269999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.532</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="AD5">
-        <v>0.977</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="AE5">
-        <v>2.409</v>
+        <v>2.4089999999999998</v>
       </c>
       <c r="AF5">
-        <v>3.441385435168739</v>
+        <v>3.4413854351687392</v>
       </c>
       <c r="AG5">
         <v>3.72</v>
       </c>
       <c r="AH5">
-        <v>3.038</v>
+        <v>3.0379999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.649</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="AJ5">
         <v>1.8</v>
@@ -2024,34 +2219,34 @@
         <v>1.123</v>
       </c>
       <c r="AL5">
-        <v>4.559</v>
+        <v>4.5590000000000002</v>
       </c>
       <c r="AM5">
-        <v>3.909</v>
+        <v>3.9089999999999998</v>
       </c>
       <c r="AN5">
-        <v>2.793</v>
+        <v>2.7930000000000001</v>
       </c>
       <c r="AO5">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="AP5">
         <v>1.35</v>
       </c>
       <c r="AQ5">
-        <v>2.719</v>
+        <v>2.7189999999999999</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="CT5">
-        <v>5.325983269066253</v>
+        <v>5.3259832690662527</v>
       </c>
       <c r="DN5">
-        <v>2.960416666668607</v>
+        <v>2.9604166666686069</v>
       </c>
       <c r="DO5">
-        <v>71.05000000004657</v>
+        <v>71.050000000046566</v>
       </c>
       <c r="DP5">
         <v>1875</v>
@@ -2060,10 +2255,10 @@
         <v>1855</v>
       </c>
       <c r="DS5">
-        <v>50.68637496118227</v>
+        <v>50.686374961182267</v>
       </c>
       <c r="DT5">
-        <v>2316.237540533066</v>
+        <v>2316.2375405330658</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -2072,19 +2267,19 @@
         <v>0</v>
       </c>
       <c r="DW5">
-        <v>5.325983269066253</v>
+        <v>5.3259832690662527</v>
       </c>
       <c r="DX5">
-        <v>5.254773534635879</v>
+        <v>5.2547735346358788</v>
       </c>
       <c r="DY5">
-        <v>-0.6741400000000001</v>
+        <v>-0.67414000000000007</v>
       </c>
       <c r="DZ5">
-        <v>4.172115</v>
+        <v>4.1721149999999998</v>
       </c>
       <c r="EA5">
-        <v>0.3547349999999997</v>
+        <v>0.35473499999999969</v>
       </c>
       <c r="EH5">
         <v>0</v>
@@ -2093,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.02472297476603228</v>
+        <v>2.4722974766032281E-2</v>
       </c>
       <c r="EK5">
-        <v>0.02496505116598188</v>
+        <v>2.496505116598188E-2</v>
       </c>
       <c r="EL5">
-        <v>0.0002420763999495924</v>
+        <v>2.4207639994959241E-4</v>
       </c>
       <c r="EM5">
         <v>0</v>
@@ -2108,25 +2303,25 @@
         <v>0.1001062244024235</v>
       </c>
       <c r="EO5">
-        <v>0.03392006794111932</v>
+        <v>3.392006794111932E-2</v>
       </c>
       <c r="EP5">
-        <v>-0.0009166559160408094</v>
+        <v>-9.1665591604080945E-4</v>
       </c>
       <c r="EQ5">
-        <v>0.02570455964564435</v>
+        <v>2.5704559645644349E-2</v>
       </c>
       <c r="ER5">
-        <v>0.004697861569709145</v>
+        <v>4.6978615697091447E-3</v>
       </c>
       <c r="ES5">
-        <v>0.3388407478516204</v>
+        <v>0.33884074785162038</v>
       </c>
       <c r="ET5">
         <v>0</v>
       </c>
       <c r="EU5">
-        <v>-0.009156832369942199</v>
+        <v>-9.1568323699421986E-3</v>
       </c>
       <c r="EW5">
         <v>0</v>
@@ -2135,22 +2330,22 @@
         <v>1.259317493320244</v>
       </c>
       <c r="EY5">
-        <v>0.1018396185585494</v>
+        <v>0.10183961855854939</v>
       </c>
       <c r="EZ5">
-        <v>0.04177790158484807</v>
+        <v>4.1777901584848072E-2</v>
       </c>
       <c r="FA5">
-        <v>-0.01242174596813867</v>
+        <v>-1.242174596813867E-2</v>
       </c>
       <c r="FB5">
-        <v>0.007509105663147136</v>
+        <v>7.5091056631471356E-3</v>
       </c>
       <c r="FC5">
-        <v>-0.002901874873035509</v>
+        <v>-2.9018748730355089E-3</v>
       </c>
       <c r="FD5">
-        <v>0.4102323062102713</v>
+        <v>0.41023230621027129</v>
       </c>
       <c r="FE5">
         <v>0</v>
@@ -2159,7 +2354,7 @@
         <v>-0.1219736105059859</v>
       </c>
     </row>
-    <row r="6" spans="1:162">
+    <row r="6" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -2170,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>3.980555555557657</v>
+        <v>3.9805555555576571</v>
       </c>
       <c r="E6">
         <v>95.53333333338378</v>
@@ -2179,16 +2374,16 @@
         <v>20</v>
       </c>
       <c r="I6">
-        <v>2.707300050354004</v>
+        <v>2.7073000503540041</v>
       </c>
       <c r="J6">
-        <v>0.02558809138632201</v>
+        <v>2.5588091386322009E-2</v>
       </c>
       <c r="K6">
-        <v>2.732888141740326</v>
+        <v>2.7328881417403261</v>
       </c>
       <c r="L6">
-        <v>99.06369781494141</v>
+        <v>99.063697814941406</v>
       </c>
       <c r="S6">
         <v>355</v>
@@ -2197,25 +2392,25 @@
         <v>28.09</v>
       </c>
       <c r="U6">
-        <v>0.263</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="V6">
         <v>2.105</v>
       </c>
       <c r="W6">
-        <v>5.767</v>
+        <v>5.7670000000000003</v>
       </c>
       <c r="X6">
         <v>1.629</v>
       </c>
       <c r="Y6">
-        <v>0.859</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="Z6">
-        <v>33.19345456160217</v>
+        <v>33.193454561602167</v>
       </c>
       <c r="AA6">
-        <v>0.635</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="AB6">
         <v>6.34</v>
@@ -2227,19 +2422,19 @@
         <v>1.446</v>
       </c>
       <c r="AE6">
-        <v>2.939</v>
+        <v>2.9390000000000001</v>
       </c>
       <c r="AF6">
-        <v>5.106571936056839</v>
+        <v>5.1065719360568389</v>
       </c>
       <c r="AG6">
-        <v>4.259</v>
+        <v>4.2590000000000003</v>
       </c>
       <c r="AH6">
-        <v>3.655</v>
+        <v>3.6549999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.5669999999999999</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="AJ6">
         <v>2.83</v>
@@ -2248,10 +2443,10 @@
         <v>1.399</v>
       </c>
       <c r="AL6">
-        <v>4.303</v>
+        <v>4.3029999999999999</v>
       </c>
       <c r="AM6">
-        <v>3.377</v>
+        <v>3.3769999999999998</v>
       </c>
       <c r="AN6">
         <v>2.57</v>
@@ -2269,10 +2464,10 @@
         <v>0</v>
       </c>
       <c r="CT6">
-        <v>8.666797010427945</v>
+        <v>8.6667970104279455</v>
       </c>
       <c r="DN6">
-        <v>3.980555555557657</v>
+        <v>3.9805555555576571</v>
       </c>
       <c r="DO6">
         <v>95.53333333338378</v>
@@ -2287,28 +2482,28 @@
         <v>102.0352708437874</v>
       </c>
       <c r="DT6">
-        <v>4579.337593605042</v>
+        <v>4579.3375936050415</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DV6">
-        <v>52.10695</v>
+        <v>52.106949999999998</v>
       </c>
       <c r="DW6">
-        <v>8.666797010427945</v>
+        <v>8.6667970104279455</v>
       </c>
       <c r="DX6">
-        <v>8.343694493783303</v>
+        <v>8.3436944937833033</v>
       </c>
       <c r="DY6">
-        <v>-1.191685</v>
+        <v>-1.1916850000000001</v>
       </c>
       <c r="DZ6">
-        <v>1.845945</v>
+        <v>1.8459449999999999</v>
       </c>
       <c r="EA6">
-        <v>0.4771649999999995</v>
+        <v>0.47716499999999951</v>
       </c>
       <c r="EH6">
         <v>0</v>
@@ -2317,40 +2512,40 @@
         <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.02375903138013753</v>
+        <v>2.3759031380137529E-2</v>
       </c>
       <c r="EK6">
-        <v>0.02391845422333861</v>
+        <v>2.391845422333861E-2</v>
       </c>
       <c r="EL6">
-        <v>0.0001594228432010888</v>
+        <v>1.5942284320108881E-4</v>
       </c>
       <c r="EM6">
-        <v>0.5470419473910388</v>
+        <v>0.54704194739103884</v>
       </c>
       <c r="EN6">
-        <v>0.06506106283179931</v>
+        <v>6.5061062831799313E-2</v>
       </c>
       <c r="EO6">
-        <v>0.03242886672179052</v>
+        <v>3.2428866721790517E-2</v>
       </c>
       <c r="EP6">
-        <v>-0.005433417704595937</v>
+        <v>-5.4334177045959374E-3</v>
       </c>
       <c r="EQ6">
-        <v>-0.02442116774753873</v>
+        <v>-2.4421167747538729E-2</v>
       </c>
       <c r="ER6">
-        <v>0.00128532461829151</v>
+        <v>1.28532461829151E-3</v>
       </c>
       <c r="ES6">
-        <v>0.4984373957374172</v>
+        <v>0.49843739573741719</v>
       </c>
       <c r="ET6">
         <v>0</v>
       </c>
       <c r="EU6">
-        <v>-0.0835125875309294</v>
+        <v>-8.3512587530929397E-2</v>
       </c>
       <c r="EW6">
         <v>0</v>
@@ -2359,31 +2554,31 @@
         <v>1.615743394985788</v>
       </c>
       <c r="EY6">
-        <v>0.07922903805603643</v>
+        <v>7.9229038056036427E-2</v>
       </c>
       <c r="EZ6">
-        <v>0.01573220951848438</v>
+        <v>1.5732209518484381E-2</v>
       </c>
       <c r="FA6">
-        <v>-0.009877459830448725</v>
+        <v>-9.8774598304487253E-3</v>
       </c>
       <c r="FB6">
-        <v>0.0084799955287386</v>
+        <v>8.4799955287386004E-3</v>
       </c>
       <c r="FC6">
-        <v>-0.002397381938969395</v>
+        <v>-2.3973819389693949E-3</v>
       </c>
       <c r="FD6">
-        <v>0.1985662063365889</v>
+        <v>0.19856620633658889</v>
       </c>
       <c r="FE6">
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>-0.1246696927389511</v>
+        <v>-0.12466969273895109</v>
       </c>
     </row>
-    <row r="7" spans="1:162">
+    <row r="7" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -2394,7 +2589,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>4.831944444449618</v>
+        <v>4.8319444444496176</v>
       </c>
       <c r="E7">
         <v>115.9666666667908</v>
@@ -2403,16 +2598,16 @@
         <v>35</v>
       </c>
       <c r="I7">
-        <v>4.023599965667724</v>
+        <v>4.0235999656677244</v>
       </c>
       <c r="J7">
-        <v>0.03531265124853622</v>
+        <v>3.531265124853622E-2</v>
       </c>
       <c r="K7">
-        <v>4.058912616916261</v>
+        <v>4.0589126169162606</v>
       </c>
       <c r="L7">
-        <v>99.12999725341797</v>
+        <v>99.129997253417969</v>
       </c>
       <c r="S7">
         <v>374</v>
@@ -2421,7 +2616,7 @@
         <v>87.16</v>
       </c>
       <c r="U7">
-        <v>0.638</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="V7">
         <v>2.734</v>
@@ -2433,10 +2628,10 @@
         <v>1.895</v>
       </c>
       <c r="Y7">
-        <v>0.866</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="Z7">
-        <v>34.47012589089456</v>
+        <v>34.470125890894558</v>
       </c>
       <c r="AA7">
         <v>1.071</v>
@@ -2451,19 +2646,19 @@
         <v>1.825</v>
       </c>
       <c r="AE7">
-        <v>3.686</v>
+        <v>3.6859999999999999</v>
       </c>
       <c r="AF7">
-        <v>6.993783303730018</v>
+        <v>6.9937833037300177</v>
       </c>
       <c r="AG7">
-        <v>5.126</v>
+        <v>5.1260000000000003</v>
       </c>
       <c r="AH7">
-        <v>4.543</v>
+        <v>4.5430000000000001</v>
       </c>
       <c r="AI7">
-        <v>0.574</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="AJ7">
         <v>4.03</v>
@@ -2481,22 +2676,22 @@
         <v>2.609</v>
       </c>
       <c r="AO7">
-        <v>1.372</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="AP7">
-        <v>1.235</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="AQ7">
-        <v>5.475</v>
+        <v>5.4749999999999996</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
       <c r="CT7">
-        <v>13.45046181625142</v>
+        <v>13.450461816251419</v>
       </c>
       <c r="DN7">
-        <v>4.831944444449618</v>
+        <v>4.8319444444496176</v>
       </c>
       <c r="DO7">
         <v>115.9666666667908</v>
@@ -2508,31 +2703,31 @@
         <v>1800</v>
       </c>
       <c r="DS7">
-        <v>170.8026326743908</v>
+        <v>170.80263267439079</v>
       </c>
       <c r="DT7">
-        <v>6994.747938205718</v>
+        <v>6994.7479382057181</v>
       </c>
       <c r="DU7">
         <v>0</v>
       </c>
       <c r="DV7">
-        <v>160.5004</v>
+        <v>160.50040000000001</v>
       </c>
       <c r="DW7">
-        <v>13.45046181625142</v>
+        <v>13.450461816251419</v>
       </c>
       <c r="DX7">
-        <v>11.80672735346359</v>
+        <v>11.806727353463589</v>
       </c>
       <c r="DY7">
-        <v>-1.991745</v>
+        <v>-1.9917450000000001</v>
       </c>
       <c r="DZ7">
-        <v>-1.104734999999999</v>
+        <v>-1.1047349999999989</v>
       </c>
       <c r="EA7">
-        <v>-0.01094500000000015</v>
+        <v>-1.0945000000000151E-2</v>
       </c>
       <c r="EH7">
         <v>0</v>
@@ -2541,64 +2736,64 @@
         <v>0</v>
       </c>
       <c r="EJ7">
-        <v>0.01914134671264834</v>
+        <v>1.914134671264834E-2</v>
       </c>
       <c r="EK7">
-        <v>0.01928275914440876</v>
+        <v>1.9282759144408759E-2</v>
       </c>
       <c r="EL7">
-        <v>0.0001414124317604183</v>
+        <v>1.4141243176041829E-4</v>
       </c>
       <c r="EM7">
-        <v>0.8589830760922424</v>
+        <v>0.85898307609224245</v>
       </c>
       <c r="EN7">
-        <v>0.06956301184866176</v>
+        <v>6.956301184866176E-2</v>
       </c>
       <c r="EO7">
-        <v>0.02744341672321238</v>
+        <v>2.7443416723212381E-2</v>
       </c>
       <c r="EP7">
-        <v>-0.006340217050553879</v>
+        <v>-6.3402170505538792E-3</v>
       </c>
       <c r="EQ7">
-        <v>-0.02338318581947393</v>
+        <v>-2.338318581947393E-2</v>
       </c>
       <c r="ER7">
-        <v>-0.003868114072126906</v>
+        <v>-3.8681140721269062E-3</v>
       </c>
       <c r="ES7">
-        <v>0.3945116232591694</v>
+        <v>0.39451162325916939</v>
       </c>
       <c r="ET7">
         <v>0</v>
       </c>
       <c r="EU7">
-        <v>-0.09114350977711226</v>
+        <v>-9.1143509777112261E-2</v>
       </c>
       <c r="EW7">
         <v>0</v>
       </c>
       <c r="EX7">
-        <v>1.560100364459449</v>
+        <v>1.5601003644594491</v>
       </c>
       <c r="EY7">
-        <v>0.06603657277709407</v>
+        <v>6.6036572777094071E-2</v>
       </c>
       <c r="EZ7">
-        <v>0.006862639031618985</v>
+        <v>6.8626390316189846E-3</v>
       </c>
       <c r="FA7">
-        <v>-0.007741020915015424</v>
+        <v>-7.741020915015424E-3</v>
       </c>
       <c r="FB7">
-        <v>0.007625215532743039</v>
+        <v>7.6252155327430392E-3</v>
       </c>
       <c r="FC7">
-        <v>-0.001902392536249719</v>
+        <v>-1.902392536249719E-3</v>
       </c>
       <c r="FD7">
-        <v>0.1039217927735857</v>
+        <v>0.10392179277358569</v>
       </c>
       <c r="FE7">
         <v>0</v>
@@ -2607,7 +2802,7 @@
         <v>-0.1172232384188861</v>
       </c>
     </row>
-    <row r="8" spans="1:162">
+    <row r="8" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -2618,7 +2813,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>5.881944444445253</v>
+        <v>5.8819444444452529</v>
       </c>
       <c r="E8">
         <v>141.1666666666861</v>
@@ -2630,13 +2825,13 @@
         <v>6.555300099945069</v>
       </c>
       <c r="J8">
-        <v>0.05424463937018498</v>
+        <v>5.4244639370184977E-2</v>
       </c>
       <c r="K8">
         <v>6.609544739315254</v>
       </c>
       <c r="L8">
-        <v>99.17929840087891</v>
+        <v>99.179298400878906</v>
       </c>
       <c r="S8">
         <v>388</v>
@@ -2657,13 +2852,13 @@
         <v>2.17</v>
       </c>
       <c r="Y8">
-        <v>0.6870000000000001</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="Z8">
-        <v>33.8595439507982</v>
+        <v>33.859543950798198</v>
       </c>
       <c r="AA8">
-        <v>1.612</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="AB8">
         <v>12.943</v>
@@ -2672,22 +2867,22 @@
         <v>1.409</v>
       </c>
       <c r="AD8">
-        <v>1.783</v>
+        <v>1.7829999999999999</v>
       </c>
       <c r="AE8">
         <v>3.835</v>
       </c>
       <c r="AF8">
-        <v>9.880106571936057</v>
+        <v>9.8801065719360572</v>
       </c>
       <c r="AG8">
-        <v>5.088</v>
+        <v>5.0880000000000001</v>
       </c>
       <c r="AH8">
         <v>4.702</v>
       </c>
       <c r="AI8">
-        <v>0.412</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="AJ8">
         <v>5.77</v>
@@ -2699,19 +2894,19 @@
         <v>3.871</v>
       </c>
       <c r="AM8">
-        <v>2.451</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="AN8">
-        <v>2.083</v>
+        <v>2.0830000000000002</v>
       </c>
       <c r="AO8">
-        <v>1.434</v>
+        <v>1.4339999999999999</v>
       </c>
       <c r="AP8">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="AQ8">
-        <v>6.171</v>
+        <v>6.1710000000000003</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2720,7 +2915,7 @@
         <v>21.06940013986409</v>
       </c>
       <c r="DN8">
-        <v>5.881944444445253</v>
+        <v>5.8819444444452529</v>
       </c>
       <c r="DO8">
         <v>141.1666666666861</v>
@@ -2732,7 +2927,7 @@
         <v>1780</v>
       </c>
       <c r="DS8">
-        <v>304.0967735005578</v>
+        <v>304.09677350055779</v>
       </c>
       <c r="DT8">
         <v>11551.80817990494</v>
@@ -2741,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="DV8">
-        <v>388.1464</v>
+        <v>388.14640000000003</v>
       </c>
       <c r="DW8">
         <v>21.06940013986409</v>
@@ -2753,10 +2948,10 @@
         <v>-2.965545000000001</v>
       </c>
       <c r="DZ8">
-        <v>0.6088650000000015</v>
+        <v>0.60886500000000154</v>
       </c>
       <c r="EA8">
-        <v>-0.5059450000000001</v>
+        <v>-0.50594500000000009</v>
       </c>
       <c r="EH8">
         <v>0</v>
@@ -2765,31 +2960,31 @@
         <v>0</v>
       </c>
       <c r="EJ8">
-        <v>0.01899333397991598</v>
+        <v>1.8993333979915979E-2</v>
       </c>
       <c r="EK8">
-        <v>0.01913536564015481</v>
+        <v>1.9135365640154809E-2</v>
       </c>
       <c r="EL8">
-        <v>0.0001420316602388289</v>
+        <v>1.420316602388289E-4</v>
       </c>
       <c r="EM8">
-        <v>0.9488038950259144</v>
+        <v>0.94880389502591445</v>
       </c>
       <c r="EN8">
-        <v>0.05715883891362306</v>
+        <v>5.7158838913623063E-2</v>
       </c>
       <c r="EO8">
-        <v>0.02165378950879907</v>
+        <v>2.1653789508799069E-2</v>
       </c>
       <c r="EP8">
-        <v>-0.004058693027666797</v>
+        <v>-4.0586930276667972E-3</v>
       </c>
       <c r="EQ8">
-        <v>0.007142099375857284</v>
+        <v>7.1420993758572844E-3</v>
       </c>
       <c r="ER8">
-        <v>-0.002063106437353732</v>
+        <v>-2.0631064373537321E-3</v>
       </c>
       <c r="ES8">
         <v>0.3788353633551183</v>
@@ -2798,31 +2993,31 @@
         <v>0</v>
       </c>
       <c r="EU8">
-        <v>-0.07100726860110276</v>
+        <v>-7.1007268601102763E-2</v>
       </c>
       <c r="EW8">
         <v>0</v>
       </c>
       <c r="EX8">
-        <v>1.285640260908195</v>
+        <v>1.2856402609081949</v>
       </c>
       <c r="EY8">
-        <v>0.04989992534904737</v>
+        <v>4.9899925349047372E-2</v>
       </c>
       <c r="EZ8">
-        <v>0.001646084905783283</v>
+        <v>1.6460849057832829E-3</v>
       </c>
       <c r="FA8">
-        <v>-0.00510827104761686</v>
+        <v>-5.1082710476168603E-3</v>
       </c>
       <c r="FB8">
-        <v>0.005742268232182238</v>
+        <v>5.7422682321822379E-3</v>
       </c>
       <c r="FC8">
-        <v>-0.00126327958415691</v>
+        <v>-1.2632795841569101E-3</v>
       </c>
       <c r="FD8">
-        <v>0.03298772281258951</v>
+        <v>3.2987722812589507E-2</v>
       </c>
       <c r="FE8">
         <v>0</v>
@@ -2831,7 +3026,7 @@
         <v>-0.1023703144220111</v>
       </c>
     </row>
-    <row r="9" spans="1:162">
+    <row r="9" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -2845,22 +3040,22 @@
         <v>6.867361111115315</v>
       </c>
       <c r="E9">
-        <v>164.8166666667676</v>
+        <v>164.81666666676759</v>
       </c>
       <c r="F9">
         <v>20</v>
       </c>
       <c r="I9">
-        <v>9.435000283813476</v>
+        <v>9.4350002838134763</v>
       </c>
       <c r="J9">
-        <v>0.07062644689919928</v>
+        <v>7.062644689919928E-2</v>
       </c>
       <c r="K9">
-        <v>9.505626730712676</v>
+        <v>9.5056267307126756</v>
       </c>
       <c r="L9">
-        <v>99.25700378417969</v>
+        <v>99.257003784179688</v>
       </c>
       <c r="S9">
         <v>405</v>
@@ -2869,25 +3064,25 @@
         <v>410.59</v>
       </c>
       <c r="U9">
-        <v>2.776</v>
+        <v>2.7759999999999998</v>
       </c>
       <c r="V9">
-        <v>3.365</v>
+        <v>3.3650000000000002</v>
       </c>
       <c r="W9">
-        <v>5.594</v>
+        <v>5.5940000000000003</v>
       </c>
       <c r="X9">
-        <v>2.816</v>
+        <v>2.8159999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.591</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="Z9">
-        <v>31.41721619041275</v>
+        <v>31.417216190412748</v>
       </c>
       <c r="AA9">
-        <v>2.533</v>
+        <v>2.5329999999999999</v>
       </c>
       <c r="AB9">
         <v>15.664</v>
@@ -2899,40 +3094,40 @@
         <v>1.306</v>
       </c>
       <c r="AE9">
-        <v>4.199</v>
+        <v>4.1989999999999998</v>
       </c>
       <c r="AF9">
         <v>11.43428063943162</v>
       </c>
       <c r="AG9">
-        <v>5.286</v>
+        <v>5.2859999999999996</v>
       </c>
       <c r="AH9">
-        <v>5.088</v>
+        <v>5.0880000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.302</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="AJ9">
         <v>7.52</v>
       </c>
       <c r="AK9">
-        <v>2.033</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="AL9">
-        <v>3.541</v>
+        <v>3.5409999999999999</v>
       </c>
       <c r="AM9">
         <v>1.758</v>
       </c>
       <c r="AN9">
-        <v>1.685</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="AO9">
         <v>1.585</v>
       </c>
       <c r="AP9">
-        <v>0.733</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="AQ9">
         <v>7.18</v>
@@ -2941,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="CT9">
-        <v>30.11378001084434</v>
+        <v>30.113780010844341</v>
       </c>
       <c r="DN9">
         <v>6.867361111115315</v>
       </c>
       <c r="DO9">
-        <v>164.8166666667676</v>
+        <v>164.81666666676759</v>
       </c>
       <c r="DP9">
         <v>1780</v>
@@ -2956,31 +3151,31 @@
         <v>1760</v>
       </c>
       <c r="DS9">
-        <v>493.1820755391541</v>
+        <v>493.18207553915408</v>
       </c>
       <c r="DT9">
-        <v>16677.6745071907</v>
+        <v>16677.674507190699</v>
       </c>
       <c r="DU9">
         <v>0</v>
       </c>
       <c r="DV9">
-        <v>738.7352</v>
+        <v>738.73519999999996</v>
       </c>
       <c r="DW9">
-        <v>30.11378001084434</v>
+        <v>30.113780010844341</v>
       </c>
       <c r="DX9">
-        <v>19.76853907637656</v>
+        <v>19.768539076376559</v>
       </c>
       <c r="DY9">
-        <v>-4.604925</v>
+        <v>-4.6049249999999997</v>
       </c>
       <c r="DZ9">
         <v>2.084485000000003</v>
       </c>
       <c r="EA9">
-        <v>-1.655825</v>
+        <v>-1.6558250000000001</v>
       </c>
       <c r="EH9">
         <v>0</v>
@@ -2989,31 +3184,31 @@
         <v>0</v>
       </c>
       <c r="EJ9">
-        <v>0.01522963526419731</v>
+        <v>1.522963526419731E-2</v>
       </c>
       <c r="EK9">
-        <v>0.01531627239226806</v>
+        <v>1.5316272392268061E-2</v>
       </c>
       <c r="EL9">
-        <v>8.663712807074989E-05</v>
+        <v>8.6637128070749892E-5</v>
       </c>
       <c r="EM9">
         <v>1.041646272219489</v>
       </c>
       <c r="EN9">
-        <v>0.04783227344203674</v>
+        <v>4.7832273442036742E-2</v>
       </c>
       <c r="EO9">
-        <v>0.008219433508260305</v>
+        <v>8.2194335082603053E-3</v>
       </c>
       <c r="EP9">
-        <v>-0.004870817509718466</v>
+        <v>-4.8708175097184657E-3</v>
       </c>
       <c r="EQ9">
-        <v>0.004384264620582641</v>
+        <v>4.3842646205826414E-3</v>
       </c>
       <c r="ER9">
-        <v>-0.003416447460671151</v>
+        <v>-3.4164474606711509E-3</v>
       </c>
       <c r="ES9">
         <v>0.1718386544645559</v>
@@ -3022,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="EU9">
-        <v>-0.1018311938616284</v>
+        <v>-0.10183119386162839</v>
       </c>
       <c r="EW9">
         <v>0</v>
@@ -3031,31 +3226,31 @@
         <v>1.074580971333603</v>
       </c>
       <c r="EY9">
-        <v>0.04059128247998778</v>
+        <v>4.0591282479987778E-2</v>
       </c>
       <c r="EZ9">
-        <v>-0.0003679825354737586</v>
+        <v>-3.6798253547375858E-4</v>
       </c>
       <c r="FA9">
-        <v>-0.003393173367605723</v>
+        <v>-3.393173367605723E-3</v>
       </c>
       <c r="FB9">
-        <v>0.00434841122631765</v>
+        <v>4.3484112263176503E-3</v>
       </c>
       <c r="FC9">
-        <v>-0.0008390858160289199</v>
+        <v>-8.3908581602891994E-4</v>
       </c>
       <c r="FD9">
-        <v>-0.009065555779253354</v>
+        <v>-9.065555779253354E-3</v>
       </c>
       <c r="FE9">
         <v>0</v>
       </c>
       <c r="FF9">
-        <v>-0.08359364770695821</v>
+        <v>-8.3593647706958207E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:162">
+    <row r="10" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -3066,25 +3261,25 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>7.883333333331393</v>
+        <v>7.8833333333313931</v>
       </c>
       <c r="E10">
-        <v>189.1999999999534</v>
+        <v>189.19999999995341</v>
       </c>
       <c r="F10">
         <v>20</v>
       </c>
       <c r="I10">
-        <v>12.01430021057129</v>
+        <v>12.014300210571291</v>
       </c>
       <c r="J10">
-        <v>0.1023497877397919</v>
+        <v>0.10234978773979191</v>
       </c>
       <c r="K10">
-        <v>12.11664999831108</v>
+        <v>12.116649998311081</v>
       </c>
       <c r="L10">
-        <v>99.15529632568359</v>
+        <v>99.155296325683594</v>
       </c>
       <c r="S10">
         <v>383</v>
@@ -3093,19 +3288,19 @@
         <v>737.5</v>
       </c>
       <c r="U10">
-        <v>4.816</v>
+        <v>4.8159999999999998</v>
       </c>
       <c r="V10">
-        <v>3.239</v>
+        <v>3.2389999999999999</v>
       </c>
       <c r="W10">
-        <v>1.525</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="X10">
         <v>3.581</v>
       </c>
       <c r="Y10">
-        <v>0.448</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="Z10">
         <v>22.313994538067</v>
@@ -3129,37 +3324,37 @@
         <v>11.54529307282416</v>
       </c>
       <c r="AG10">
-        <v>4.526</v>
+        <v>4.5259999999999998</v>
       </c>
       <c r="AH10">
         <v>4.742</v>
       </c>
       <c r="AI10">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="AJ10">
-        <v>8.859999999999999</v>
+        <v>8.86</v>
       </c>
       <c r="AK10">
         <v>1.829</v>
       </c>
       <c r="AL10">
-        <v>3.022</v>
+        <v>3.0219999999999998</v>
       </c>
       <c r="AM10">
-        <v>1.318</v>
+        <v>1.3180000000000001</v>
       </c>
       <c r="AN10">
         <v>1.085</v>
       </c>
       <c r="AO10">
-        <v>1.523</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="AP10">
-        <v>0.463</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="AQ10">
-        <v>6.898</v>
+        <v>6.8979999999999997</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3168,10 +3363,10 @@
         <v>41.34882051236805</v>
       </c>
       <c r="DN10">
-        <v>7.883333333331393</v>
+        <v>7.8833333333313931</v>
       </c>
       <c r="DO10">
-        <v>189.1999999999534</v>
+        <v>189.19999999995341</v>
       </c>
       <c r="DP10">
         <v>1760</v>
@@ -3180,10 +3375,10 @@
         <v>1740</v>
       </c>
       <c r="DS10">
-        <v>754.6847973982802</v>
+        <v>754.68479739828024</v>
       </c>
       <c r="DT10">
-        <v>21217.24237828445</v>
+        <v>21217.242378284449</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -3198,13 +3393,13 @@
         <v>19.96392095914743</v>
       </c>
       <c r="DY10">
-        <v>-7.023165</v>
+        <v>-7.0231649999999997</v>
       </c>
       <c r="DZ10">
-        <v>9.245925000000003</v>
+        <v>9.2459250000000033</v>
       </c>
       <c r="EA10">
-        <v>-3.002224999999999</v>
+        <v>-3.0022249999999988</v>
       </c>
       <c r="EH10">
         <v>0</v>
@@ -3213,34 +3408,34 @@
         <v>0</v>
       </c>
       <c r="EJ10">
-        <v>0.009863376979101978</v>
+        <v>9.8633769791019784E-3</v>
       </c>
       <c r="EK10">
-        <v>0.009984688683297861</v>
+        <v>9.9846886832978612E-3</v>
       </c>
       <c r="EL10">
-        <v>0.000121311704195883</v>
+        <v>1.2131170419588301E-4</v>
       </c>
       <c r="EM10">
-        <v>1.250120831155667</v>
+        <v>1.2501208311556671</v>
       </c>
       <c r="EN10">
-        <v>0.04296337881934602</v>
+        <v>4.2963378819346018E-2</v>
       </c>
       <c r="EO10">
-        <v>0.0004245173151671578</v>
+        <v>4.2451731516715779E-4</v>
       </c>
       <c r="EP10">
-        <v>-0.005254247413685377</v>
+        <v>-5.2542474136853768E-3</v>
       </c>
       <c r="EQ10">
-        <v>0.01556006748637977</v>
+        <v>1.556006748637977E-2</v>
       </c>
       <c r="ER10">
-        <v>-0.002925399760894696</v>
+        <v>-2.9253997608946962E-3</v>
       </c>
       <c r="ES10">
-        <v>0.009880910832273777</v>
+        <v>9.8809108322737774E-3</v>
       </c>
       <c r="ET10">
         <v>0</v>
@@ -3252,34 +3447,34 @@
         <v>0</v>
       </c>
       <c r="EX10">
-        <v>0.9673854953795979</v>
+        <v>0.96738549537959795</v>
       </c>
       <c r="EY10">
-        <v>0.03652306929535647</v>
+        <v>3.6523069295356467E-2</v>
       </c>
       <c r="EZ10">
-        <v>-0.001362236525025273</v>
+        <v>-1.362236525025273E-3</v>
       </c>
       <c r="FA10">
-        <v>-0.002236484000439913</v>
+        <v>-2.2364840004399128E-3</v>
       </c>
       <c r="FB10">
-        <v>0.003448031475286632</v>
+        <v>3.4480314752866319E-3</v>
       </c>
       <c r="FC10">
-        <v>-0.0005489905552956294</v>
+        <v>-5.4899055529562943E-4</v>
       </c>
       <c r="FD10">
-        <v>-0.03729797498696165</v>
+        <v>-3.7297974986961649E-2</v>
       </c>
       <c r="FE10">
         <v>0</v>
       </c>
       <c r="FF10">
-        <v>-0.06123483167183484</v>
+        <v>-6.1234831671834841E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:162">
+    <row r="11" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -3290,7 +3485,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>8.881249999998545</v>
+        <v>8.8812499999985448</v>
       </c>
       <c r="E11">
         <v>213.1499999999651</v>
@@ -3308,7 +3503,7 @@
         <v>14.57929303628077</v>
       </c>
       <c r="L11">
-        <v>99.13649749755859</v>
+        <v>99.136497497558594</v>
       </c>
       <c r="S11">
         <v>376</v>
@@ -3320,40 +3515,40 @@
         <v>6.258</v>
       </c>
       <c r="V11">
-        <v>2.807</v>
+        <v>2.8069999999999999</v>
       </c>
       <c r="W11">
         <v>0.06</v>
       </c>
       <c r="X11">
-        <v>3.116</v>
+        <v>3.1160000000000001</v>
       </c>
       <c r="Y11">
-        <v>0.269</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="Z11">
         <v>10.87946002353516</v>
       </c>
       <c r="AA11">
-        <v>5.068</v>
+        <v>5.0679999999999996</v>
       </c>
       <c r="AB11">
         <v>12.262</v>
       </c>
       <c r="AC11">
-        <v>0.479</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="AD11">
         <v>0.878</v>
       </c>
       <c r="AE11">
-        <v>3.151</v>
+        <v>3.1509999999999998</v>
       </c>
       <c r="AF11">
-        <v>7.770870337477797</v>
+        <v>7.7708703374777972</v>
       </c>
       <c r="AG11">
-        <v>3.337</v>
+        <v>3.3370000000000002</v>
       </c>
       <c r="AH11">
         <v>3.988</v>
@@ -3365,22 +3560,22 @@
         <v>7.16</v>
       </c>
       <c r="AK11">
-        <v>1.439</v>
+        <v>1.4390000000000001</v>
       </c>
       <c r="AL11">
         <v>2.403</v>
       </c>
       <c r="AM11">
-        <v>0.169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="AN11">
-        <v>0.424</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="AO11">
         <v>1.333</v>
       </c>
       <c r="AP11">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="AQ11">
         <v>5.843</v>
@@ -3389,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="CT11">
-        <v>53.03225408939817</v>
+        <v>53.032254089398172</v>
       </c>
       <c r="DN11">
-        <v>8.881249999998545</v>
+        <v>8.8812499999985448</v>
       </c>
       <c r="DO11">
         <v>213.1499999999651</v>
@@ -3404,7 +3599,7 @@
         <v>1720</v>
       </c>
       <c r="DS11">
-        <v>1071.635513121014</v>
+        <v>1071.6355131210139</v>
       </c>
       <c r="DT11">
         <v>25461.27684025955</v>
@@ -3413,22 +3608,22 @@
         <v>0</v>
       </c>
       <c r="DV11">
-        <v>2075.7818</v>
+        <v>2075.7818000000002</v>
       </c>
       <c r="DW11">
-        <v>53.03225408939817</v>
+        <v>53.032254089398172</v>
       </c>
       <c r="DX11">
-        <v>13.39642539964476</v>
+        <v>13.396425399644761</v>
       </c>
       <c r="DY11">
-        <v>-9.043305</v>
+        <v>-9.0433050000000001</v>
       </c>
       <c r="DZ11">
-        <v>11.795025</v>
+        <v>11.795025000000001</v>
       </c>
       <c r="EA11">
-        <v>-2.193125</v>
+        <v>-2.1931250000000002</v>
       </c>
       <c r="EH11">
         <v>0</v>
@@ -3437,73 +3632,73 @@
         <v>0</v>
       </c>
       <c r="EJ11">
-        <v>0.007695519033428009</v>
+        <v>7.6955190334280091E-3</v>
       </c>
       <c r="EK11">
-        <v>0.007769798002677453</v>
+        <v>7.7697980026774534E-3</v>
       </c>
       <c r="EL11">
-        <v>7.427896924944346E-05</v>
+        <v>7.4278969249443465E-5</v>
       </c>
       <c r="EM11">
-        <v>1.381129551961448</v>
+        <v>1.3811295519614479</v>
       </c>
       <c r="EN11">
-        <v>0.0368619883075156</v>
+        <v>3.6861988307515602E-2</v>
       </c>
       <c r="EO11">
-        <v>-0.01190854775872535</v>
+        <v>-1.190854775872535E-2</v>
       </c>
       <c r="EP11">
-        <v>-0.003663030062426595</v>
+        <v>-3.663030062426595E-3</v>
       </c>
       <c r="EQ11">
-        <v>0.004622169717015468</v>
+        <v>4.6221697170154676E-3</v>
       </c>
       <c r="ER11">
-        <v>0.001467105063762588</v>
+        <v>1.4671050637625881E-3</v>
       </c>
       <c r="ES11">
-        <v>-0.3230576619844832</v>
+        <v>-0.32305766198448321</v>
       </c>
       <c r="ET11">
         <v>0</v>
       </c>
       <c r="EU11">
-        <v>-0.09937147263648169</v>
+        <v>-9.9371472636481689E-2</v>
       </c>
       <c r="EW11">
         <v>0</v>
       </c>
       <c r="EX11">
-        <v>0.8855458364173479</v>
+        <v>0.88554583641734785</v>
       </c>
       <c r="EY11">
-        <v>0.03403118697164565</v>
+        <v>3.4031186971645651E-2</v>
       </c>
       <c r="EZ11">
-        <v>-0.001880757505387833</v>
+        <v>-1.880757505387833E-3</v>
       </c>
       <c r="FA11">
-        <v>-0.00125402906882788</v>
+        <v>-1.2540290688278801E-3</v>
       </c>
       <c r="FB11">
-        <v>0.002676117235167848</v>
+        <v>2.6761172351678479E-3</v>
       </c>
       <c r="FC11">
-        <v>-0.0002999948228106927</v>
+        <v>-2.9999482281069272E-4</v>
       </c>
       <c r="FD11">
-        <v>-0.05526570398366817</v>
+        <v>-5.5265703983668167E-2</v>
       </c>
       <c r="FE11">
         <v>0</v>
       </c>
       <c r="FF11">
-        <v>-0.03684940727670535</v>
+        <v>-3.6849407276705347E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:162">
+    <row r="12" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -3514,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>9.927777777782467</v>
+        <v>9.9277777777824667</v>
       </c>
       <c r="E12">
         <v>238.2666666667792</v>
@@ -3526,13 +3721,13 @@
         <v>15.10840020904541</v>
       </c>
       <c r="J12">
-        <v>0.3019498382450294</v>
+        <v>0.30194983824502941</v>
       </c>
       <c r="K12">
-        <v>15.41035004729044</v>
+        <v>15.410350047290439</v>
       </c>
       <c r="L12">
-        <v>98.04060363769531</v>
+        <v>98.040603637695312</v>
       </c>
       <c r="S12">
         <v>373</v>
@@ -3541,46 +3736,46 @@
         <v>1432.7</v>
       </c>
       <c r="U12">
-        <v>6.483</v>
+        <v>6.4829999999999997</v>
       </c>
       <c r="V12">
-        <v>2.668</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="W12">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="X12">
-        <v>2.422</v>
+        <v>2.4220000000000002</v>
       </c>
       <c r="Y12">
         <v>0.155</v>
       </c>
       <c r="Z12">
-        <v>5.661759808166256</v>
+        <v>5.6617598081662557</v>
       </c>
       <c r="AA12">
-        <v>5.884</v>
+        <v>5.8840000000000003</v>
       </c>
       <c r="AB12">
-        <v>9.241</v>
+        <v>9.2409999999999997</v>
       </c>
       <c r="AC12">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="AD12">
-        <v>0.841</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="AE12">
-        <v>2.938</v>
+        <v>2.9380000000000002</v>
       </c>
       <c r="AF12">
-        <v>3.441385435168739</v>
+        <v>3.4413854351687392</v>
       </c>
       <c r="AG12">
-        <v>2.833</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="AH12">
-        <v>3.719</v>
+        <v>3.7189999999999999</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -3589,34 +3784,34 @@
         <v>6.91</v>
       </c>
       <c r="AK12">
-        <v>1.295</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="AL12">
-        <v>2.378</v>
+        <v>2.3780000000000001</v>
       </c>
       <c r="AM12">
-        <v>0.291</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="AN12">
-        <v>0.283</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="AO12">
-        <v>1.263</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="AP12">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="AQ12">
-        <v>5.368</v>
+        <v>5.3680000000000003</v>
       </c>
       <c r="AR12">
         <v>0</v>
       </c>
       <c r="CT12">
-        <v>62.98032198101079</v>
+        <v>62.980321981010789</v>
       </c>
       <c r="DN12">
-        <v>9.927777777782467</v>
+        <v>9.9277777777824667</v>
       </c>
       <c r="DO12">
         <v>238.2666666667792</v>
@@ -3631,28 +3826,28 @@
         <v>1442.882460060488</v>
       </c>
       <c r="DT12">
-        <v>26587.87638097</v>
+        <v>26587.876380969999</v>
       </c>
       <c r="DU12">
         <v>0</v>
       </c>
       <c r="DV12">
-        <v>2518.5958</v>
+        <v>2518.5958000000001</v>
       </c>
       <c r="DW12">
-        <v>62.98032198101079</v>
+        <v>62.980321981010789</v>
       </c>
       <c r="DX12">
-        <v>5.949711367673181</v>
+        <v>5.9497113676731814</v>
       </c>
       <c r="DY12">
         <v>-10.446825</v>
       </c>
       <c r="DZ12">
-        <v>11.774385</v>
+        <v>11.774385000000001</v>
       </c>
       <c r="EA12">
-        <v>-0.9994449999999995</v>
+        <v>-0.99944499999999947</v>
       </c>
       <c r="EH12">
         <v>0</v>
@@ -3661,73 +3856,73 @@
         <v>0</v>
       </c>
       <c r="EJ12">
-        <v>0.00176432355436442</v>
+        <v>1.76432355436442E-3</v>
       </c>
       <c r="EK12">
-        <v>0.002238555812676252</v>
+        <v>2.238555812676252E-3</v>
       </c>
       <c r="EL12">
-        <v>0.0004742322583118321</v>
+        <v>4.742322583118321E-4</v>
       </c>
       <c r="EM12">
         <v>0.6934737164100454</v>
       </c>
       <c r="EN12">
-        <v>0.02679636283509829</v>
+        <v>2.679636283509829E-2</v>
       </c>
       <c r="EO12">
-        <v>-0.01166200810000175</v>
+        <v>-1.166200810000175E-2</v>
       </c>
       <c r="EP12">
-        <v>-0.002197997873725378</v>
+        <v>-2.1979978737253778E-3</v>
       </c>
       <c r="EQ12">
-        <v>-3.232349814302056E-05</v>
+        <v>-3.2323498143020562E-5</v>
       </c>
       <c r="ER12">
-        <v>0.00186937564260467</v>
+        <v>1.8693756426046699E-3</v>
       </c>
       <c r="ES12">
-        <v>-0.4352086203552472</v>
+        <v>-0.43520862035524721</v>
       </c>
       <c r="ET12">
         <v>0</v>
       </c>
       <c r="EU12">
-        <v>-0.0820259781990415</v>
+        <v>-8.2025978199041505E-2</v>
       </c>
       <c r="EW12">
         <v>0</v>
       </c>
       <c r="EX12">
-        <v>0.9076816434027961</v>
+        <v>0.90768164340279611</v>
       </c>
       <c r="EY12">
-        <v>0.03611525886378609</v>
+        <v>3.6115258863786089E-2</v>
       </c>
       <c r="EZ12">
-        <v>-0.002413755537590537</v>
+        <v>-2.4137555375905368E-3</v>
       </c>
       <c r="FA12">
-        <v>-0.0003226132163361863</v>
+        <v>-3.2261321633618629E-4</v>
       </c>
       <c r="FB12">
-        <v>0.002138620249259255</v>
+        <v>2.1386202492592551E-3</v>
       </c>
       <c r="FC12">
-        <v>-5.975826547795112E-05</v>
+        <v>-5.9758265477951118E-5</v>
       </c>
       <c r="FD12">
-        <v>-0.06683478434127704</v>
+        <v>-6.6834784341277043E-2</v>
       </c>
       <c r="FE12">
         <v>0</v>
       </c>
       <c r="FF12">
-        <v>-0.008932878414438855</v>
+        <v>-8.9328784144388548E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:162">
+    <row r="13" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -3738,10 +3933,10 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>10.91319444444525</v>
+        <v>10.913194444445249</v>
       </c>
       <c r="E13">
-        <v>261.9166666666861</v>
+        <v>261.91666666668613</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -3750,13 +3945,13 @@
         <v>15.68259988555908</v>
       </c>
       <c r="J13">
-        <v>0.3060386333322178</v>
+        <v>0.30603863333221781</v>
       </c>
       <c r="K13">
         <v>15.9886385188913</v>
       </c>
       <c r="L13">
-        <v>98.08589935302734</v>
+        <v>98.085899353027344</v>
       </c>
       <c r="S13">
         <v>381</v>
@@ -3765,46 +3960,46 @@
         <v>1767.66</v>
       </c>
       <c r="U13">
-        <v>4.941</v>
+        <v>4.9409999999999998</v>
       </c>
       <c r="V13">
-        <v>2.354</v>
+        <v>2.3540000000000001</v>
       </c>
       <c r="W13">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="X13">
-        <v>2.557</v>
+        <v>2.5569999999999999</v>
       </c>
       <c r="Y13">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="Z13">
         <v>6.605386442860631</v>
       </c>
       <c r="AA13">
-        <v>4.425</v>
+        <v>4.4249999999999998</v>
       </c>
       <c r="AB13">
-        <v>6.982</v>
+        <v>6.9820000000000002</v>
       </c>
       <c r="AC13">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="AD13">
-        <v>0.737</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="AE13">
-        <v>2.744</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="AF13">
-        <v>3.219360568383659</v>
+        <v>3.2193605683836588</v>
       </c>
       <c r="AG13">
-        <v>2.043</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="AH13">
-        <v>2.973</v>
+        <v>2.9729999999999999</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -3813,13 +4008,13 @@
         <v>10.28</v>
       </c>
       <c r="AK13">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="AL13">
-        <v>2.453</v>
+        <v>2.4529999999999998</v>
       </c>
       <c r="AM13">
-        <v>0.289</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="AN13">
         <v>0.155</v>
@@ -3831,19 +4026,19 @@
         <v>0</v>
       </c>
       <c r="AQ13">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AR13">
         <v>0</v>
       </c>
       <c r="CT13">
-        <v>76.35100164045986</v>
+        <v>76.351001640459856</v>
       </c>
       <c r="DN13">
-        <v>10.91319444444525</v>
+        <v>10.913194444445249</v>
       </c>
       <c r="DO13">
-        <v>261.9166666666861</v>
+        <v>261.91666666668613</v>
       </c>
       <c r="DP13">
         <v>1674</v>
@@ -3852,31 +4047,31 @@
         <v>1654</v>
       </c>
       <c r="DS13">
-        <v>1806.986036177752</v>
+        <v>1806.9860361777521</v>
       </c>
       <c r="DT13">
-        <v>27549.08663945388</v>
+        <v>27549.086639453879</v>
       </c>
       <c r="DU13">
         <v>0</v>
       </c>
       <c r="DV13">
-        <v>3079.31884</v>
+        <v>3079.3188399999999</v>
       </c>
       <c r="DW13">
-        <v>76.35100164045986</v>
+        <v>76.351001640459856</v>
       </c>
       <c r="DX13">
-        <v>5.578041740674957</v>
+        <v>5.5780417406749567</v>
       </c>
       <c r="DY13">
-        <v>-8.004459000000001</v>
+        <v>-8.0044590000000007</v>
       </c>
       <c r="DZ13">
-        <v>11.766015</v>
+        <v>11.766014999999999</v>
       </c>
       <c r="EA13">
-        <v>-1.225434999999999</v>
+        <v>-1.2254349999999989</v>
       </c>
       <c r="EH13">
         <v>0</v>
@@ -3885,34 +4080,34 @@
         <v>0</v>
       </c>
       <c r="EJ13">
-        <v>0.001577022897266857</v>
+        <v>1.5770228972668569E-3</v>
       </c>
       <c r="EK13">
-        <v>0.001588252655377971</v>
+        <v>1.5882526553779709E-3</v>
       </c>
       <c r="EL13">
-        <v>1.122975811111382E-05</v>
+        <v>1.122975811111382E-5</v>
       </c>
       <c r="EM13">
-        <v>0.9199580063781684</v>
+        <v>0.91995800637816838</v>
       </c>
       <c r="EN13">
-        <v>0.03672218713705483</v>
+        <v>3.6722187137054829E-2</v>
       </c>
       <c r="EO13">
-        <v>-0.0006097849110758925</v>
+        <v>-6.0978491107589251E-4</v>
       </c>
       <c r="EP13">
-        <v>0.004007101538409804</v>
+        <v>4.0071015384098036E-3</v>
       </c>
       <c r="EQ13">
-        <v>-1.373235619742795E-05</v>
+        <v>-1.3732356197427949E-5</v>
       </c>
       <c r="ER13">
-        <v>-0.0003707736173305835</v>
+        <v>-3.7077361733058348E-4</v>
       </c>
       <c r="ES13">
-        <v>-0.01660535383690652</v>
+        <v>-1.660535383690652E-2</v>
       </c>
       <c r="ET13">
         <v>0</v>
@@ -3924,34 +4119,34 @@
         <v>0</v>
       </c>
       <c r="EX13">
-        <v>0.9248030825148434</v>
+        <v>0.92480308251484344</v>
       </c>
       <c r="EY13">
-        <v>0.03790993210206983</v>
+        <v>3.7909932102069832E-2</v>
       </c>
       <c r="EZ13">
-        <v>-0.0028010643771424</v>
+        <v>-2.8010643771424E-3</v>
       </c>
       <c r="FA13">
-        <v>0.0007475775184312441</v>
+        <v>7.4757751843124414E-4</v>
       </c>
       <c r="FB13">
-        <v>0.001487970257386097</v>
+        <v>1.4879702573860969E-3</v>
       </c>
       <c r="FC13">
-        <v>0.0002174108322271942</v>
+        <v>2.1741083222719419E-4</v>
       </c>
       <c r="FD13">
-        <v>-0.07388734882459644</v>
+        <v>-7.3887348824596438E-2</v>
       </c>
       <c r="FE13">
         <v>0</v>
       </c>
       <c r="FF13">
-        <v>0.01971983269235208</v>
+        <v>1.9719832692352082E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:162">
+    <row r="14" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -3965,22 +4160,22 @@
         <v>11.87152777778101</v>
       </c>
       <c r="E14">
-        <v>284.9166666667443</v>
+        <v>284.91666666674428</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
       <c r="I14">
-        <v>14.45750032196045</v>
+        <v>14.457500321960451</v>
       </c>
       <c r="J14">
-        <v>0.7379677102165463</v>
+        <v>0.73796771021654628</v>
       </c>
       <c r="K14">
-        <v>15.195468032177</v>
+        <v>15.195468032177001</v>
       </c>
       <c r="L14">
-        <v>95.14350128173828</v>
+        <v>95.143501281738281</v>
       </c>
       <c r="S14">
         <v>396</v>
@@ -3995,79 +4190,79 @@
         <v>1.83</v>
       </c>
       <c r="W14">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="X14">
-        <v>2.429</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="Y14">
         <v>0.115</v>
       </c>
       <c r="Z14">
-        <v>7.271475832056661</v>
+        <v>7.2714758320566606</v>
       </c>
       <c r="AA14">
-        <v>2.426</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="AB14">
-        <v>4.957</v>
+        <v>4.9569999999999999</v>
       </c>
       <c r="AC14">
         <v>0.126</v>
       </c>
       <c r="AD14">
-        <v>0.607</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="AE14">
-        <v>2.463</v>
+        <v>2.4630000000000001</v>
       </c>
       <c r="AF14">
-        <v>3.441385435168739</v>
+        <v>3.4413854351687392</v>
       </c>
       <c r="AG14">
-        <v>1.257</v>
+        <v>1.2569999999999999</v>
       </c>
       <c r="AH14">
-        <v>2.062</v>
+        <v>2.0619999999999998</v>
       </c>
       <c r="AI14">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="AJ14">
         <v>10.91</v>
       </c>
       <c r="AK14">
-        <v>0.542</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="AL14">
-        <v>2.489</v>
+        <v>2.4889999999999999</v>
       </c>
       <c r="AM14">
-        <v>0.482</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="AN14">
-        <v>0.093</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="AO14">
-        <v>0.864</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="AP14">
         <v>0.06</v>
       </c>
       <c r="AQ14">
-        <v>3.224</v>
+        <v>3.2240000000000002</v>
       </c>
       <c r="AR14">
         <v>0</v>
       </c>
       <c r="CT14">
-        <v>92.72281678693244</v>
+        <v>92.722816786932441</v>
       </c>
       <c r="DN14">
         <v>11.87152777778101</v>
       </c>
       <c r="DO14">
-        <v>284.9166666667443</v>
+        <v>284.91666666674428</v>
       </c>
       <c r="DP14">
         <v>1654</v>
@@ -4076,7 +4271,7 @@
         <v>1634</v>
       </c>
       <c r="DS14">
-        <v>2153.597188565104</v>
+        <v>2153.5971885651038</v>
       </c>
       <c r="DT14">
         <v>25522.77196126174</v>
@@ -4085,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="DV14">
-        <v>3752.86072</v>
+        <v>3752.8607200000001</v>
       </c>
       <c r="DW14">
-        <v>92.72281678693244</v>
+        <v>92.722816786932441</v>
       </c>
       <c r="DX14">
-        <v>5.94527087033748</v>
+        <v>5.9452708703374801</v>
       </c>
       <c r="DY14">
-        <v>-4.698113000000001</v>
+        <v>-4.6981130000000011</v>
       </c>
       <c r="DZ14">
         <v>11.767669</v>
       </c>
       <c r="EA14">
-        <v>-1.013722999999998</v>
+        <v>-1.0137229999999979</v>
       </c>
       <c r="EH14">
         <v>0</v>
@@ -4109,34 +4304,34 @@
         <v>0</v>
       </c>
       <c r="EJ14">
-        <v>-0.003534507055415042</v>
+        <v>-3.534507055415042E-3</v>
       </c>
       <c r="EK14">
-        <v>-0.00228835824021007</v>
+        <v>-2.28835824021007E-3</v>
       </c>
       <c r="EL14">
-        <v>0.001246148815204972</v>
+        <v>1.246148815204972E-3</v>
       </c>
       <c r="EM14">
         <v>1.174861216077997</v>
       </c>
       <c r="EN14">
-        <v>0.04723395376550501</v>
+        <v>4.7233953765505009E-2</v>
       </c>
       <c r="EO14">
-        <v>0.0006405589239002876</v>
+        <v>6.405589239002876E-4</v>
       </c>
       <c r="EP14">
-        <v>0.005767269709100525</v>
+        <v>5.767269709100525E-3</v>
       </c>
       <c r="EQ14">
-        <v>2.88507739324735E-06</v>
+        <v>2.8850773932473499E-6</v>
       </c>
       <c r="ER14">
-        <v>0.000369289906335602</v>
+        <v>3.6928990633560202E-4</v>
       </c>
       <c r="ES14">
-        <v>0.01356140811502611</v>
+        <v>1.3561408115026111E-2</v>
       </c>
       <c r="ET14">
         <v>0</v>
@@ -4148,34 +4343,34 @@
         <v>0</v>
       </c>
       <c r="EX14">
-        <v>1.022053605948113</v>
+        <v>1.0220536059481129</v>
       </c>
       <c r="EY14">
-        <v>0.04429762941634992</v>
+        <v>4.4297629416349918E-2</v>
       </c>
       <c r="EZ14">
-        <v>-0.003370302337438777</v>
+        <v>-3.3703023374387769E-3</v>
       </c>
       <c r="FA14">
-        <v>0.002201363577769409</v>
+        <v>2.2013635777694092E-3</v>
       </c>
       <c r="FB14">
-        <v>0.0007492222509885412</v>
+        <v>7.4922225098854117E-4</v>
       </c>
       <c r="FC14">
-        <v>0.0005969430895125171</v>
+        <v>5.9694308951251714E-4</v>
       </c>
       <c r="FD14">
-        <v>-0.07608313089988568</v>
+        <v>-7.6083130899885679E-2</v>
       </c>
       <c r="FE14">
         <v>0</v>
       </c>
       <c r="FF14">
-        <v>0.04969483935763168</v>
+        <v>4.9694839357631679E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:162">
+    <row r="15" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -4189,7 +4384,7 @@
         <v>12.86458333333576</v>
       </c>
       <c r="E15">
-        <v>308.7500000000582</v>
+        <v>308.75000000005821</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -4204,22 +4399,22 @@
         <v>15.07564138158966</v>
       </c>
       <c r="L15">
-        <v>92.42990112304688</v>
+        <v>92.429901123046875</v>
       </c>
       <c r="S15">
         <v>425</v>
       </c>
       <c r="T15">
-        <v>2489.47</v>
+        <v>2489.4699999999998</v>
       </c>
       <c r="U15">
-        <v>2.672</v>
+        <v>2.6720000000000002</v>
       </c>
       <c r="V15">
-        <v>1.576</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="W15">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="X15">
         <v>2.351</v>
@@ -4228,10 +4423,10 @@
         <v>0.221</v>
       </c>
       <c r="Z15">
-        <v>11.8785941073292</v>
+        <v>11.878594107329199</v>
       </c>
       <c r="AA15">
-        <v>2.283</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="AB15">
         <v>3.589</v>
@@ -4240,13 +4435,13 @@
         <v>0.49</v>
       </c>
       <c r="AD15">
-        <v>0.539</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="AE15">
         <v>2.444</v>
       </c>
       <c r="AF15">
-        <v>2.442273534635879</v>
+        <v>2.4422735346358788</v>
       </c>
       <c r="AG15">
         <v>0.871</v>
@@ -4261,37 +4456,37 @@
         <v>11.9</v>
       </c>
       <c r="AK15">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="AL15">
-        <v>2.865</v>
+        <v>2.8650000000000002</v>
       </c>
       <c r="AM15">
         <v>0.999</v>
       </c>
       <c r="AN15">
-        <v>0.271</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="AO15">
-        <v>0.704</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="AP15">
-        <v>0.237</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="AQ15">
-        <v>2.435</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="AR15">
         <v>0</v>
       </c>
       <c r="CT15">
-        <v>108.7289364075635</v>
+        <v>108.72893640756349</v>
       </c>
       <c r="DN15">
         <v>12.86458333333576</v>
       </c>
       <c r="DO15">
-        <v>308.7500000000582</v>
+        <v>308.75000000005821</v>
       </c>
       <c r="DP15">
         <v>1634</v>
@@ -4300,10 +4495,10 @@
         <v>1614</v>
       </c>
       <c r="DS15">
-        <v>2491.934005771657</v>
+        <v>2491.9340057716572</v>
       </c>
       <c r="DT15">
-        <v>24668.02672581862</v>
+        <v>24668.026725818621</v>
       </c>
       <c r="DU15">
         <v>0</v>
@@ -4312,19 +4507,19 @@
         <v>4266.900779999999</v>
       </c>
       <c r="DW15">
-        <v>108.7289364075635</v>
+        <v>108.72893640756349</v>
       </c>
       <c r="DX15">
-        <v>4.312722024866787</v>
+        <v>4.3127220248667868</v>
       </c>
       <c r="DY15">
-        <v>-4.464451</v>
+        <v>-4.4644510000000004</v>
       </c>
       <c r="DZ15">
-        <v>11.769303</v>
+        <v>11.769303000000001</v>
       </c>
       <c r="EA15">
-        <v>-0.8862709999999986</v>
+        <v>-0.88627099999999859</v>
       </c>
       <c r="EH15">
         <v>0</v>
@@ -4333,40 +4528,40 @@
         <v>0</v>
       </c>
       <c r="EJ15">
-        <v>-0.00154609215636336</v>
+        <v>-1.54609215636336E-3</v>
       </c>
       <c r="EK15">
-        <v>-0.0003541637932775996</v>
+        <v>-3.5416379327759959E-4</v>
       </c>
       <c r="EL15">
-        <v>0.00119192836308576</v>
+        <v>1.1919283630857599E-3</v>
       </c>
       <c r="EM15">
-        <v>0.9298130856623402</v>
+        <v>0.92981308566234022</v>
       </c>
       <c r="EN15">
-        <v>0.04730824080212195</v>
+        <v>4.7308240802121947E-2</v>
       </c>
       <c r="EO15">
-        <v>-0.002953009692477272</v>
+        <v>-2.9530096924772721E-3</v>
       </c>
       <c r="EP15">
-        <v>0.0004226557463673837</v>
+        <v>4.2265574636738372E-4</v>
       </c>
       <c r="EQ15">
-        <v>2.955634589980333E-06</v>
+        <v>2.9556345899803332E-6</v>
       </c>
       <c r="ER15">
-        <v>0.0002305394980185718</v>
+        <v>2.3053949801857181E-4</v>
       </c>
       <c r="ES15">
-        <v>-0.06242061937641989</v>
+        <v>-6.2420619376419892E-2</v>
       </c>
       <c r="ET15">
         <v>0</v>
       </c>
       <c r="EU15">
-        <v>0.008934082925113249</v>
+        <v>8.9340829251132493E-3</v>
       </c>
       <c r="EW15">
         <v>0</v>
@@ -4375,31 +4570,31 @@
         <v>1.05742166532909</v>
       </c>
       <c r="EY15">
-        <v>0.04925255757822766</v>
+        <v>4.9252557578227663E-2</v>
       </c>
       <c r="EZ15">
-        <v>-0.003702931615456321</v>
+        <v>-3.7029316154563209E-3</v>
       </c>
       <c r="FA15">
-        <v>0.004078348305637716</v>
+        <v>4.0783483056377164E-3</v>
       </c>
       <c r="FB15">
-        <v>-0.000408092647004084</v>
+        <v>-4.0809264700408403E-4</v>
       </c>
       <c r="FC15">
-        <v>0.00108562817977026</v>
+        <v>1.08562817977026E-3</v>
       </c>
       <c r="FD15">
-        <v>-0.07518252447245949</v>
+        <v>-7.5182524472459489E-2</v>
       </c>
       <c r="FE15">
         <v>0</v>
       </c>
       <c r="FF15">
-        <v>0.08280480255588943</v>
+        <v>8.2804802555889429E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:162">
+    <row r="16" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -4413,22 +4608,22 @@
         <v>13.8791666666657</v>
       </c>
       <c r="E16">
-        <v>333.0999999999767</v>
+        <v>333.09999999997672</v>
       </c>
       <c r="F16">
         <v>20</v>
       </c>
       <c r="I16">
-        <v>13.16269956359863</v>
+        <v>13.162699563598631</v>
       </c>
       <c r="J16">
         <v>1.918113984665073</v>
       </c>
       <c r="K16">
-        <v>15.08081354826371</v>
+        <v>15.080813548263709</v>
       </c>
       <c r="L16">
-        <v>87.28109741210938</v>
+        <v>87.281097412109375</v>
       </c>
       <c r="S16">
         <v>431</v>
@@ -4437,49 +4632,49 @@
         <v>2723.92</v>
       </c>
       <c r="U16">
-        <v>2.248</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="V16">
-        <v>1.382</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="W16">
-        <v>0.07199999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="X16">
         <v>2.363</v>
       </c>
       <c r="Y16">
-        <v>0.396</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="Z16">
         <v>11.82308665822953</v>
       </c>
       <c r="AA16">
-        <v>2.043</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="AB16">
-        <v>3.315</v>
+        <v>3.3149999999999999</v>
       </c>
       <c r="AC16">
-        <v>1.192</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="AD16">
-        <v>0.494</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="AE16">
-        <v>2.449</v>
+        <v>2.4489999999999998</v>
       </c>
       <c r="AF16">
-        <v>4.662522202486678</v>
+        <v>4.6625222024866781</v>
       </c>
       <c r="AG16">
-        <v>0.697</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="AH16">
         <v>1.103</v>
       </c>
       <c r="AI16">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AJ16">
         <v>12.63</v>
@@ -4488,16 +4683,16 @@
         <v>0.105</v>
       </c>
       <c r="AL16">
-        <v>3.227</v>
+        <v>3.2269999999999999</v>
       </c>
       <c r="AM16">
         <v>1.238</v>
       </c>
       <c r="AN16">
-        <v>0.458</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="AO16">
-        <v>0.599</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="AP16">
         <v>0.377</v>
@@ -4515,7 +4710,7 @@
         <v>13.8791666666657</v>
       </c>
       <c r="DO16">
-        <v>333.0999999999767</v>
+        <v>333.09999999997672</v>
       </c>
       <c r="DP16">
         <v>1614</v>
@@ -4524,31 +4719,31 @@
         <v>1594</v>
       </c>
       <c r="DS16">
-        <v>2821.841198103355</v>
+        <v>2821.8411981033551</v>
       </c>
       <c r="DT16">
-        <v>23422.50153927993</v>
+        <v>23422.501539279929</v>
       </c>
       <c r="DU16">
         <v>0</v>
       </c>
       <c r="DV16">
-        <v>4645.30308</v>
+        <v>4645.3030799999997</v>
       </c>
       <c r="DW16">
         <v>124.6494970042862</v>
       </c>
       <c r="DX16">
-        <v>7.896203374777976</v>
+        <v>7.8962033747779756</v>
       </c>
       <c r="DY16">
-        <v>-4.077091000000001</v>
+        <v>-4.0770910000000011</v>
       </c>
       <c r="DZ16">
-        <v>11.774145</v>
+        <v>11.774145000000001</v>
       </c>
       <c r="EA16">
-        <v>-0.9056389999999985</v>
+        <v>-0.90563899999999853</v>
       </c>
       <c r="EH16">
         <v>0</v>
@@ -4557,31 +4752,31 @@
         <v>0</v>
       </c>
       <c r="EJ16">
-        <v>-0.002339145302094339</v>
+        <v>-2.3391453020943391E-3</v>
       </c>
       <c r="EK16">
-        <v>1.56776414527225E-05</v>
+        <v>1.5677641452722501E-5</v>
       </c>
       <c r="EL16">
-        <v>0.002354822943547061</v>
+        <v>2.3548229435470611E-3</v>
       </c>
       <c r="EM16">
-        <v>0.7106544066013509</v>
+        <v>0.71065440660135093</v>
       </c>
       <c r="EN16">
-        <v>0.04825769479046622</v>
+        <v>4.8257694790466217E-2</v>
       </c>
       <c r="EO16">
-        <v>0.006729918957385141</v>
+        <v>6.7299189573851413E-3</v>
       </c>
       <c r="EP16">
-        <v>0.0007274773196175032</v>
+        <v>7.2747731961750317E-4</v>
       </c>
       <c r="EQ16">
-        <v>9.093466495218831E-06</v>
+        <v>9.0934664952188313E-6</v>
       </c>
       <c r="ER16">
-        <v>-3.637386598087512E-05</v>
+        <v>-3.6373865980875122E-5</v>
       </c>
       <c r="ES16">
         <v>0.1394579452376723</v>
@@ -4590,31 +4785,31 @@
         <v>0</v>
       </c>
       <c r="EU16">
-        <v>0.0150748460484114</v>
+        <v>1.5074846048411399E-2</v>
       </c>
       <c r="EW16">
         <v>0</v>
       </c>
       <c r="EX16">
-        <v>1.089507712049579</v>
+        <v>1.0895077120495791</v>
       </c>
       <c r="EY16">
-        <v>0.05556506190729407</v>
+        <v>5.5565061907294072E-2</v>
       </c>
       <c r="EZ16">
-        <v>-0.003969546261333998</v>
+        <v>-3.9695462613339979E-3</v>
       </c>
       <c r="FA16">
-        <v>0.006602361241239623</v>
+        <v>6.6023612412396231E-3</v>
       </c>
       <c r="FB16">
-        <v>-0.002007769351698026</v>
+        <v>-2.0077693516980261E-3</v>
       </c>
       <c r="FC16">
-        <v>0.00174329220447737</v>
+        <v>1.74329220447737E-3</v>
       </c>
       <c r="FD16">
-        <v>-0.07143960836319904</v>
+        <v>-7.1439608363199042E-2</v>
       </c>
       <c r="FE16">
         <v>0</v>
@@ -4629,14 +4824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FF16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:162">
+    <row r="1" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5124,7 +5319,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:162">
+    <row r="2" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -5135,10 +5330,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02222222222189885</v>
+        <v>2.222222222189885E-2</v>
       </c>
       <c r="E2">
-        <v>0.5333333333255723</v>
+        <v>0.53333333332557231</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -5147,10 +5342,10 @@
         <v>0.25</v>
       </c>
       <c r="J2">
-        <v>0.004582484725050906</v>
+        <v>4.582484725050906E-3</v>
       </c>
       <c r="K2">
-        <v>0.2545824847250509</v>
+        <v>0.25458248472505091</v>
       </c>
       <c r="L2">
         <v>98.2</v>
@@ -5159,28 +5354,28 @@
         <v>325</v>
       </c>
       <c r="U2">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="V2">
         <v>1.976</v>
       </c>
       <c r="W2">
-        <v>6.111</v>
+        <v>6.1109999999999998</v>
       </c>
       <c r="X2">
-        <v>1.703</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="Y2">
         <v>1.014</v>
       </c>
       <c r="Z2">
-        <v>33.3044694598015</v>
+        <v>33.304469459801503</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -5192,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.8880994671403197</v>
+        <v>0.88809946714031973</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -5234,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.02222222222189885</v>
+        <v>2.222222222189885E-2</v>
       </c>
       <c r="DO2">
-        <v>0.5333333333255723</v>
+        <v>0.53333333332557231</v>
       </c>
       <c r="DP2">
         <v>1935</v>
@@ -5261,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="DX2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY2">
         <v>0</v>
@@ -5279,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:162">
+    <row r="3" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -5290,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8833333333313931</v>
+        <v>0.88333333333139308</v>
       </c>
       <c r="E3">
         <v>21.19999999995343</v>
@@ -5299,37 +5494,37 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>0.408499999141693</v>
+        <v>0.40849999914169299</v>
       </c>
       <c r="J3">
-        <v>0.00307155747195359</v>
+        <v>3.0715574719535899E-3</v>
       </c>
       <c r="K3">
-        <v>0.4115715566136466</v>
+        <v>0.41157155661364658</v>
       </c>
       <c r="L3">
-        <v>99.25370025634766</v>
+        <v>99.253700256347656</v>
       </c>
       <c r="S3">
         <v>326</v>
       </c>
       <c r="U3">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="V3">
-        <v>2.015</v>
+        <v>2.0150000000000001</v>
       </c>
       <c r="W3">
         <v>5.968</v>
       </c>
       <c r="X3">
-        <v>1.755</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="Y3">
         <v>1.083</v>
       </c>
       <c r="Z3">
-        <v>33.41548435800084</v>
+        <v>33.415484358000839</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -5386,10 +5581,10 @@
         <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.2379092027380534</v>
+        <v>0.23790920273805341</v>
       </c>
       <c r="DN3">
-        <v>0.8833333333313931</v>
+        <v>0.88333333333139308</v>
       </c>
       <c r="DO3">
         <v>21.19999999995343</v>
@@ -5401,10 +5596,10 @@
         <v>1895</v>
       </c>
       <c r="DS3">
-        <v>6.804499991118052</v>
+        <v>6.8044999911180524</v>
       </c>
       <c r="DT3">
-        <v>303.5274983563422</v>
+        <v>303.52749835634222</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -5413,19 +5608,19 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.2379092027380534</v>
+        <v>0.23790920273805341</v>
       </c>
       <c r="DX3">
-        <v>0.8503552397868561</v>
+        <v>0.85035523978685612</v>
       </c>
       <c r="DY3">
         <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.2738449999999993</v>
+        <v>0.27384499999999928</v>
       </c>
       <c r="EA3">
-        <v>-0.09957999999999947</v>
+        <v>-9.9579999999999474E-2</v>
       </c>
       <c r="EH3">
         <v>0</v>
@@ -5434,34 +5629,34 @@
         <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.02329340867787257</v>
+        <v>2.3293408677872569E-2</v>
       </c>
       <c r="EK3">
-        <v>0.02307136043699234</v>
+        <v>2.3071360436992341E-2</v>
       </c>
       <c r="EL3">
-        <v>-0.0002220482408802319</v>
+        <v>-2.2204824088023191E-4</v>
       </c>
       <c r="EM3">
         <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.03496350989030752</v>
+        <v>3.4963509890307519E-2</v>
       </c>
       <c r="EO3">
-        <v>0.0652582458887178</v>
+        <v>6.52582458887178E-2</v>
       </c>
       <c r="EP3">
         <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.02101550447301907</v>
+        <v>2.1015504473019069E-2</v>
       </c>
       <c r="ER3">
-        <v>-0.007642001626552368</v>
+        <v>-7.642001626552368E-3</v>
       </c>
       <c r="ES3">
-        <v>1.866467242375128</v>
+        <v>1.8664672423751281</v>
       </c>
       <c r="ET3">
         <v>0</v>
@@ -5473,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="EX3">
-        <v>-13.17155886762064</v>
+        <v>-13.171558867620639</v>
       </c>
       <c r="EY3">
         <v>-0.1192431218372063</v>
@@ -5482,25 +5677,25 @@
         <v>0.2404558048527507</v>
       </c>
       <c r="FA3">
-        <v>-0.005382758142003663</v>
+        <v>-5.3827581420036628E-3</v>
       </c>
       <c r="FB3">
-        <v>-0.06389812385541359</v>
+        <v>-6.3898123855413588E-2</v>
       </c>
       <c r="FC3">
-        <v>-0.003855851476074113</v>
+        <v>-3.8558514760741128E-3</v>
       </c>
       <c r="FD3">
-        <v>-2.016517188983252</v>
+        <v>-2.0165171889832521</v>
       </c>
       <c r="FE3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.04514103672455289</v>
+        <v>4.5141036724552892E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:162">
+    <row r="4" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -5511,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2.019444444442343</v>
+        <v>2.0194444444423429</v>
       </c>
       <c r="E4">
         <v>48.46666666661622</v>
@@ -5523,10 +5718,10 @@
         <v>0.79</v>
       </c>
       <c r="J4">
-        <v>0.007979797979798087</v>
+        <v>7.9797979797980867E-3</v>
       </c>
       <c r="K4">
-        <v>0.7979797979797981</v>
+        <v>0.79797979797979812</v>
       </c>
       <c r="L4">
         <v>99</v>
@@ -5535,13 +5730,13 @@
         <v>331</v>
       </c>
       <c r="U4">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="V4">
-        <v>1.739</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="W4">
-        <v>5.207</v>
+        <v>5.2069999999999999</v>
       </c>
       <c r="X4">
         <v>1.728</v>
@@ -5553,10 +5748,10 @@
         <v>31.97229068140944</v>
       </c>
       <c r="AA4">
-        <v>0.266</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="AB4">
-        <v>2.265</v>
+        <v>2.2650000000000001</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -5607,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>2.03611326186481</v>
+        <v>2.0361132618648101</v>
       </c>
       <c r="DN4">
-        <v>2.019444444442343</v>
+        <v>2.0194444444423429</v>
       </c>
       <c r="DO4">
         <v>48.46666666661622</v>
@@ -5622,7 +5817,7 @@
         <v>1875</v>
       </c>
       <c r="DS4">
-        <v>23.14404997941415</v>
+        <v>23.144049979414149</v>
       </c>
       <c r="DT4">
         <v>1026.469999982834</v>
@@ -5634,19 +5829,19 @@
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>2.03611326186481</v>
+        <v>2.0361132618648101</v>
       </c>
       <c r="DX4">
-        <v>3.164409413854352</v>
+        <v>3.1644094138543521</v>
       </c>
       <c r="DY4">
-        <v>-0.50407</v>
+        <v>-0.50407000000000002</v>
       </c>
       <c r="DZ4">
-        <v>1.715940000000001</v>
+        <v>1.7159400000000009</v>
       </c>
       <c r="EA4">
-        <v>-0.04841499999999951</v>
+        <v>-4.8414999999999507E-2</v>
       </c>
       <c r="EH4">
         <v>0</v>
@@ -5655,73 +5850,73 @@
         <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.02334825629418025</v>
+        <v>2.3348256294180251E-2</v>
       </c>
       <c r="EK4">
-        <v>0.02364864648309979</v>
+        <v>2.3648646483099792E-2</v>
       </c>
       <c r="EL4">
-        <v>0.000300390188919538</v>
+        <v>3.0039018891953799E-4</v>
       </c>
       <c r="EM4">
         <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.1100522389181341</v>
+        <v>0.11005223891813409</v>
       </c>
       <c r="EO4">
-        <v>0.07473503053588575</v>
+        <v>7.4735030535885746E-2</v>
       </c>
       <c r="EP4">
-        <v>-0.01627951811344462</v>
+        <v>-1.6279518113444622E-2</v>
       </c>
       <c r="EQ4">
-        <v>0.04657411009147131</v>
+        <v>4.6574110091471312E-2</v>
       </c>
       <c r="ER4">
-        <v>0.001652432289710543</v>
+        <v>1.652432289710543E-3</v>
       </c>
       <c r="ES4">
-        <v>0.6790868706585771</v>
+        <v>0.67908687065857709</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>-0.1479253695652177</v>
+        <v>-0.14792536956521771</v>
       </c>
       <c r="EW4">
         <v>0</v>
       </c>
       <c r="EX4">
-        <v>-1.80944601021105</v>
+        <v>-1.8094460102110499</v>
       </c>
       <c r="EY4">
-        <v>0.08792954657828655</v>
+        <v>8.7929546578286555E-2</v>
       </c>
       <c r="EZ4">
-        <v>0.1115829585424166</v>
+        <v>0.11158295854241659</v>
       </c>
       <c r="FA4">
-        <v>-0.01274953435813561</v>
+        <v>-1.274953435813561E-2</v>
       </c>
       <c r="FB4">
-        <v>-0.007103390408498324</v>
+        <v>-7.1033904084983239E-3</v>
       </c>
       <c r="FC4">
-        <v>-0.006056317813666947</v>
+        <v>-6.0563178136669466E-3</v>
       </c>
       <c r="FD4">
-        <v>1.269004138933784</v>
+        <v>1.2690041389337841</v>
       </c>
       <c r="FE4">
         <v>0</v>
       </c>
       <c r="FF4">
-        <v>-0.1449971580006305</v>
+        <v>-0.14499715800063051</v>
       </c>
     </row>
-    <row r="5" spans="1:162">
+    <row r="5" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -5732,7 +5927,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2.956944444442343</v>
+        <v>2.9569444444423429</v>
       </c>
       <c r="E5">
         <v>70.96666666661622</v>
@@ -5741,25 +5936,25 @@
         <v>20</v>
       </c>
       <c r="I5">
-        <v>1.343000037765503</v>
+        <v>1.3430000377655029</v>
       </c>
       <c r="J5">
-        <v>0.01944892990849634</v>
+        <v>1.9448929908496341E-2</v>
       </c>
       <c r="K5">
         <v>1.362448967673999</v>
       </c>
       <c r="L5">
-        <v>98.57250213623047</v>
+        <v>98.572502136230469</v>
       </c>
       <c r="S5">
         <v>326</v>
       </c>
       <c r="U5">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="V5">
-        <v>1.672</v>
+        <v>1.6719999999999999</v>
       </c>
       <c r="W5">
         <v>4.51</v>
@@ -5768,16 +5963,16 @@
         <v>1.716</v>
       </c>
       <c r="Y5">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="Z5">
-        <v>30.2515597593197</v>
+        <v>30.251559759319701</v>
       </c>
       <c r="AA5">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="AB5">
-        <v>2.243</v>
+        <v>2.2429999999999999</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -5828,10 +6023,10 @@
         <v>0</v>
       </c>
       <c r="CT5">
-        <v>4.100409448709611</v>
+        <v>4.1004094487096108</v>
       </c>
       <c r="DN5">
-        <v>2.956944444442343</v>
+        <v>2.9569444444423429</v>
       </c>
       <c r="DO5">
         <v>70.96666666661622</v>
@@ -5843,7 +6038,7 @@
         <v>1855</v>
       </c>
       <c r="DS5">
-        <v>47.14030040427605</v>
+        <v>47.140300404276047</v>
       </c>
       <c r="DT5">
         <v>2063.345070793152</v>
@@ -5855,10 +6050,10 @@
         <v>0</v>
       </c>
       <c r="DW5">
-        <v>4.100409448709611</v>
+        <v>4.1004094487096108</v>
       </c>
       <c r="DX5">
-        <v>5.662189165186501</v>
+        <v>5.6621891651865006</v>
       </c>
       <c r="DY5">
         <v>-0.67657</v>
@@ -5867,7 +6062,7 @@
         <v>3.022815</v>
       </c>
       <c r="EA5">
-        <v>-0.02591499999999951</v>
+        <v>-2.5914999999999511E-2</v>
       </c>
       <c r="EH5">
         <v>0</v>
@@ -5876,40 +6071,40 @@
         <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.02304526865549601</v>
+        <v>2.3045268655496009E-2</v>
       </c>
       <c r="EK5">
-        <v>0.02352322382455923</v>
+        <v>2.3523223824559229E-2</v>
       </c>
       <c r="EL5">
-        <v>0.0004779551690632205</v>
+        <v>4.7795516906322052E-4</v>
       </c>
       <c r="EM5">
         <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.08602578112395576</v>
+        <v>8.6025781123955758E-2</v>
       </c>
       <c r="EO5">
-        <v>0.05551488991506245</v>
+        <v>5.5514889915062447E-2</v>
       </c>
       <c r="EP5">
-        <v>-0.003833932317387434</v>
+        <v>-3.833932317387434E-3</v>
       </c>
       <c r="EQ5">
-        <v>0.0290462046219461</v>
+        <v>2.9046204621946101E-2</v>
       </c>
       <c r="ER5">
-        <v>0.0005000781283548826</v>
+        <v>5.0007812835488265E-4</v>
       </c>
       <c r="ES5">
-        <v>0.6453285188433252</v>
+        <v>0.64532851884332521</v>
       </c>
       <c r="ET5">
         <v>0</v>
       </c>
       <c r="EU5">
-        <v>-0.04456724794934517</v>
+        <v>-4.4567247949345169E-2</v>
       </c>
       <c r="EW5">
         <v>0</v>
@@ -5921,28 +6116,28 @@
         <v>0.1184864159920242</v>
       </c>
       <c r="EZ5">
-        <v>0.05835408681408859</v>
+        <v>5.8354086814088588E-2</v>
       </c>
       <c r="FA5">
-        <v>-0.01119277041873598</v>
+        <v>-1.1192770418735979E-2</v>
       </c>
       <c r="FB5">
-        <v>0.006425772090351687</v>
+        <v>6.4257720903516868E-3</v>
       </c>
       <c r="FC5">
-        <v>-0.00497936979307922</v>
+        <v>-4.9793697930792203E-3</v>
       </c>
       <c r="FD5">
-        <v>0.4924960074580756</v>
+        <v>0.49249600745807559</v>
       </c>
       <c r="FE5">
         <v>0</v>
       </c>
       <c r="FF5">
-        <v>-0.09446458756495268</v>
+        <v>-9.4464587564952684E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:162">
+    <row r="6" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -5953,10 +6148,10 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>3.977083333331393</v>
+        <v>3.9770833333313931</v>
       </c>
       <c r="E6">
-        <v>95.44999999995343</v>
+        <v>95.449999999953434</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -5965,10 +6160,10 @@
         <v>2.609099967575073</v>
       </c>
       <c r="J6">
-        <v>0.0230311472547613</v>
+        <v>2.3031147254761301E-2</v>
       </c>
       <c r="K6">
-        <v>2.632131114829835</v>
+        <v>2.6321311148298352</v>
       </c>
       <c r="L6">
         <v>99.125</v>
@@ -5980,28 +6175,28 @@
         <v>20.71</v>
       </c>
       <c r="U6">
-        <v>0.258</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="V6">
-        <v>2.136</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="W6">
-        <v>5.687</v>
+        <v>5.6870000000000003</v>
       </c>
       <c r="X6">
         <v>1.593</v>
       </c>
       <c r="Y6">
-        <v>0.849</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="Z6">
-        <v>33.08243966340282</v>
+        <v>33.082439663402823</v>
       </c>
       <c r="AA6">
-        <v>0.648</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="AB6">
-        <v>6.232</v>
+        <v>6.2320000000000002</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -6013,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.772646536412078</v>
+        <v>5.7726465364120783</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -6052,13 +6247,13 @@
         <v>0</v>
       </c>
       <c r="CT6">
-        <v>7.994298056374951</v>
+        <v>7.9942980563749506</v>
       </c>
       <c r="DN6">
-        <v>3.977083333331393</v>
+        <v>3.9770833333313931</v>
       </c>
       <c r="DO6">
-        <v>95.44999999995343</v>
+        <v>95.449999999953434</v>
       </c>
       <c r="DP6">
         <v>1855</v>
@@ -6067,28 +6262,28 @@
         <v>1835</v>
       </c>
       <c r="DS6">
-        <v>95.5205913029946</v>
+        <v>95.520591302994603</v>
       </c>
       <c r="DT6">
-        <v>4411.960440589906</v>
+        <v>4411.9604405899063</v>
       </c>
       <c r="DU6">
         <v>0</v>
       </c>
       <c r="DV6">
-        <v>38.41705</v>
+        <v>38.417050000000003</v>
       </c>
       <c r="DW6">
-        <v>7.994298056374951</v>
+        <v>7.9942980563749506</v>
       </c>
       <c r="DX6">
-        <v>9.162966252220249</v>
+        <v>9.1629662522202491</v>
       </c>
       <c r="DY6">
         <v>-1.21452</v>
       </c>
       <c r="DZ6">
-        <v>0.8394799999999996</v>
+        <v>0.83947999999999956</v>
       </c>
       <c r="EA6">
         <v>0.2022500000000004</v>
@@ -6100,40 +6295,40 @@
         <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.02616974611541879</v>
+        <v>2.616974611541879E-2</v>
       </c>
       <c r="EK6">
-        <v>0.0262437890217288</v>
+        <v>2.6243789021728799E-2</v>
       </c>
       <c r="EL6">
-        <v>7.404290631001233E-05</v>
+        <v>7.4042906310012329E-5</v>
       </c>
       <c r="EM6">
-        <v>0.4280668763103395</v>
+        <v>0.42806687631033952</v>
       </c>
       <c r="EN6">
-        <v>0.08048501849269526</v>
+        <v>8.0485018492695265E-2</v>
       </c>
       <c r="EO6">
-        <v>0.03900785490570843</v>
+        <v>3.9007854905708433E-2</v>
       </c>
       <c r="EP6">
-        <v>-0.00599417644278119</v>
+        <v>-5.9941764427811897E-3</v>
       </c>
       <c r="EQ6">
-        <v>-0.02432808852811539</v>
+        <v>-2.4328088528115389E-2</v>
       </c>
       <c r="ER6">
-        <v>0.002542357594696849</v>
+        <v>2.5423575946968489E-3</v>
       </c>
       <c r="ES6">
-        <v>0.484659824104392</v>
+        <v>0.48465982410439201</v>
       </c>
       <c r="ET6">
         <v>0</v>
       </c>
       <c r="EU6">
-        <v>-0.07447567951202266</v>
+        <v>-7.4475679512022663E-2</v>
       </c>
       <c r="EW6">
         <v>0</v>
@@ -6142,31 +6337,31 @@
         <v>1.751496861795736</v>
       </c>
       <c r="EY6">
-        <v>0.09529195075311206</v>
+        <v>9.5291950753112059E-2</v>
       </c>
       <c r="EZ6">
-        <v>0.0252626866169397</v>
+        <v>2.52626866169397E-2</v>
       </c>
       <c r="FA6">
-        <v>-0.007194589044885433</v>
+        <v>-7.1945890448854334E-3</v>
       </c>
       <c r="FB6">
-        <v>0.008171212360185755</v>
+        <v>8.1712123601857551E-3</v>
       </c>
       <c r="FC6">
-        <v>-0.003048585469868814</v>
+        <v>-3.0485854698688139E-3</v>
       </c>
       <c r="FD6">
-        <v>0.2651082952682094</v>
+        <v>0.26510829526820939</v>
       </c>
       <c r="FE6">
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>-0.07550049073426562</v>
+        <v>-7.5500490734265624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:162">
+    <row r="7" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -6186,16 +6381,16 @@
         <v>35</v>
       </c>
       <c r="I7">
-        <v>3.928900106048585</v>
+        <v>3.9289001060485851</v>
       </c>
       <c r="J7">
-        <v>0.04196412665723503</v>
+        <v>4.1964126657235028E-2</v>
       </c>
       <c r="K7">
-        <v>3.97086423270582</v>
+        <v>3.9708642327058201</v>
       </c>
       <c r="L7">
-        <v>98.94319915771484</v>
+        <v>98.943199157714844</v>
       </c>
       <c r="S7">
         <v>375</v>
@@ -6204,22 +6399,22 @@
         <v>75.08</v>
       </c>
       <c r="U7">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="V7">
         <v>2.411</v>
       </c>
       <c r="W7">
-        <v>6.489</v>
+        <v>6.4889999999999999</v>
       </c>
       <c r="X7">
-        <v>1.799</v>
+        <v>1.7989999999999999</v>
       </c>
       <c r="Y7">
         <v>0.8</v>
       </c>
       <c r="Z7">
-        <v>34.24809609449589</v>
+        <v>34.248096094495892</v>
       </c>
       <c r="AA7">
         <v>0.96</v>
@@ -6291,16 +6486,16 @@
         <v>1800</v>
       </c>
       <c r="DS7">
-        <v>162.3171587220907</v>
+        <v>162.31715872209071</v>
       </c>
       <c r="DT7">
-        <v>6833.793694688799</v>
+        <v>6833.7936946887994</v>
       </c>
       <c r="DU7">
         <v>0</v>
       </c>
       <c r="DV7">
-        <v>138.186</v>
+        <v>138.18600000000001</v>
       </c>
       <c r="DW7">
         <v>12.86775024048462</v>
@@ -6312,10 +6507,10 @@
         <v>-1.78704</v>
       </c>
       <c r="DZ7">
-        <v>-0.6321900000000005</v>
+        <v>-0.63219000000000047</v>
       </c>
       <c r="EA7">
-        <v>-0.1757599999999998</v>
+        <v>-0.17575999999999981</v>
       </c>
       <c r="EH7">
         <v>0</v>
@@ -6324,40 +6519,40 @@
         <v>0</v>
       </c>
       <c r="EJ7">
-        <v>0.01975850241214942</v>
+        <v>1.9758502412149419E-2</v>
       </c>
       <c r="EK7">
-        <v>0.02004194481247045</v>
+        <v>2.0041944812470451E-2</v>
       </c>
       <c r="EL7">
-        <v>0.0002834424003210247</v>
+        <v>2.8344240032102472E-4</v>
       </c>
       <c r="EM7">
-        <v>0.8139639819943275</v>
+        <v>0.81396398199432751</v>
       </c>
       <c r="EN7">
-        <v>0.07295962011838986</v>
+        <v>7.2959620118389856E-2</v>
       </c>
       <c r="EO7">
-        <v>0.02825311899386098</v>
+        <v>2.825311899386098E-2</v>
       </c>
       <c r="EP7">
-        <v>-0.004670898701162962</v>
+        <v>-4.6708987011629616E-3</v>
       </c>
       <c r="EQ7">
-        <v>-0.01200660499465608</v>
+        <v>-1.200660499465608E-2</v>
       </c>
       <c r="ER7">
-        <v>-0.003083990809101188</v>
+        <v>-3.083990809101188E-3</v>
       </c>
       <c r="ES7">
-        <v>0.3872432305433514</v>
+        <v>0.38724323054335141</v>
       </c>
       <c r="ET7">
         <v>0</v>
       </c>
       <c r="EU7">
-        <v>-0.06402032649818633</v>
+        <v>-6.4020326498186328E-2</v>
       </c>
       <c r="EW7">
         <v>0</v>
@@ -6366,31 +6561,31 @@
         <v>1.746456362170262</v>
       </c>
       <c r="EY7">
-        <v>0.08065450986530082</v>
+        <v>8.0654509865300816E-2</v>
       </c>
       <c r="EZ7">
-        <v>0.01379303897082914</v>
+        <v>1.379303897082914E-2</v>
       </c>
       <c r="FA7">
-        <v>-0.005236840492492878</v>
+        <v>-5.2368404924928776E-3</v>
       </c>
       <c r="FB7">
-        <v>0.007547232666103056</v>
+        <v>7.5472326661030556E-3</v>
       </c>
       <c r="FC7">
-        <v>-0.002130240423185767</v>
+        <v>-2.1302404231857671E-3</v>
       </c>
       <c r="FD7">
-        <v>0.17101385891334</v>
+        <v>0.17101385891334001</v>
       </c>
       <c r="FE7">
         <v>0</v>
       </c>
       <c r="FF7">
-        <v>-0.06492929535172678</v>
+        <v>-6.4929295351726785E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:162">
+    <row r="8" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -6401,25 +6596,25 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>5.878472222218988</v>
+        <v>5.8784722222189876</v>
       </c>
       <c r="E8">
-        <v>141.0833333332557</v>
+        <v>141.08333333325569</v>
       </c>
       <c r="F8">
         <v>20</v>
       </c>
       <c r="I8">
-        <v>6.475499971008301</v>
+        <v>6.4754999710083014</v>
       </c>
       <c r="J8">
-        <v>0.04759241676658021</v>
+        <v>4.7592416766580208E-2</v>
       </c>
       <c r="K8">
-        <v>6.523092387774882</v>
+        <v>6.5230923877748817</v>
       </c>
       <c r="L8">
-        <v>99.27040100097656</v>
+        <v>99.270401000976562</v>
       </c>
       <c r="S8">
         <v>393</v>
@@ -6428,25 +6623,25 @@
         <v>195.04</v>
       </c>
       <c r="U8">
-        <v>1.404</v>
+        <v>1.4039999999999999</v>
       </c>
       <c r="V8">
-        <v>2.949</v>
+        <v>2.9489999999999998</v>
       </c>
       <c r="W8">
-        <v>6.722</v>
+        <v>6.7220000000000004</v>
       </c>
       <c r="X8">
-        <v>2.189</v>
+        <v>2.1890000000000001</v>
       </c>
       <c r="Y8">
-        <v>0.701</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="Z8">
-        <v>33.52649925620018</v>
+        <v>33.526499256200182</v>
       </c>
       <c r="AA8">
-        <v>1.578</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="AB8">
         <v>12.855</v>
@@ -6461,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>10.76820603907638</v>
+        <v>10.768206039076381</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -6500,13 +6695,13 @@
         <v>0</v>
       </c>
       <c r="CT8">
-        <v>20.62007982392685</v>
+        <v>20.620079823926851</v>
       </c>
       <c r="DN8">
-        <v>5.878472222218988</v>
+        <v>5.8784722222189876</v>
       </c>
       <c r="DO8">
-        <v>141.0833333332557</v>
+        <v>141.08333333325569</v>
       </c>
       <c r="DP8">
         <v>1800</v>
@@ -6515,31 +6710,31 @@
         <v>1780</v>
       </c>
       <c r="DS8">
-        <v>293.4125996924623</v>
+        <v>293.41259969246232</v>
       </c>
       <c r="DT8">
-        <v>11417.67345161629</v>
+        <v>11417.673451616291</v>
       </c>
       <c r="DU8">
         <v>0</v>
       </c>
       <c r="DV8">
-        <v>354.114</v>
+        <v>354.11399999999998</v>
       </c>
       <c r="DW8">
-        <v>20.62007982392685</v>
+        <v>20.620079823926851</v>
       </c>
       <c r="DX8">
         <v>18.22102575488455</v>
       </c>
       <c r="DY8">
-        <v>-2.89944</v>
+        <v>-2.8994399999999998</v>
       </c>
       <c r="DZ8">
         <v>-1.051590000000002</v>
       </c>
       <c r="EA8">
-        <v>-0.8777600000000002</v>
+        <v>-0.87776000000000021</v>
       </c>
       <c r="EH8">
         <v>0</v>
@@ -6548,73 +6743,73 @@
         <v>0</v>
       </c>
       <c r="EJ8">
-        <v>0.01942554101126418</v>
+        <v>1.9425541011264182E-2</v>
       </c>
       <c r="EK8">
-        <v>0.01946847377893088</v>
+        <v>1.9468473778930882E-2</v>
       </c>
       <c r="EL8">
-        <v>4.293276766670482E-05</v>
+        <v>4.2932767666704823E-5</v>
       </c>
       <c r="EM8">
-        <v>0.9150585185270601</v>
+        <v>0.91505851852706011</v>
       </c>
       <c r="EN8">
-        <v>0.05913500519971786</v>
+        <v>5.9135005199717858E-2</v>
       </c>
       <c r="EO8">
-        <v>0.02371057385354555</v>
+        <v>2.3710573853545549E-2</v>
       </c>
       <c r="EP8">
-        <v>-0.004714122744662581</v>
+        <v>-4.714122744662581E-3</v>
       </c>
       <c r="EQ8">
-        <v>-0.001777331067162435</v>
+        <v>-1.777331067162435E-3</v>
       </c>
       <c r="ER8">
-        <v>-0.002974931829156</v>
+        <v>-2.974931829156E-3</v>
       </c>
       <c r="ES8">
-        <v>0.4009566545816196</v>
+        <v>0.40095665458161961</v>
       </c>
       <c r="ET8">
         <v>0</v>
       </c>
       <c r="EU8">
-        <v>-0.07971797294582926</v>
+        <v>-7.971797294582926E-2</v>
       </c>
       <c r="EW8">
         <v>0</v>
       </c>
       <c r="EX8">
-        <v>1.461773329563884</v>
+        <v>1.4617733295638839</v>
       </c>
       <c r="EY8">
-        <v>0.06069008713091934</v>
+        <v>6.0690087130919342E-2</v>
       </c>
       <c r="EZ8">
-        <v>0.005875991022152033</v>
+        <v>5.8759910221520334E-3</v>
       </c>
       <c r="FA8">
-        <v>-0.003269668839746289</v>
+        <v>-3.2696688397462889E-3</v>
       </c>
       <c r="FB8">
-        <v>0.005742473781247444</v>
+        <v>5.742473781247444E-3</v>
       </c>
       <c r="FC8">
-        <v>-0.001247477459622097</v>
+        <v>-1.247477459622097E-3</v>
       </c>
       <c r="FD8">
-        <v>0.09681961750156122</v>
+        <v>9.681961750156122E-2</v>
       </c>
       <c r="FE8">
         <v>0</v>
       </c>
       <c r="FF8">
-        <v>-0.05387484174628108</v>
+        <v>-5.3874841746281078E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:162">
+    <row r="9" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -6625,25 +6820,25 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>6.863888888889051</v>
+        <v>6.8638888888890506</v>
       </c>
       <c r="E9">
-        <v>164.7333333333372</v>
+        <v>164.73333333333721</v>
       </c>
       <c r="F9">
         <v>20</v>
       </c>
       <c r="I9">
-        <v>9.810600144958496</v>
+        <v>9.8106001449584959</v>
       </c>
       <c r="J9">
-        <v>0.09211492380746122</v>
+        <v>9.2114923807461224E-2</v>
       </c>
       <c r="K9">
-        <v>9.902715068765957</v>
+        <v>9.9027150687659571</v>
       </c>
       <c r="L9">
-        <v>99.06980133056641</v>
+        <v>99.069801330566406</v>
       </c>
       <c r="S9">
         <v>406</v>
@@ -6652,10 +6847,10 @@
         <v>386.43</v>
       </c>
       <c r="U9">
-        <v>3.039</v>
+        <v>3.0390000000000001</v>
       </c>
       <c r="V9">
-        <v>3.356</v>
+        <v>3.3559999999999999</v>
       </c>
       <c r="W9">
         <v>5.673</v>
@@ -6664,16 +6859,16 @@
         <v>2.976</v>
       </c>
       <c r="Y9">
-        <v>0.619</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="Z9">
         <v>29.97402251382136</v>
       </c>
       <c r="AA9">
-        <v>2.457</v>
+        <v>2.4569999999999999</v>
       </c>
       <c r="AB9">
-        <v>16.156</v>
+        <v>16.155999999999999</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -6685,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>13.98756660746004</v>
+        <v>13.987566607460041</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -6724,13 +6919,13 @@
         <v>0</v>
       </c>
       <c r="CT9">
-        <v>30.75676210331519</v>
+        <v>30.756762103315189</v>
       </c>
       <c r="DN9">
-        <v>6.863888888889051</v>
+        <v>6.8638888888890506</v>
       </c>
       <c r="DO9">
-        <v>164.7333333333372</v>
+        <v>164.73333333333721</v>
       </c>
       <c r="DP9">
         <v>1780</v>
@@ -6739,31 +6934,31 @@
         <v>1760</v>
       </c>
       <c r="DS9">
-        <v>485.9957335644333</v>
+        <v>485.99573356443329</v>
       </c>
       <c r="DT9">
-        <v>17354.15176124764</v>
+        <v>17354.151761247638</v>
       </c>
       <c r="DU9">
         <v>0</v>
       </c>
       <c r="DV9">
-        <v>694.7882</v>
+        <v>694.78819999999996</v>
       </c>
       <c r="DW9">
-        <v>30.75676210331519</v>
+        <v>30.756762103315189</v>
       </c>
       <c r="DX9">
-        <v>23.95148756660746</v>
+        <v>23.951487566607462</v>
       </c>
       <c r="DY9">
-        <v>-4.46406</v>
+        <v>-4.4640599999999999</v>
       </c>
       <c r="DZ9">
-        <v>0.8156299999999976</v>
+        <v>0.81562999999999763</v>
       </c>
       <c r="EA9">
-        <v>-2.27862</v>
+        <v>-2.2786200000000001</v>
       </c>
       <c r="EH9">
         <v>0</v>
@@ -6772,73 +6967,73 @@
         <v>0</v>
       </c>
       <c r="EJ9">
-        <v>0.01731771680570619</v>
+        <v>1.731771680570619E-2</v>
       </c>
       <c r="EK9">
-        <v>0.01754890271563369</v>
+        <v>1.7548902715633689E-2</v>
       </c>
       <c r="EL9">
-        <v>0.0002311859099274992</v>
+        <v>2.311859099274992E-4</v>
       </c>
       <c r="EM9">
-        <v>0.9938045775453829</v>
+        <v>0.99380457754538287</v>
       </c>
       <c r="EN9">
-        <v>0.05263535843241177</v>
+        <v>5.2635358432411773E-2</v>
       </c>
       <c r="EO9">
-        <v>0.01671673164548192</v>
+        <v>1.671673164548192E-2</v>
       </c>
       <c r="EP9">
-        <v>-0.004564262624287535</v>
+        <v>-4.5642626242875352E-3</v>
       </c>
       <c r="EQ9">
-        <v>0.005446998285412541</v>
+        <v>5.4469982854125406E-3</v>
       </c>
       <c r="ER9">
-        <v>-0.004086546854737532</v>
+        <v>-4.0865468547375324E-3</v>
       </c>
       <c r="ES9">
-        <v>0.3175950946918621</v>
+        <v>0.31759509469186209</v>
       </c>
       <c r="ET9">
         <v>0</v>
       </c>
       <c r="EU9">
-        <v>-0.0867147628556274</v>
+        <v>-8.6714762855627403E-2</v>
       </c>
       <c r="EW9">
         <v>0</v>
       </c>
       <c r="EX9">
-        <v>1.178632847641096</v>
+        <v>1.1786328476410961</v>
       </c>
       <c r="EY9">
-        <v>0.0465139248330608</v>
+        <v>4.6513924833060799E-2</v>
       </c>
       <c r="EZ9">
-        <v>0.002097595582917149</v>
+        <v>2.0975955829171489E-3</v>
       </c>
       <c r="FA9">
-        <v>-0.002013799445129969</v>
+        <v>-2.0137994451299691E-3</v>
       </c>
       <c r="FB9">
-        <v>0.004171596575628807</v>
+        <v>4.1715965756288073E-3</v>
       </c>
       <c r="FC9">
-        <v>-0.0006988775334780627</v>
+        <v>-6.9887753347806271E-4</v>
       </c>
       <c r="FD9">
-        <v>0.04509607801202441</v>
+        <v>4.5096078012024407E-2</v>
       </c>
       <c r="FE9">
         <v>0</v>
       </c>
       <c r="FF9">
-        <v>-0.04329455001609791</v>
+        <v>-4.3294550016097909E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:162">
+    <row r="10" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -6849,10 +7044,10 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>7.879861111105129</v>
+        <v>7.8798611111051287</v>
       </c>
       <c r="E10">
-        <v>189.1166666665231</v>
+        <v>189.11666666652309</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -6861,13 +7056,13 @@
         <v>12.58240018615723</v>
       </c>
       <c r="J10">
-        <v>0.08598072029549542</v>
+        <v>8.5980720295495416E-2</v>
       </c>
       <c r="K10">
         <v>12.66838090645272</v>
       </c>
       <c r="L10">
-        <v>99.32129669189453</v>
+        <v>99.321296691894531</v>
       </c>
       <c r="S10">
         <v>378</v>
@@ -6876,10 +7071,10 @@
         <v>710.45</v>
       </c>
       <c r="U10">
-        <v>5.445</v>
+        <v>5.4450000000000003</v>
       </c>
       <c r="V10">
-        <v>3.208</v>
+        <v>3.2080000000000002</v>
       </c>
       <c r="W10">
         <v>1.135</v>
@@ -6888,16 +7083,16 @@
         <v>3.758</v>
       </c>
       <c r="Y10">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="Z10">
-        <v>18.65050289748884</v>
+        <v>18.650502897488838</v>
       </c>
       <c r="AA10">
-        <v>3.438</v>
+        <v>3.4380000000000002</v>
       </c>
       <c r="AB10">
-        <v>15.374</v>
+        <v>15.374000000000001</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -6909,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>15.43072824156305</v>
+        <v>15.430728241563051</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -6948,13 +7143,13 @@
         <v>0</v>
       </c>
       <c r="CT10">
-        <v>44.22615215665403</v>
+        <v>44.226152156654031</v>
       </c>
       <c r="DN10">
-        <v>7.879861111105129</v>
+        <v>7.8798611111051287</v>
       </c>
       <c r="DO10">
-        <v>189.1166666665231</v>
+        <v>189.11666666652309</v>
       </c>
       <c r="DP10">
         <v>1760</v>
@@ -6963,7 +7158,7 @@
         <v>1740</v>
       </c>
       <c r="DS10">
-        <v>759.0037292663014</v>
+        <v>759.00372926630143</v>
       </c>
       <c r="DT10">
         <v>22232.5198337574</v>
@@ -6975,19 +7170,19 @@
         <v>1265.0634</v>
       </c>
       <c r="DW10">
-        <v>44.22615215665403</v>
+        <v>44.226152156654031</v>
       </c>
       <c r="DX10">
-        <v>26.49145204262877</v>
+        <v>26.491452042628769</v>
       </c>
       <c r="DY10">
         <v>-6.19062</v>
       </c>
       <c r="DZ10">
-        <v>8.802509999999996</v>
+        <v>8.8025099999999963</v>
       </c>
       <c r="EA10">
-        <v>-3.65494</v>
+        <v>-3.6549399999999999</v>
       </c>
       <c r="EH10">
         <v>0</v>
@@ -6996,31 +7191,31 @@
         <v>0</v>
       </c>
       <c r="EJ10">
-        <v>0.01015281634544363</v>
+        <v>1.0152816345443631E-2</v>
       </c>
       <c r="EK10">
-        <v>0.01013034739358676</v>
+        <v>1.013034739358676E-2</v>
       </c>
       <c r="EL10">
-        <v>-2.246895185686986E-05</v>
+        <v>-2.246895185686986E-5</v>
       </c>
       <c r="EM10">
         <v>1.186851686035739</v>
       </c>
       <c r="EN10">
-        <v>0.04933698010825944</v>
+        <v>4.9336980108259439E-2</v>
       </c>
       <c r="EO10">
-        <v>0.005286151529711934</v>
+        <v>5.2861515297119343E-3</v>
       </c>
       <c r="EP10">
-        <v>-0.003593301351771681</v>
+        <v>-3.5933013517716809E-3</v>
       </c>
       <c r="EQ10">
-        <v>0.01662222378627919</v>
+        <v>1.662222378627919E-2</v>
       </c>
       <c r="ER10">
-        <v>-0.002864384971544805</v>
+        <v>-2.8643849715448049E-3</v>
       </c>
       <c r="ES10">
         <v>0.1071438000078766</v>
@@ -7029,40 +7224,40 @@
         <v>0</v>
       </c>
       <c r="EU10">
-        <v>-0.07283180575476955</v>
+        <v>-7.2831805754769552E-2</v>
       </c>
       <c r="EW10">
         <v>0</v>
       </c>
       <c r="EX10">
-        <v>1.0656104290089</v>
+        <v>1.0656104290088999</v>
       </c>
       <c r="EY10">
-        <v>0.04080381592453328</v>
+        <v>4.0803815924533277E-2</v>
       </c>
       <c r="EZ10">
-        <v>4.204903383171697E-05</v>
+        <v>4.2049033831716972E-5</v>
       </c>
       <c r="FA10">
-        <v>-0.001300877166521308</v>
+        <v>-1.300877166521308E-3</v>
       </c>
       <c r="FB10">
-        <v>0.00329772610279442</v>
+        <v>3.2977261027944201E-3</v>
       </c>
       <c r="FC10">
-        <v>-0.0003705351515363034</v>
+        <v>-3.7053515153630338E-4</v>
       </c>
       <c r="FD10">
-        <v>0.001030517192546077</v>
+        <v>1.0305171925460771E-3</v>
       </c>
       <c r="FE10">
         <v>0</v>
       </c>
       <c r="FF10">
-        <v>-0.03188126250072499</v>
+        <v>-3.188126250072499E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:162">
+    <row r="11" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -7073,7 +7268,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>8.87777777777228</v>
+        <v>8.8777777777722804</v>
       </c>
       <c r="E11">
         <v>213.0666666665347</v>
@@ -7082,13 +7277,13 @@
         <v>20</v>
       </c>
       <c r="I11">
-        <v>15.96819959411621</v>
+        <v>15.968199594116211</v>
       </c>
       <c r="J11">
         <v>0.118737383342534</v>
       </c>
       <c r="K11">
-        <v>16.08693697745874</v>
+        <v>16.086936977458741</v>
       </c>
       <c r="L11">
         <v>99.26190185546875</v>
@@ -7097,28 +7292,28 @@
         <v>375</v>
       </c>
       <c r="T11">
-        <v>1165.36</v>
+        <v>1165.3599999999999</v>
       </c>
       <c r="U11">
-        <v>7.308</v>
+        <v>7.3079999999999998</v>
       </c>
       <c r="V11">
-        <v>2.647</v>
+        <v>2.6469999999999998</v>
       </c>
       <c r="W11">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="X11">
-        <v>3.406</v>
+        <v>3.4060000000000001</v>
       </c>
       <c r="Y11">
-        <v>0.261</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="Z11">
-        <v>9.547281245143099</v>
+        <v>9.5472812451430986</v>
       </c>
       <c r="AA11">
-        <v>3.201</v>
+        <v>3.2010000000000001</v>
       </c>
       <c r="AB11">
         <v>12.234</v>
@@ -7172,10 +7367,10 @@
         <v>0</v>
       </c>
       <c r="CT11">
-        <v>58.26134056245682</v>
+        <v>58.261340562456823</v>
       </c>
       <c r="DN11">
-        <v>8.87777777777228</v>
+        <v>8.8777777777722804</v>
       </c>
       <c r="DO11">
         <v>213.0666666665347</v>
@@ -7187,7 +7382,7 @@
         <v>1720</v>
       </c>
       <c r="DS11">
-        <v>1100.897161635242</v>
+        <v>1100.8971616352419</v>
       </c>
       <c r="DT11">
         <v>28123.81080360604</v>
@@ -7199,19 +7394,19 @@
         <v>2056.6068</v>
       </c>
       <c r="DW11">
-        <v>58.26134056245682</v>
+        <v>58.261340562456823</v>
       </c>
       <c r="DX11">
         <v>19.34447158081705</v>
       </c>
       <c r="DY11">
-        <v>-5.77824</v>
+        <v>-5.7782400000000003</v>
       </c>
       <c r="DZ11">
-        <v>10.67649</v>
+        <v>10.676489999999999</v>
       </c>
       <c r="EA11">
-        <v>-3.04246</v>
+        <v>-3.0424600000000002</v>
       </c>
       <c r="EH11">
         <v>0</v>
@@ -7220,73 +7415,73 @@
         <v>0</v>
       </c>
       <c r="EJ11">
-        <v>0.009903084082367907</v>
+        <v>9.9030840823679071E-3</v>
       </c>
       <c r="EK11">
-        <v>0.009998893653262765</v>
+        <v>9.9988936532627651E-3</v>
       </c>
       <c r="EL11">
-        <v>9.580957089485876E-05</v>
+        <v>9.5809570894858761E-5</v>
       </c>
       <c r="EM11">
-        <v>1.330560803253752</v>
+        <v>1.3305608032537519</v>
       </c>
       <c r="EN11">
-        <v>0.04105135424379045</v>
+        <v>4.1051354243790451E-2</v>
       </c>
       <c r="EO11">
-        <v>-0.01201386059704</v>
+        <v>-1.201386059704E-2</v>
       </c>
       <c r="EP11">
-        <v>0.000693198457653468</v>
+        <v>6.9319845765346798E-4</v>
       </c>
       <c r="EQ11">
-        <v>0.003150104383513862</v>
+        <v>3.1501043835138621E-3</v>
       </c>
       <c r="ER11">
-        <v>0.001029560578455784</v>
+        <v>1.029560578455784E-3</v>
       </c>
       <c r="ES11">
-        <v>-0.292654428053546</v>
+        <v>-0.29265442805354602</v>
       </c>
       <c r="ET11">
         <v>0</v>
       </c>
       <c r="EU11">
-        <v>0.01688612886037306</v>
+        <v>1.6886128860373061E-2</v>
       </c>
       <c r="EW11">
         <v>0</v>
       </c>
       <c r="EX11">
-        <v>0.9332197995432762</v>
+        <v>0.93321979954327616</v>
       </c>
       <c r="EY11">
-        <v>0.03515470539748614</v>
+        <v>3.5154705397486143E-2</v>
       </c>
       <c r="EZ11">
-        <v>-0.001329909758951479</v>
+        <v>-1.3299097589514789E-3</v>
       </c>
       <c r="FA11">
-        <v>-0.0006938226470180042</v>
+        <v>-6.9382264701800425E-4</v>
       </c>
       <c r="FB11">
-        <v>0.002424233455661855</v>
+        <v>2.4242334556618551E-3</v>
       </c>
       <c r="FC11">
-        <v>-9.738443875281272E-05</v>
+        <v>-9.7384438752812715E-5</v>
       </c>
       <c r="FD11">
-        <v>-0.03783020633836912</v>
+        <v>-3.7830206338369123E-2</v>
       </c>
       <c r="FE11">
         <v>0</v>
       </c>
       <c r="FF11">
-        <v>-0.01973626685739823</v>
+        <v>-1.9736266857398231E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:162">
+    <row r="12" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -7297,25 +7492,25 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>9.924305555556202</v>
+        <v>9.9243055555562023</v>
       </c>
       <c r="E12">
-        <v>238.1833333333489</v>
+        <v>238.18333333334891</v>
       </c>
       <c r="F12">
         <v>46</v>
       </c>
       <c r="I12">
-        <v>16.75330053100586</v>
+        <v>16.753300531005859</v>
       </c>
       <c r="J12">
-        <v>0.3101273327629528</v>
+        <v>0.31012733276295279</v>
       </c>
       <c r="K12">
-        <v>17.06342786376881</v>
+        <v>17.063427863768808</v>
       </c>
       <c r="L12">
-        <v>98.18250274658203</v>
+        <v>98.182502746582031</v>
       </c>
       <c r="S12">
         <v>382</v>
@@ -7324,28 +7519,28 @@
         <v>1627.85</v>
       </c>
       <c r="U12">
-        <v>7.471</v>
+        <v>7.4710000000000001</v>
       </c>
       <c r="V12">
         <v>2.246</v>
       </c>
       <c r="W12">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="X12">
-        <v>2.526</v>
+        <v>2.5259999999999998</v>
       </c>
       <c r="Y12">
-        <v>0.142</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="Z12">
-        <v>6.272341748262615</v>
+        <v>6.2723417482626154</v>
       </c>
       <c r="AA12">
-        <v>3.332</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="AB12">
-        <v>8.472</v>
+        <v>8.4719999999999995</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -7357,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>8.658969804618117</v>
+        <v>8.6589698046181169</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -7396,13 +7591,13 @@
         <v>0</v>
       </c>
       <c r="CT12">
-        <v>71.29867708916092</v>
+        <v>71.298677089160918</v>
       </c>
       <c r="DN12">
-        <v>9.924305555556202</v>
+        <v>9.9243055555562023</v>
       </c>
       <c r="DO12">
-        <v>238.1833333333489</v>
+        <v>238.18333333334891</v>
       </c>
       <c r="DP12">
         <v>1720</v>
@@ -7414,25 +7609,25 @@
         <v>1511.824667375646</v>
       </c>
       <c r="DT12">
-        <v>29474.18441505623</v>
+        <v>29474.184415056228</v>
       </c>
       <c r="DU12">
         <v>0</v>
       </c>
       <c r="DV12">
-        <v>2852.0896</v>
+        <v>2852.0895999999998</v>
       </c>
       <c r="DW12">
-        <v>71.29867708916092</v>
+        <v>71.298677089160918</v>
       </c>
       <c r="DX12">
-        <v>14.761878330373</v>
+        <v>14.761878330372999</v>
       </c>
       <c r="DY12">
-        <v>-6.00356</v>
+        <v>-6.0035600000000002</v>
       </c>
       <c r="DZ12">
-        <v>10.67477</v>
+        <v>10.674770000000001</v>
       </c>
       <c r="EA12">
         <v>-1.528859999999999</v>
@@ -7444,73 +7639,73 @@
         <v>0</v>
       </c>
       <c r="EJ12">
-        <v>0.001910558251570587</v>
+        <v>1.910558251570587E-3</v>
       </c>
       <c r="EK12">
-        <v>0.00237630937980323</v>
+        <v>2.3763093798032302E-3</v>
       </c>
       <c r="EL12">
-        <v>0.0004657511282326424</v>
+        <v>4.6575112823264242E-4</v>
       </c>
       <c r="EM12">
         <v>1.125478322914139</v>
       </c>
       <c r="EN12">
-        <v>0.03172660954689219</v>
+        <v>3.1726609546892187E-2</v>
       </c>
       <c r="EO12">
-        <v>-0.006483621476300211</v>
+        <v>-6.4836214763002113E-3</v>
       </c>
       <c r="EP12">
-        <v>-0.0003187910231610461</v>
+        <v>-3.1879102316104612E-4</v>
       </c>
       <c r="EQ12">
-        <v>-2.433519260772207E-06</v>
+        <v>-2.433519260772207E-6</v>
       </c>
       <c r="ER12">
-        <v>0.002141496949478785</v>
+        <v>2.1414969494787852E-3</v>
       </c>
       <c r="ES12">
-        <v>-0.2043591032542373</v>
+        <v>-0.20435910325423731</v>
       </c>
       <c r="ET12">
         <v>0</v>
       </c>
       <c r="EU12">
-        <v>-0.0100480646282065</v>
+        <v>-1.00480646282065E-2</v>
       </c>
       <c r="EW12">
         <v>0</v>
       </c>
       <c r="EX12">
-        <v>0.961365416901555</v>
+        <v>0.96136541690155497</v>
       </c>
       <c r="EY12">
-        <v>0.03599273784507974</v>
+        <v>3.5992737845079739E-2</v>
       </c>
       <c r="EZ12">
-        <v>-0.00276511534001607</v>
+        <v>-2.7651153400160698E-3</v>
       </c>
       <c r="FA12">
-        <v>-0.000200801242816881</v>
+        <v>-2.0080124281688101E-4</v>
       </c>
       <c r="FB12">
-        <v>0.001914995089438085</v>
+        <v>1.914995089438085E-3</v>
       </c>
       <c r="FC12">
-        <v>0.0001643305216985631</v>
+        <v>1.6433052169856309E-4</v>
       </c>
       <c r="FD12">
-        <v>-0.07682425693532134</v>
+        <v>-7.6824256935321342E-2</v>
       </c>
       <c r="FE12">
         <v>0</v>
       </c>
       <c r="FF12">
-        <v>-0.005578937720191543</v>
+        <v>-5.5789377201915426E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:162">
+    <row r="13" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -7524,7 +7719,7 @@
         <v>10.90972222221899</v>
       </c>
       <c r="E13">
-        <v>261.8333333332557</v>
+        <v>261.83333333325572</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -7533,13 +7728,13 @@
         <v>16.19130025634766</v>
       </c>
       <c r="J13">
-        <v>0.3879202658218368</v>
+        <v>0.38792026582183681</v>
       </c>
       <c r="K13">
-        <v>16.57922052216949</v>
+        <v>16.579220522169489</v>
       </c>
       <c r="L13">
-        <v>97.66020202636719</v>
+        <v>97.660202026367188</v>
       </c>
       <c r="S13">
         <v>382</v>
@@ -7548,25 +7743,25 @@
         <v>2082.52</v>
       </c>
       <c r="U13">
-        <v>6.471</v>
+        <v>6.4710000000000001</v>
       </c>
       <c r="V13">
         <v>1.889</v>
       </c>
       <c r="W13">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="X13">
-        <v>2.208</v>
+        <v>2.2080000000000002</v>
       </c>
       <c r="Y13">
-        <v>0.08599999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="Z13">
-        <v>7.882057772153022</v>
+        <v>7.8820577721530221</v>
       </c>
       <c r="AA13">
-        <v>2.711</v>
+        <v>2.7109999999999999</v>
       </c>
       <c r="AB13">
         <v>5.944</v>
@@ -7581,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>5.328596802841918</v>
+        <v>5.3285968028419184</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -7620,13 +7815,13 @@
         <v>0</v>
       </c>
       <c r="CT13">
-        <v>86.4493259882359</v>
+        <v>86.449325988235898</v>
       </c>
       <c r="DN13">
         <v>10.90972222221899</v>
       </c>
       <c r="DO13">
-        <v>261.8333333332557</v>
+        <v>261.83333333325572</v>
       </c>
       <c r="DP13">
         <v>1674</v>
@@ -7635,7 +7830,7 @@
         <v>1654</v>
       </c>
       <c r="DS13">
-        <v>1901.394571684567</v>
+        <v>1901.3945716845669</v>
       </c>
       <c r="DT13">
         <v>28533.3959552784</v>
@@ -7644,22 +7839,22 @@
         <v>0</v>
       </c>
       <c r="DV13">
-        <v>3613.20718</v>
+        <v>3613.2071799999999</v>
       </c>
       <c r="DW13">
-        <v>86.4493259882359</v>
+        <v>86.449325988235898</v>
       </c>
       <c r="DX13">
-        <v>9.186833925399645</v>
+        <v>9.1868339253996449</v>
       </c>
       <c r="DY13">
-        <v>-4.964006</v>
+        <v>-4.9640060000000004</v>
       </c>
       <c r="DZ13">
         <v>10.659704</v>
       </c>
       <c r="EA13">
-        <v>-0.9965280000000001</v>
+        <v>-0.99652800000000008</v>
       </c>
       <c r="EH13">
         <v>0</v>
@@ -7668,73 +7863,73 @@
         <v>0</v>
       </c>
       <c r="EJ13">
-        <v>-0.00144261727726418</v>
+        <v>-1.4426172772641799E-3</v>
       </c>
       <c r="EK13">
-        <v>-0.00124292799891275</v>
+        <v>-1.2429279989127501E-3</v>
       </c>
       <c r="EL13">
-        <v>0.0001996892783514297</v>
+        <v>1.9968927835142971E-4</v>
       </c>
       <c r="EM13">
         <v>1.167107610138836</v>
       </c>
       <c r="EN13">
-        <v>0.03889070672939051</v>
+        <v>3.889070672939051E-2</v>
       </c>
       <c r="EO13">
-        <v>-0.008548845701220489</v>
+        <v>-8.548845701220489E-3</v>
       </c>
       <c r="EP13">
-        <v>0.001594065642985499</v>
+        <v>1.594065642985499E-3</v>
       </c>
       <c r="EQ13">
-        <v>-2.310240062297692E-05</v>
+        <v>-2.3102400622976921E-5</v>
       </c>
       <c r="ER13">
-        <v>0.0008162848220118967</v>
+        <v>8.1628482201189672E-4</v>
       </c>
       <c r="ES13">
-        <v>-0.2198171856506776</v>
+        <v>-0.21981718565067759</v>
       </c>
       <c r="ET13">
         <v>0</v>
       </c>
       <c r="EU13">
-        <v>0.04098834341266498</v>
+        <v>4.0988343412664982E-2</v>
       </c>
       <c r="EW13">
         <v>0</v>
       </c>
       <c r="EX13">
-        <v>1.060481041966539</v>
+        <v>1.0604810419665389</v>
       </c>
       <c r="EY13">
-        <v>0.03916403545476685</v>
+        <v>3.9164035454766849E-2</v>
       </c>
       <c r="EZ13">
-        <v>-0.004527657425061093</v>
+        <v>-4.5276574250610931E-3</v>
       </c>
       <c r="FA13">
-        <v>0.0003759513294121615</v>
+        <v>3.7595132941216152E-4</v>
       </c>
       <c r="FB13">
-        <v>0.001397971969036638</v>
+        <v>1.3979719690366381E-3</v>
       </c>
       <c r="FC13">
-        <v>0.0004909926771019313</v>
+        <v>4.9099267710193126E-4</v>
       </c>
       <c r="FD13">
-        <v>-0.1156075305439447</v>
+        <v>-0.11560753054394469</v>
       </c>
       <c r="FE13">
         <v>0</v>
       </c>
       <c r="FF13">
-        <v>0.009599402233367209</v>
+        <v>9.5994022333672092E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:162">
+    <row r="14" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -7745,55 +7940,55 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>11.86805555555475</v>
+        <v>11.868055555554751</v>
       </c>
       <c r="E14">
-        <v>284.8333333333139</v>
+        <v>284.83333333331387</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
       <c r="I14">
-        <v>16.12990079650879</v>
+        <v>16.129900796508789</v>
       </c>
       <c r="J14">
-        <v>0.6560801791317594</v>
+        <v>0.65608017913175942</v>
       </c>
       <c r="K14">
-        <v>16.78598097564055</v>
+        <v>16.785980975640548</v>
       </c>
       <c r="L14">
-        <v>96.09149932861328</v>
+        <v>96.091499328613281</v>
       </c>
       <c r="S14">
         <v>408</v>
       </c>
       <c r="T14">
-        <v>2540.45</v>
+        <v>2540.4499999999998</v>
       </c>
       <c r="U14">
         <v>4.76</v>
       </c>
       <c r="V14">
-        <v>1.574</v>
+        <v>1.5740000000000001</v>
       </c>
       <c r="W14">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="X14">
         <v>1.716</v>
       </c>
       <c r="Y14">
-        <v>0.099</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="Z14">
-        <v>8.881191855947069</v>
+        <v>8.8811918559470691</v>
       </c>
       <c r="AA14">
-        <v>2.553</v>
+        <v>2.5529999999999999</v>
       </c>
       <c r="AB14">
-        <v>3.559</v>
+        <v>3.5590000000000002</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -7847,10 +8042,10 @@
         <v>103.0546711643717</v>
       </c>
       <c r="DN14">
-        <v>11.86805555555475</v>
+        <v>11.868055555554751</v>
       </c>
       <c r="DO14">
-        <v>284.8333333333139</v>
+        <v>284.83333333331387</v>
       </c>
       <c r="DP14">
         <v>1654</v>
@@ -7868,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="DV14">
-        <v>4370.6234</v>
+        <v>4370.6234000000004</v>
       </c>
       <c r="DW14">
         <v>103.0546711643717</v>
@@ -7877,13 +8072,13 @@
         <v>5.881771758436944</v>
       </c>
       <c r="DY14">
-        <v>-4.702674000000001</v>
+        <v>-4.7026740000000009</v>
       </c>
       <c r="DZ14">
         <v>10.661358</v>
       </c>
       <c r="EA14">
-        <v>-0.18276</v>
+        <v>-0.18276000000000001</v>
       </c>
       <c r="EH14">
         <v>0</v>
@@ -7892,31 +8087,31 @@
         <v>0</v>
       </c>
       <c r="EJ14">
-        <v>-0.0001651882755069821</v>
+        <v>-1.6518827550698209E-4</v>
       </c>
       <c r="EK14">
-        <v>0.0005562655248361774</v>
+        <v>5.5626552483617735E-4</v>
       </c>
       <c r="EL14">
-        <v>0.0007214538003431594</v>
+        <v>7.2145380034315941E-4</v>
       </c>
       <c r="EM14">
         <v>1.232008672412255</v>
       </c>
       <c r="EN14">
-        <v>0.04467479585394783</v>
+        <v>4.4674795853947832E-2</v>
       </c>
       <c r="EO14">
-        <v>-0.005375994261859993</v>
+        <v>-5.3759942618599931E-3</v>
       </c>
       <c r="EP14">
-        <v>0.0004250810609506601</v>
+        <v>4.2508106095066011E-4</v>
       </c>
       <c r="EQ14">
-        <v>2.690386461713478E-06</v>
+        <v>2.6903864617134779E-6</v>
       </c>
       <c r="ER14">
-        <v>0.001323670139162818</v>
+        <v>1.3236701391628181E-3</v>
       </c>
       <c r="ES14">
         <v>-0.120336179698176</v>
@@ -7925,28 +8120,28 @@
         <v>0</v>
       </c>
       <c r="EU14">
-        <v>0.009515008470108017</v>
+        <v>9.5150084701080169E-3</v>
       </c>
       <c r="EW14">
         <v>0</v>
       </c>
       <c r="EX14">
-        <v>1.093425343432265</v>
+        <v>1.0934253434322649</v>
       </c>
       <c r="EY14">
-        <v>0.0407228691409621</v>
+        <v>4.0722869140962098E-2</v>
       </c>
       <c r="EZ14">
-        <v>-0.006266671918686401</v>
+        <v>-6.266671918686401E-3</v>
       </c>
       <c r="FA14">
-        <v>0.001078431293625384</v>
+        <v>1.0784312936253839E-3</v>
       </c>
       <c r="FB14">
-        <v>0.000586764143511761</v>
+        <v>5.86764143511761E-4</v>
       </c>
       <c r="FC14">
-        <v>0.0008659298570277953</v>
+        <v>8.6592985702779529E-4</v>
       </c>
       <c r="FD14">
         <v>-0.1538858152895449</v>
@@ -7955,10 +8150,10 @@
         <v>0</v>
       </c>
       <c r="FF14">
-        <v>0.02648220315450754</v>
+        <v>2.6482203154507541E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:162">
+    <row r="15" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -7969,10 +8164,10 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>12.86111111110949</v>
+        <v>12.861111111109491</v>
       </c>
       <c r="E15">
-        <v>308.6666666666279</v>
+        <v>308.66666666662792</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -7984,10 +8179,10 @@
         <v>1.140216589714768</v>
       </c>
       <c r="K15">
-        <v>16.62631665074992</v>
+        <v>16.626316650749921</v>
       </c>
       <c r="L15">
-        <v>93.14209747314453</v>
+        <v>93.142097473144531</v>
       </c>
       <c r="S15">
         <v>424</v>
@@ -7996,13 +8191,13 @@
         <v>2894.43</v>
       </c>
       <c r="U15">
-        <v>2.881</v>
+        <v>2.8809999999999998</v>
       </c>
       <c r="V15">
         <v>1.327</v>
       </c>
       <c r="W15">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="X15">
         <v>1.448</v>
@@ -8014,10 +8209,10 @@
         <v>12.65569839472457</v>
       </c>
       <c r="AA15">
-        <v>2.364</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="AB15">
-        <v>2.233</v>
+        <v>2.2330000000000001</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -8029,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>2.109236234458259</v>
+        <v>2.1092362344582591</v>
       </c>
       <c r="AG15">
         <v>0</v>
@@ -8071,10 +8266,10 @@
         <v>118.6964376074658</v>
       </c>
       <c r="DN15">
-        <v>12.86111111110949</v>
+        <v>12.861111111109491</v>
       </c>
       <c r="DO15">
-        <v>308.6666666666279</v>
+        <v>308.66666666662792</v>
       </c>
       <c r="DP15">
         <v>1634</v>
@@ -8083,7 +8278,7 @@
         <v>1614</v>
       </c>
       <c r="DS15">
-        <v>2649.845727345449</v>
+        <v>2649.8457273454492</v>
       </c>
       <c r="DT15">
         <v>27379.87084694099</v>
@@ -8092,22 +8287,22 @@
         <v>0</v>
       </c>
       <c r="DV15">
-        <v>4949.026720000001</v>
+        <v>4949.0267200000008</v>
       </c>
       <c r="DW15">
         <v>118.6964376074658</v>
       </c>
       <c r="DX15">
-        <v>3.886434280639431</v>
+        <v>3.8864342806394312</v>
       </c>
       <c r="DY15">
-        <v>-4.393848000000001</v>
+        <v>-4.3938480000000011</v>
       </c>
       <c r="DZ15">
-        <v>10.648286</v>
+        <v>10.648286000000001</v>
       </c>
       <c r="EA15">
-        <v>0.2551520000000002</v>
+        <v>0.25515200000000021</v>
       </c>
       <c r="EH15">
         <v>0</v>
@@ -8116,73 +8311,73 @@
         <v>0</v>
       </c>
       <c r="EJ15">
-        <v>-0.001708794125693321</v>
+        <v>-1.708794125693321E-3</v>
       </c>
       <c r="EK15">
-        <v>-0.0004237855681465976</v>
+        <v>-4.2378556814659762E-4</v>
       </c>
       <c r="EL15">
-        <v>0.001285008557546723</v>
+        <v>1.285008557546723E-3</v>
       </c>
       <c r="EM15">
-        <v>0.9395437303561344</v>
+        <v>0.93954373035613437</v>
       </c>
       <c r="EN15">
-        <v>0.04151681901040748</v>
+        <v>4.1516819010407477E-2</v>
       </c>
       <c r="EO15">
-        <v>-0.003241175754678025</v>
+        <v>-3.2411757546780252E-3</v>
       </c>
       <c r="EP15">
-        <v>0.0005016491469498536</v>
+        <v>5.0164914694985361E-4</v>
       </c>
       <c r="EQ15">
-        <v>-2.123382632591862E-05</v>
+        <v>-2.1233826325918621E-5</v>
       </c>
       <c r="ER15">
-        <v>0.0007113331819183118</v>
+        <v>7.1133318191831177E-4</v>
       </c>
       <c r="ES15">
-        <v>-0.07806898100419311</v>
+        <v>-7.8068981004193114E-2</v>
       </c>
       <c r="ET15">
         <v>0</v>
       </c>
       <c r="EU15">
-        <v>0.01208303427158279</v>
+        <v>1.208303427158279E-2</v>
       </c>
       <c r="EW15">
         <v>0</v>
       </c>
       <c r="EX15">
-        <v>1.146302505006772</v>
+        <v>1.1463025050067721</v>
       </c>
       <c r="EY15">
-        <v>0.04343188946083389</v>
+        <v>4.3431889460833893E-2</v>
       </c>
       <c r="EZ15">
-        <v>-0.008535504774586724</v>
+        <v>-8.5355047745867239E-3</v>
       </c>
       <c r="FA15">
-        <v>0.002023100931395883</v>
+        <v>2.0231009313958831E-3</v>
       </c>
       <c r="FB15">
-        <v>-0.0005148463339114339</v>
+        <v>-5.1484633391143389E-4</v>
       </c>
       <c r="FC15">
-        <v>0.001373940874593456</v>
+        <v>1.373940874593456E-3</v>
       </c>
       <c r="FD15">
-        <v>-0.1965262133549104</v>
+        <v>-0.19652621335491041</v>
       </c>
       <c r="FE15">
         <v>0</v>
       </c>
       <c r="FF15">
-        <v>0.04658100203584925</v>
+        <v>4.658100203584925E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:162">
+    <row r="16" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -8196,22 +8391,22 @@
         <v>13.87569444443943</v>
       </c>
       <c r="E16">
-        <v>333.0166666665464</v>
+        <v>333.01666666654643</v>
       </c>
       <c r="F16">
         <v>20</v>
       </c>
       <c r="I16">
-        <v>12.88430009613037</v>
+        <v>12.884300096130371</v>
       </c>
       <c r="J16">
-        <v>2.827015540767517</v>
+        <v>2.8270155407675168</v>
       </c>
       <c r="K16">
         <v>15.71131563689789</v>
       </c>
       <c r="L16">
-        <v>82.00650024414062</v>
+        <v>82.006500244140625</v>
       </c>
       <c r="S16">
         <v>445</v>
@@ -8220,28 +8415,28 @@
         <v>3050.77</v>
       </c>
       <c r="U16">
-        <v>2.264</v>
+        <v>2.2639999999999998</v>
       </c>
       <c r="V16">
         <v>1.264</v>
       </c>
       <c r="W16">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="X16">
-        <v>2.223</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="Y16">
-        <v>0.358</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="Z16">
-        <v>14.26541441861498</v>
+        <v>14.265414418614981</v>
       </c>
       <c r="AA16">
-        <v>1.697</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="AB16">
-        <v>2.495</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -8253,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>3.663410301953819</v>
+        <v>3.6634103019538191</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -8292,13 +8487,13 @@
         <v>0</v>
       </c>
       <c r="CT16">
-        <v>131.7290991415369</v>
+        <v>131.72909914153689</v>
       </c>
       <c r="DN16">
         <v>13.87569444443943</v>
       </c>
       <c r="DO16">
-        <v>333.0166666665464</v>
+        <v>333.01666666654643</v>
       </c>
       <c r="DP16">
         <v>1614</v>
@@ -8307,10 +8502,10 @@
         <v>1594</v>
       </c>
       <c r="DS16">
-        <v>2995.255349257783</v>
+        <v>2995.2553492577831</v>
       </c>
       <c r="DT16">
-        <v>23180.56570358467</v>
+        <v>23180.565703584671</v>
       </c>
       <c r="DU16">
         <v>0</v>
@@ -8319,19 +8514,19 @@
         <v>5201.359480000001</v>
       </c>
       <c r="DW16">
-        <v>131.7290991415369</v>
+        <v>131.72909914153689</v>
       </c>
       <c r="DX16">
-        <v>6.394871225577266</v>
+        <v>6.3948712255772664</v>
       </c>
       <c r="DY16">
-        <v>-3.317310000000002</v>
+        <v>-3.3173100000000022</v>
       </c>
       <c r="DZ16">
-        <v>10.638602</v>
+        <v>10.638602000000001</v>
       </c>
       <c r="EA16">
-        <v>-0.9956979999999991</v>
+        <v>-0.99569799999999908</v>
       </c>
       <c r="EH16">
         <v>0</v>
@@ -8340,31 +8535,31 @@
         <v>0</v>
       </c>
       <c r="EJ16">
-        <v>-0.007532505755051396</v>
+        <v>-7.5325057550513956E-3</v>
       </c>
       <c r="EK16">
-        <v>-0.002649031630289284</v>
+        <v>-2.6490316302892839E-3</v>
       </c>
       <c r="EL16">
-        <v>0.004883474124762112</v>
+        <v>4.8834741247621117E-3</v>
       </c>
       <c r="EM16">
-        <v>0.4526220176914456</v>
+        <v>0.45262201769144561</v>
       </c>
       <c r="EN16">
-        <v>0.03773103210592899</v>
+        <v>3.7731032105928992E-2</v>
       </c>
       <c r="EO16">
-        <v>0.004499510056758097</v>
+        <v>4.4995100567580973E-3</v>
       </c>
       <c r="EP16">
-        <v>0.001931040589741549</v>
+        <v>1.931040589741549E-3</v>
       </c>
       <c r="EQ16">
-        <v>-1.737067996769015E-05</v>
+        <v>-1.737067996769015E-5</v>
       </c>
       <c r="ER16">
-        <v>-0.002243712829159971</v>
+        <v>-2.2437128291599709E-3</v>
       </c>
       <c r="ES16">
         <v>0.1192522389561417</v>
@@ -8373,37 +8568,37 @@
         <v>0</v>
       </c>
       <c r="EU16">
-        <v>0.05117910860005626</v>
+        <v>5.1179108600056263E-2</v>
       </c>
       <c r="EW16">
         <v>0</v>
       </c>
       <c r="EX16">
-        <v>1.356003455692555</v>
+        <v>1.3560034556925551</v>
       </c>
       <c r="EY16">
-        <v>0.05281139517051895</v>
+        <v>5.281139517051895E-2</v>
       </c>
       <c r="EZ16">
-        <v>-0.01292101916306174</v>
+        <v>-1.292101916306174E-2</v>
       </c>
       <c r="FA16">
-        <v>0.003723448259811922</v>
+        <v>3.7234482598119218E-3</v>
       </c>
       <c r="FB16">
-        <v>-0.002320698360482999</v>
+        <v>-2.3206983604829989E-3</v>
       </c>
       <c r="FC16">
-        <v>0.002321549196912006</v>
+        <v>2.3215491969120058E-3</v>
       </c>
       <c r="FD16">
-        <v>-0.244663469339183</v>
+        <v>-0.24466346933918301</v>
       </c>
       <c r="FE16">
         <v>0</v>
       </c>
       <c r="FF16">
-        <v>0.07050463726227162</v>
+        <v>7.0504637262271616E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8412,14 +8607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FF16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:162">
+    <row r="1" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8907,7 +9102,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:162">
+    <row r="2" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -8918,10 +9113,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01875000000291038</v>
+        <v>1.875000000291038E-2</v>
       </c>
       <c r="E2">
-        <v>0.4500000000698492</v>
+        <v>0.45000000006984919</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -8930,10 +9125,10 @@
         <v>0.26</v>
       </c>
       <c r="J2">
-        <v>0.002096774193548423</v>
+        <v>2.096774193548423E-3</v>
       </c>
       <c r="K2">
-        <v>0.2620967741935484</v>
+        <v>0.26209677419354838</v>
       </c>
       <c r="L2">
         <v>99.2</v>
@@ -8942,28 +9137,28 @@
         <v>329</v>
       </c>
       <c r="U2">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="V2">
-        <v>1.904</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="W2">
-        <v>5.769</v>
+        <v>5.7690000000000001</v>
       </c>
       <c r="X2">
-        <v>1.699</v>
+        <v>1.6990000000000001</v>
       </c>
       <c r="Y2">
         <v>1.016</v>
       </c>
       <c r="Z2">
-        <v>33.47099180710051</v>
+        <v>33.470991807100511</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.256</v>
+        <v>2.2559999999999998</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -9017,10 +9212,10 @@
         <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.01875000000291038</v>
+        <v>1.875000000291038E-2</v>
       </c>
       <c r="DO2">
-        <v>0.4500000000698492</v>
+        <v>0.45000000006984919</v>
       </c>
       <c r="DP2">
         <v>1935</v>
@@ -9044,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="DX2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY2">
         <v>0</v>
@@ -9062,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:162">
+    <row r="3" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -9073,22 +9268,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8798611111124046</v>
+        <v>0.87986111111240461</v>
       </c>
       <c r="E3">
-        <v>21.11666666669771</v>
+        <v>21.116666666697711</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="I3">
-        <v>0.4631999863147735</v>
+        <v>0.46319998631477349</v>
       </c>
       <c r="J3">
-        <v>0.002047098531896774</v>
+        <v>2.0470985318967738E-3</v>
       </c>
       <c r="K3">
-        <v>0.4652470848466703</v>
+        <v>0.46524708484667032</v>
       </c>
       <c r="L3">
         <v>99.55999755859375</v>
@@ -9097,7 +9292,7 @@
         <v>324</v>
       </c>
       <c r="U3">
-        <v>0.067</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="V3">
         <v>2.012</v>
@@ -9118,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.392</v>
+        <v>2.3919999999999999</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -9169,13 +9364,13 @@
         <v>0</v>
       </c>
       <c r="CT3">
-        <v>-0.09365129985531911</v>
+        <v>-9.3651299855319114E-2</v>
       </c>
       <c r="DN3">
-        <v>0.8798611111124046</v>
+        <v>0.87986111111240461</v>
       </c>
       <c r="DO3">
-        <v>21.11666666669771</v>
+        <v>21.116666666697711</v>
       </c>
       <c r="DP3">
         <v>1915</v>
@@ -9184,10 +9379,10 @@
         <v>1895</v>
       </c>
       <c r="DS3">
-        <v>7.473066525238628</v>
+        <v>7.4730665252386279</v>
       </c>
       <c r="DT3">
-        <v>389.1279737927912</v>
+        <v>389.12797379279118</v>
       </c>
       <c r="DU3">
         <v>0</v>
@@ -9196,16 +9391,16 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>-0.09365129985531911</v>
+        <v>-9.3651299855319114E-2</v>
       </c>
       <c r="DX3">
-        <v>1.062944049733571</v>
+        <v>1.0629440497335709</v>
       </c>
       <c r="DY3">
         <v>0</v>
       </c>
       <c r="DZ3">
-        <v>-0.2317149999999983</v>
+        <v>-0.23171499999999831</v>
       </c>
       <c r="EA3">
         <v>-0.24129</v>
@@ -9217,40 +9412,40 @@
         <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.02719097784403638</v>
+        <v>2.7190977844036381E-2</v>
       </c>
       <c r="EK3">
-        <v>0.02718433055119028</v>
+        <v>2.7184330551190281E-2</v>
       </c>
       <c r="EL3">
-        <v>-6.647292846100121E-06</v>
+        <v>-6.6472928461001214E-6</v>
       </c>
       <c r="EM3">
         <v>0</v>
       </c>
       <c r="EN3">
-        <v>-0.01253184345931253</v>
+        <v>-1.253184345931253E-2</v>
       </c>
       <c r="EO3">
-        <v>0.07427502017921296</v>
+        <v>7.4275020179212961E-2</v>
       </c>
       <c r="EP3">
         <v>0</v>
       </c>
       <c r="EQ3">
-        <v>-0.01619147903893916</v>
+        <v>-1.6191479038939159E-2</v>
       </c>
       <c r="ER3">
-        <v>-0.01686054842071362</v>
+        <v>-1.686054842071362E-2</v>
       </c>
       <c r="ES3">
-        <v>-5.926902966859077</v>
+        <v>-5.9269029668590774</v>
       </c>
       <c r="ET3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3">
         <v>0</v>
@@ -9259,31 +9454,31 @@
         <v>-10.69885684993262</v>
       </c>
       <c r="EY3">
-        <v>-0.06064787350145411</v>
+        <v>-6.0647873501454112E-2</v>
       </c>
       <c r="EZ3">
         <v>0.1759559585262335</v>
       </c>
       <c r="FA3">
-        <v>-0.008351039543715919</v>
+        <v>-8.3510395437159188E-3</v>
       </c>
       <c r="FB3">
-        <v>-0.06153278212507669</v>
+        <v>-6.1532782125076693E-2</v>
       </c>
       <c r="FC3">
-        <v>-2.173625629963955E-06</v>
+        <v>-2.1736256299639552E-6</v>
       </c>
       <c r="FD3">
-        <v>-2.901271691282214</v>
+        <v>-2.9012716912822141</v>
       </c>
       <c r="FE3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF3">
         <v>0.1376971534462077</v>
       </c>
     </row>
-    <row r="4" spans="1:162">
+    <row r="4" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>154</v>
       </c>
@@ -9297,19 +9492,19 @@
         <v>2.015972222223354</v>
       </c>
       <c r="E4">
-        <v>48.3833333333605</v>
+        <v>48.383333333360497</v>
       </c>
       <c r="F4">
         <v>20</v>
       </c>
       <c r="I4">
-        <v>0.8199999999999998</v>
+        <v>0.81999999999999984</v>
       </c>
       <c r="J4">
-        <v>0.01080040526849035</v>
+        <v>1.0800405268490351E-2</v>
       </c>
       <c r="K4">
-        <v>0.8308004052684902</v>
+        <v>0.83080040526849019</v>
       </c>
       <c r="L4">
         <v>98.7</v>
@@ -9318,13 +9513,13 @@
         <v>325</v>
       </c>
       <c r="U4">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="V4">
         <v>1.772</v>
       </c>
       <c r="W4">
-        <v>5.273</v>
+        <v>5.2729999999999997</v>
       </c>
       <c r="X4">
         <v>1.708</v>
@@ -9333,13 +9528,13 @@
         <v>1.03</v>
       </c>
       <c r="Z4">
-        <v>32.08330557960878</v>
+        <v>32.083305579608783</v>
       </c>
       <c r="AA4">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AB4">
-        <v>2.253</v>
+        <v>2.2530000000000001</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -9351,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.664298401420959</v>
+        <v>2.6642984014209592</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -9390,13 +9585,13 @@
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>2.098699807863949</v>
+        <v>2.0986998078639489</v>
       </c>
       <c r="DN4">
         <v>2.015972222223354</v>
       </c>
       <c r="DO4">
-        <v>48.3833333333605</v>
+        <v>48.383333333360497</v>
       </c>
       <c r="DP4">
         <v>1895</v>
@@ -9417,19 +9612,19 @@
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>2.098699807863949</v>
+        <v>2.0986998078639489</v>
       </c>
       <c r="DX4">
-        <v>3.166629662522203</v>
+        <v>3.1666296625222028</v>
       </c>
       <c r="DY4">
-        <v>-0.5211249999999999</v>
+        <v>-0.52112499999999995</v>
       </c>
       <c r="DZ4">
-        <v>0.9375000000000018</v>
+        <v>0.93750000000000178</v>
       </c>
       <c r="EA4">
-        <v>-0.01957499999999984</v>
+        <v>-1.9574999999999839E-2</v>
       </c>
       <c r="EH4">
         <v>0</v>
@@ -9438,40 +9633,40 @@
         <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.02039522321319949</v>
+        <v>2.039522321319949E-2</v>
       </c>
       <c r="EK4">
-        <v>0.02089557533735587</v>
+        <v>2.0895575337355869E-2</v>
       </c>
       <c r="EL4">
-        <v>0.0005003521241563812</v>
+        <v>5.0035212415638116E-4</v>
       </c>
       <c r="EM4">
         <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.1253180731183673</v>
+        <v>0.12531807311836729</v>
       </c>
       <c r="EO4">
-        <v>0.06345636972084683</v>
+        <v>6.3456369720846825E-2</v>
       </c>
       <c r="EP4">
-        <v>-0.01571941190724818</v>
+        <v>-1.5719411907248178E-2</v>
       </c>
       <c r="EQ4">
-        <v>0.03526864417008047</v>
+        <v>3.5268644170080472E-2</v>
       </c>
       <c r="ER4">
-        <v>0.006687895247811049</v>
+        <v>6.6878952478110487E-3</v>
       </c>
       <c r="ES4">
-        <v>0.5063624754340906</v>
+        <v>0.50636247543409063</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>-0.125436112414533</v>
+        <v>-0.12543611241453301</v>
       </c>
       <c r="EW4">
         <v>0</v>
@@ -9480,31 +9675,31 @@
         <v>-1.442756292687172</v>
       </c>
       <c r="EY4">
-        <v>0.0920385956332451</v>
+        <v>9.2038595633245096E-2</v>
       </c>
       <c r="EZ4">
-        <v>0.08827729457014298</v>
+        <v>8.8277294570142981E-2</v>
       </c>
       <c r="FA4">
-        <v>-0.0138805277194818</v>
+        <v>-1.3880527719481801E-2</v>
       </c>
       <c r="FB4">
-        <v>-0.00885045104192028</v>
+        <v>-8.8504510419202802E-3</v>
       </c>
       <c r="FC4">
-        <v>-0.004357861671685254</v>
+        <v>-4.3578616716852536E-3</v>
       </c>
       <c r="FD4">
-        <v>0.9591334370410199</v>
+        <v>0.95913343704101994</v>
       </c>
       <c r="FE4">
         <v>0</v>
       </c>
       <c r="FF4">
-        <v>-0.1508120329735675</v>
+        <v>-0.15081203297356749</v>
       </c>
     </row>
-    <row r="5" spans="1:162">
+    <row r="5" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -9518,49 +9713,49 @@
         <v>2.953472222223354</v>
       </c>
       <c r="E5">
-        <v>70.8833333333605</v>
+        <v>70.883333333360497</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="I5">
-        <v>1.461699946022034</v>
+        <v>1.4616999460220339</v>
       </c>
       <c r="J5">
-        <v>0.01074734188743665</v>
+        <v>1.0747341887436651E-2</v>
       </c>
       <c r="K5">
-        <v>1.47244728790947</v>
+        <v>1.4724472879094701</v>
       </c>
       <c r="L5">
-        <v>99.27010345458984</v>
+        <v>99.270103454589844</v>
       </c>
       <c r="S5">
         <v>327</v>
       </c>
       <c r="U5">
-        <v>0.103</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="V5">
-        <v>1.638</v>
+        <v>1.6379999999999999</v>
       </c>
       <c r="W5">
-        <v>4.348</v>
+        <v>4.3479999999999999</v>
       </c>
       <c r="X5">
         <v>1.671</v>
       </c>
       <c r="Y5">
-        <v>0.9429999999999999</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="Z5">
         <v>28.75285863362863</v>
       </c>
       <c r="AA5">
-        <v>0.366</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="AB5">
-        <v>2.228</v>
+        <v>2.2280000000000002</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -9611,13 +9806,13 @@
         <v>0</v>
       </c>
       <c r="CT5">
-        <v>5.775161112856211</v>
+        <v>5.7751611128562113</v>
       </c>
       <c r="DN5">
         <v>2.953472222223354</v>
       </c>
       <c r="DO5">
-        <v>70.8833333333605</v>
+        <v>70.883333333360497</v>
       </c>
       <c r="DP5">
         <v>1875</v>
@@ -9626,10 +9821,10 @@
         <v>1855</v>
       </c>
       <c r="DS5">
-        <v>50.63648406474209</v>
+        <v>50.636484064742092</v>
       </c>
       <c r="DT5">
-        <v>2268.451398517608</v>
+        <v>2268.4513985176081</v>
       </c>
       <c r="DU5">
         <v>0</v>
@@ -9638,19 +9833,19 @@
         <v>0</v>
       </c>
       <c r="DW5">
-        <v>5.775161112856211</v>
+        <v>5.7751611128562113</v>
       </c>
       <c r="DX5">
-        <v>5.456261101243339</v>
+        <v>5.4562611012433386</v>
       </c>
       <c r="DY5">
-        <v>-0.69175</v>
+        <v>-0.69174999999999998</v>
       </c>
       <c r="DZ5">
-        <v>2.671875000000002</v>
+        <v>2.6718750000000022</v>
       </c>
       <c r="EA5">
-        <v>0.04980000000000016</v>
+        <v>4.9800000000000157E-2</v>
       </c>
       <c r="EH5">
         <v>0</v>
@@ -9659,64 +9854,64 @@
         <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.02499890281428254</v>
+        <v>2.4998902814282541E-2</v>
       </c>
       <c r="EK5">
-        <v>0.02499683560777243</v>
+        <v>2.4996835607772432E-2</v>
       </c>
       <c r="EL5">
-        <v>-2.067206510117635E-06</v>
+        <v>-2.0672065101176351E-6</v>
       </c>
       <c r="EM5">
         <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.1432250375486492</v>
+        <v>0.14322503754864921</v>
       </c>
       <c r="EO5">
-        <v>0.04757220186532496</v>
+        <v>4.7572201865324959E-2</v>
       </c>
       <c r="EP5">
-        <v>-0.003545115080969011</v>
+        <v>-3.5451150809690112E-3</v>
       </c>
       <c r="EQ5">
-        <v>0.03603551043842126</v>
+        <v>3.6035510438421257E-2</v>
       </c>
       <c r="ER5">
-        <v>0.00144142041753685</v>
+        <v>1.44142041753685E-3</v>
       </c>
       <c r="ES5">
-        <v>0.3321500394033141</v>
+        <v>0.33215003940331411</v>
       </c>
       <c r="ET5">
         <v>0</v>
       </c>
       <c r="EU5">
-        <v>-0.0247520625</v>
+        <v>-2.4752062500000001E-2</v>
       </c>
       <c r="EW5">
         <v>0</v>
       </c>
       <c r="EX5">
-        <v>1.156468434822402</v>
+        <v>1.1564684348224019</v>
       </c>
       <c r="EY5">
-        <v>0.1066231394860292</v>
+        <v>0.10662313948602919</v>
       </c>
       <c r="EZ5">
-        <v>0.04367763231391309</v>
+        <v>4.3677632313913091E-2</v>
       </c>
       <c r="FA5">
-        <v>-0.01098970298716958</v>
+        <v>-1.0989702987169579E-2</v>
       </c>
       <c r="FB5">
-        <v>0.005137692666371649</v>
+        <v>5.137692666371649E-3</v>
       </c>
       <c r="FC5">
-        <v>-0.003958977400016495</v>
+        <v>-3.9589774000164954E-3</v>
       </c>
       <c r="FD5">
-        <v>0.4096449656656017</v>
+        <v>0.40964496566560171</v>
       </c>
       <c r="FE5">
         <v>0</v>
@@ -9725,7 +9920,7 @@
         <v>-0.1030705252175543</v>
       </c>
     </row>
-    <row r="6" spans="1:162">
+    <row r="6" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -9736,25 +9931,25 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>3.973611111112405</v>
+        <v>3.9736111111124051</v>
       </c>
       <c r="E6">
-        <v>95.36666666669771</v>
+        <v>95.366666666697711</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="I6">
-        <v>2.734999997711182</v>
+        <v>2.7349999977111819</v>
       </c>
       <c r="J6">
-        <v>0.0307076004835265</v>
+        <v>3.0707600483526502E-2</v>
       </c>
       <c r="K6">
-        <v>2.765707598194708</v>
+        <v>2.7657075981947079</v>
       </c>
       <c r="L6">
-        <v>98.88970184326172</v>
+        <v>98.889701843261719</v>
       </c>
       <c r="S6">
         <v>352</v>
@@ -9763,7 +9958,7 @@
         <v>25.45</v>
       </c>
       <c r="U6">
-        <v>0.275</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="V6">
         <v>2.02</v>
@@ -9772,19 +9967,19 @@
         <v>5.593</v>
       </c>
       <c r="X6">
-        <v>1.642</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="Y6">
-        <v>0.866</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="Z6">
-        <v>32.86040986700415</v>
+        <v>32.860409867004151</v>
       </c>
       <c r="AA6">
-        <v>0.668</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="AB6">
-        <v>6.417</v>
+        <v>6.4169999999999998</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -9796,7 +9991,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>5.550621669626999</v>
+        <v>5.5506216696269988</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -9835,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="CT6">
-        <v>8.399594504597491</v>
+        <v>8.3995945045974914</v>
       </c>
       <c r="DN6">
-        <v>3.973611111112405</v>
+        <v>3.9736111111124051</v>
       </c>
       <c r="DO6">
-        <v>95.36666666669771</v>
+        <v>95.366666666697711</v>
       </c>
       <c r="DP6">
         <v>1855</v>
@@ -9853,7 +10048,7 @@
         <v>102.011085875951</v>
       </c>
       <c r="DT6">
-        <v>4630.422994400978</v>
+        <v>4630.4229944009776</v>
       </c>
       <c r="DU6">
         <v>0</v>
@@ -9862,16 +10057,16 @@
         <v>47.20975</v>
       </c>
       <c r="DW6">
-        <v>8.399594504597491</v>
+        <v>8.3995945045974914</v>
       </c>
       <c r="DX6">
-        <v>8.545182060390765</v>
+        <v>8.5451820603907649</v>
       </c>
       <c r="DY6">
         <v>-1.25196</v>
       </c>
       <c r="DZ6">
-        <v>0.3624000000000023</v>
+        <v>0.36240000000000228</v>
       </c>
       <c r="EA6">
         <v>0.1035950000000002</v>
@@ -9883,34 +10078,34 @@
         <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.02478462132647302</v>
+        <v>2.4784621326473018E-2</v>
       </c>
       <c r="EK6">
-        <v>0.02517314518636472</v>
+        <v>2.517314518636472E-2</v>
       </c>
       <c r="EL6">
-        <v>0.0003885238598916968</v>
+        <v>3.8852385989169679E-4</v>
       </c>
       <c r="EM6">
-        <v>0.4953809684700526</v>
+        <v>0.49538096847005259</v>
       </c>
       <c r="EN6">
-        <v>0.05108425757508606</v>
+        <v>5.1084257575086063E-2</v>
       </c>
       <c r="EO6">
-        <v>0.0324126405301849</v>
+        <v>3.2412640530184902E-2</v>
       </c>
       <c r="EP6">
-        <v>-0.005878391060037561</v>
+        <v>-5.878391060037561E-3</v>
       </c>
       <c r="EQ6">
-        <v>-0.02423376446936014</v>
+        <v>-2.4233764469360139E-2</v>
       </c>
       <c r="ER6">
-        <v>0.0005644812607320844</v>
+        <v>5.6448126073208439E-4</v>
       </c>
       <c r="ES6">
-        <v>0.6344937181976905</v>
+        <v>0.63449371819769051</v>
       </c>
       <c r="ET6">
         <v>0</v>
@@ -9925,19 +10120,19 @@
         <v>1.670005123868729</v>
       </c>
       <c r="EY6">
-        <v>0.08705572328099692</v>
+        <v>8.7055723280996922E-2</v>
       </c>
       <c r="EZ6">
-        <v>0.01947016239969972</v>
+        <v>1.947016239969972E-2</v>
       </c>
       <c r="FA6">
-        <v>-0.00713572117238577</v>
+        <v>-7.13572117238577E-3</v>
       </c>
       <c r="FB6">
-        <v>0.007559077048546609</v>
+        <v>7.5590770485466094E-3</v>
       </c>
       <c r="FC6">
-        <v>-0.002708168140274512</v>
+        <v>-2.708168140274512E-3</v>
       </c>
       <c r="FD6">
         <v>0.2236517217467055</v>
@@ -9946,10 +10141,10 @@
         <v>0</v>
       </c>
       <c r="FF6">
-        <v>-0.08196728375173239</v>
+        <v>-8.1967283751732387E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:162">
+    <row r="7" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -9960,7 +10155,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>4.825000000004366</v>
+        <v>4.8250000000043656</v>
       </c>
       <c r="E7">
         <v>115.8000000001048</v>
@@ -9969,16 +10164,16 @@
         <v>35</v>
       </c>
       <c r="I7">
-        <v>4.044100148773193</v>
+        <v>4.0441001487731931</v>
       </c>
       <c r="J7">
-        <v>0.03019445456577596</v>
+        <v>3.019445456577596E-2</v>
       </c>
       <c r="K7">
-        <v>4.074294603338969</v>
+        <v>4.0742946033389691</v>
       </c>
       <c r="L7">
-        <v>99.25890350341797</v>
+        <v>99.258903503417969</v>
       </c>
       <c r="S7">
         <v>373</v>
@@ -9987,28 +10182,28 @@
         <v>82.36</v>
       </c>
       <c r="U7">
-        <v>0.599</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="V7">
         <v>2.423</v>
       </c>
       <c r="W7">
-        <v>6.478</v>
+        <v>6.4779999999999998</v>
       </c>
       <c r="X7">
-        <v>1.745</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="Y7">
-        <v>0.777</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="Z7">
-        <v>34.19258864539621</v>
+        <v>34.192588645396206</v>
       </c>
       <c r="AA7">
         <v>1.006</v>
       </c>
       <c r="AB7">
-        <v>9.448</v>
+        <v>9.4480000000000004</v>
       </c>
       <c r="AC7">
         <v>0</v>
@@ -10059,10 +10254,10 @@
         <v>0</v>
       </c>
       <c r="CT7">
-        <v>13.10528942315593</v>
+        <v>13.105289423155931</v>
       </c>
       <c r="DN7">
-        <v>4.825000000004366</v>
+        <v>4.8250000000043656</v>
       </c>
       <c r="DO7">
         <v>115.8000000001048</v>
@@ -10074,10 +10269,10 @@
         <v>1800</v>
       </c>
       <c r="DS7">
-        <v>171.270892372783</v>
+        <v>171.27089237278301</v>
       </c>
       <c r="DT7">
-        <v>7032.621771599769</v>
+        <v>7032.6217715997691</v>
       </c>
       <c r="DU7">
         <v>0</v>
@@ -10086,19 +10281,19 @@
         <v>151.6396</v>
       </c>
       <c r="DW7">
-        <v>13.10528942315593</v>
+        <v>13.105289423155931</v>
       </c>
       <c r="DX7">
-        <v>11.60079928952043</v>
+        <v>11.600799289520429</v>
       </c>
       <c r="DY7">
         <v>-1.87219</v>
       </c>
       <c r="DZ7">
-        <v>-1.261574999999996</v>
+        <v>-1.2615749999999959</v>
       </c>
       <c r="EA7">
-        <v>-0.08541000000000032</v>
+        <v>-8.5410000000000319E-2</v>
       </c>
       <c r="EH7">
         <v>0</v>
@@ -10107,73 +10302,73 @@
         <v>0</v>
       </c>
       <c r="EJ7">
-        <v>0.01890129668672828</v>
+        <v>1.890129668672828E-2</v>
       </c>
       <c r="EK7">
-        <v>0.01889388768656346</v>
+        <v>1.889388768656346E-2</v>
       </c>
       <c r="EL7">
-        <v>-7.409000164821527E-06</v>
+        <v>-7.409000164821527E-6</v>
       </c>
       <c r="EM7">
-        <v>0.8216886947641583</v>
+        <v>0.82168869476415829</v>
       </c>
       <c r="EN7">
-        <v>0.0679426518290039</v>
+        <v>6.79426518290039E-2</v>
       </c>
       <c r="EO7">
-        <v>0.02404260977778314</v>
+        <v>2.4042609777783139E-2</v>
       </c>
       <c r="EP7">
-        <v>-0.004880175344057029</v>
+        <v>-4.880175344057029E-3</v>
       </c>
       <c r="EQ7">
-        <v>-0.01277797390381795</v>
+        <v>-1.2777973903817951E-2</v>
       </c>
       <c r="ER7">
-        <v>-0.001487154024964129</v>
+        <v>-1.4871540249641289E-3</v>
       </c>
       <c r="ES7">
-        <v>0.3538662258619649</v>
+        <v>0.35386622586196492</v>
       </c>
       <c r="ET7">
         <v>0</v>
       </c>
       <c r="EU7">
-        <v>-0.07182786088978854</v>
+        <v>-7.1827860889788542E-2</v>
       </c>
       <c r="EW7">
         <v>0</v>
       </c>
       <c r="EX7">
-        <v>1.675201950103916</v>
+        <v>1.6752019501039159</v>
       </c>
       <c r="EY7">
-        <v>0.07481890495720228</v>
+        <v>7.4818904957202281E-2</v>
       </c>
       <c r="EZ7">
-        <v>0.01075127112979289</v>
+        <v>1.075127112979289E-2</v>
       </c>
       <c r="FA7">
-        <v>-0.005216281619808078</v>
+        <v>-5.2162816198080778E-3</v>
       </c>
       <c r="FB7">
-        <v>0.0072503456717171</v>
+        <v>7.2503456717171004E-3</v>
       </c>
       <c r="FC7">
-        <v>-0.002009906631357641</v>
+        <v>-2.0099066313576412E-3</v>
       </c>
       <c r="FD7">
-        <v>0.1436972532001478</v>
+        <v>0.14369725320014781</v>
       </c>
       <c r="FE7">
         <v>0</v>
       </c>
       <c r="FF7">
-        <v>-0.06971876456614651</v>
+        <v>-6.9718764566146507E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:162">
+    <row r="8" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -10193,16 +10388,16 @@
         <v>20</v>
       </c>
       <c r="I8">
-        <v>6.726700170135499</v>
+        <v>6.7267001701354987</v>
       </c>
       <c r="J8">
-        <v>0.04810779391833009</v>
+        <v>4.8107793918330088E-2</v>
       </c>
       <c r="K8">
-        <v>6.774807964053829</v>
+        <v>6.7748079640538288</v>
       </c>
       <c r="L8">
-        <v>99.28990173339844</v>
+        <v>99.289901733398438</v>
       </c>
       <c r="S8">
         <v>380</v>
@@ -10214,25 +10409,25 @@
         <v>1.444</v>
       </c>
       <c r="V8">
-        <v>2.914</v>
+        <v>2.9140000000000001</v>
       </c>
       <c r="W8">
-        <v>6.545</v>
+        <v>6.5449999999999999</v>
       </c>
       <c r="X8">
-        <v>2.183</v>
+        <v>2.1829999999999998</v>
       </c>
       <c r="Y8">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="Z8">
         <v>33.91505139989787</v>
       </c>
       <c r="AA8">
-        <v>1.687</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="AB8">
-        <v>13.005</v>
+        <v>13.005000000000001</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -10244,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>9.436056838365898</v>
+        <v>9.4360568383658983</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -10283,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="CT8">
-        <v>20.41356268008309</v>
+        <v>20.413562680083089</v>
       </c>
       <c r="DN8">
         <v>5.875</v>
@@ -10298,7 +10493,7 @@
         <v>1780</v>
       </c>
       <c r="DS8">
-        <v>306.9829763904683</v>
+        <v>306.98297639046831</v>
       </c>
       <c r="DT8">
         <v>11861.30181005192</v>
@@ -10307,22 +10502,22 @@
         <v>0</v>
       </c>
       <c r="DV8">
-        <v>379.9516</v>
+        <v>379.95159999999998</v>
       </c>
       <c r="DW8">
-        <v>20.41356268008309</v>
+        <v>20.413562680083089</v>
       </c>
       <c r="DX8">
-        <v>15.59724689165187</v>
+        <v>15.597246891651871</v>
       </c>
       <c r="DY8">
-        <v>-3.09799</v>
+        <v>-3.0979899999999998</v>
       </c>
       <c r="DZ8">
         <v>-1.382174999999997</v>
       </c>
       <c r="EA8">
-        <v>-0.87381</v>
+        <v>-0.87380999999999998</v>
       </c>
       <c r="EH8">
         <v>0</v>
@@ -10331,73 +10526,73 @@
         <v>0</v>
       </c>
       <c r="EJ8">
-        <v>0.01976684715130248</v>
+        <v>1.9766847151302482E-2</v>
       </c>
       <c r="EK8">
-        <v>0.01989884231947203</v>
+        <v>1.9898842319472029E-2</v>
       </c>
       <c r="EL8">
-        <v>0.0001319951681695475</v>
+        <v>1.319951681695475E-4</v>
       </c>
       <c r="EM8">
-        <v>0.9346256887741174</v>
+        <v>0.93462568877411745</v>
       </c>
       <c r="EN8">
-        <v>0.05385130815598403</v>
+        <v>5.3851308155984032E-2</v>
       </c>
       <c r="EO8">
-        <v>0.01635999243487757</v>
+        <v>1.6359992434877568E-2</v>
       </c>
       <c r="EP8">
-        <v>-0.005017976143607491</v>
+        <v>-5.0179761436074909E-3</v>
       </c>
       <c r="EQ8">
-        <v>-0.0004936922197088144</v>
+        <v>-4.936922197088144E-4</v>
       </c>
       <c r="ER8">
-        <v>-0.003227420779588957</v>
+        <v>-3.2274207795889571E-3</v>
       </c>
       <c r="ES8">
-        <v>0.3037993503795622</v>
+        <v>0.30379935037956218</v>
       </c>
       <c r="ET8">
         <v>0</v>
       </c>
       <c r="EU8">
-        <v>-0.09318206586686022</v>
+        <v>-9.3182065866860217E-2</v>
       </c>
       <c r="EW8">
         <v>0</v>
       </c>
       <c r="EX8">
-        <v>1.38162964650312</v>
+        <v>1.3816296465031199</v>
       </c>
       <c r="EY8">
-        <v>0.05602709221594682</v>
+        <v>5.6027092215946817E-2</v>
       </c>
       <c r="EZ8">
-        <v>0.004496034830098631</v>
+        <v>4.4960348300986308E-3</v>
       </c>
       <c r="FA8">
-        <v>-0.003186443685103557</v>
+        <v>-3.186443685103557E-3</v>
       </c>
       <c r="FB8">
-        <v>0.005520917210594375</v>
+        <v>5.5209172105943746E-3</v>
       </c>
       <c r="FC8">
-        <v>-0.001223728257712087</v>
+        <v>-1.223728257712087E-3</v>
       </c>
       <c r="FD8">
-        <v>0.08024751334174966</v>
+        <v>8.0247513341749663E-2</v>
       </c>
       <c r="FE8">
         <v>0</v>
       </c>
       <c r="FF8">
-        <v>-0.05687326539849608</v>
+        <v>-5.6873265398496083E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:162">
+    <row r="9" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -10408,10 +10603,10 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>6.860416666670062</v>
+        <v>6.8604166666700621</v>
       </c>
       <c r="E9">
-        <v>164.6500000000815</v>
+        <v>164.65000000008149</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -10420,10 +10615,10 @@
         <v>9.945699555969238</v>
       </c>
       <c r="J9">
-        <v>0.08085377355325463</v>
+        <v>8.0853773553254626E-2</v>
       </c>
       <c r="K9">
-        <v>10.02655332952249</v>
+        <v>10.026553329522489</v>
       </c>
       <c r="L9">
         <v>99.193603515625</v>
@@ -10438,22 +10633,22 @@
         <v>2.85</v>
       </c>
       <c r="V9">
-        <v>3.398</v>
+        <v>3.3980000000000001</v>
       </c>
       <c r="W9">
-        <v>5.588</v>
+        <v>5.5880000000000001</v>
       </c>
       <c r="X9">
-        <v>2.841</v>
+        <v>2.8410000000000002</v>
       </c>
       <c r="Y9">
-        <v>0.587</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="Z9">
-        <v>31.25069384311374</v>
+        <v>31.250693843113741</v>
       </c>
       <c r="AA9">
-        <v>2.682</v>
+        <v>2.6819999999999999</v>
       </c>
       <c r="AB9">
         <v>15.743</v>
@@ -10468,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>10.99023090586146</v>
+        <v>10.990230905861459</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -10507,13 +10702,13 @@
         <v>0</v>
       </c>
       <c r="CT9">
-        <v>30.24577592744748</v>
+        <v>30.245775927447479</v>
       </c>
       <c r="DN9">
-        <v>6.860416666670062</v>
+        <v>6.8604166666700621</v>
       </c>
       <c r="DO9">
-        <v>164.6500000000815</v>
+        <v>164.65000000008149</v>
       </c>
       <c r="DP9">
         <v>1780</v>
@@ -10522,7 +10717,7 @@
         <v>1760</v>
       </c>
       <c r="DS9">
-        <v>504.1341031523361</v>
+        <v>504.13410315233608</v>
       </c>
       <c r="DT9">
         <v>17591.12071683598</v>
@@ -10531,22 +10726,22 @@
         <v>0</v>
       </c>
       <c r="DV9">
-        <v>738.1766</v>
+        <v>738.17660000000001</v>
       </c>
       <c r="DW9">
-        <v>30.24577592744748</v>
+        <v>30.245775927447479</v>
       </c>
       <c r="DX9">
-        <v>18.36367673179396</v>
+        <v>18.363676731793959</v>
       </c>
       <c r="DY9">
-        <v>-4.86909</v>
+        <v>-4.8690899999999999</v>
       </c>
       <c r="DZ9">
-        <v>0.3212850000000043</v>
+        <v>0.32128500000000432</v>
       </c>
       <c r="EA9">
-        <v>-2.045050000000001</v>
+        <v>-2.0450500000000011</v>
       </c>
       <c r="EH9">
         <v>0</v>
@@ -10555,34 +10750,34 @@
         <v>0</v>
       </c>
       <c r="EJ9">
-        <v>0.01632757285593331</v>
+        <v>1.6327572855933309E-2</v>
       </c>
       <c r="EK9">
-        <v>0.01649366868390429</v>
+        <v>1.649366868390429E-2</v>
       </c>
       <c r="EL9">
-        <v>0.0001660958279709824</v>
+        <v>1.6609582797098241E-4</v>
       </c>
       <c r="EM9">
-        <v>1.020790513883712</v>
+        <v>1.0207905138837119</v>
       </c>
       <c r="EN9">
-        <v>0.04987145348268991</v>
+        <v>4.9871453482689912E-2</v>
       </c>
       <c r="EO9">
-        <v>0.007883160969061026</v>
+        <v>7.883160969061026E-3</v>
       </c>
       <c r="EP9">
-        <v>-0.005046889745661087</v>
+        <v>-5.0468897456610873E-3</v>
       </c>
       <c r="EQ9">
-        <v>0.004854144207635843</v>
+        <v>4.8541442076358429E-3</v>
       </c>
       <c r="ER9">
-        <v>-0.003337541158437184</v>
+        <v>-3.3375411584371838E-3</v>
       </c>
       <c r="ES9">
-        <v>0.1580696053263662</v>
+        <v>0.15806960532636621</v>
       </c>
       <c r="ET9">
         <v>0</v>
@@ -10594,34 +10789,34 @@
         <v>0</v>
       </c>
       <c r="EX9">
-        <v>1.139559090603529</v>
+        <v>1.1395590906035289</v>
       </c>
       <c r="EY9">
-        <v>0.04437783395098252</v>
+        <v>4.437783395098252E-2</v>
       </c>
       <c r="EZ9">
-        <v>0.00162249283898203</v>
+        <v>1.62249283898203E-3</v>
       </c>
       <c r="FA9">
-        <v>-0.001989831907873246</v>
+        <v>-1.9898319078732458E-3</v>
       </c>
       <c r="FB9">
-        <v>0.004126064486281167</v>
+        <v>4.1260644862811668E-3</v>
       </c>
       <c r="FC9">
-        <v>-0.0007438775370419502</v>
+        <v>-7.4387753704195018E-4</v>
       </c>
       <c r="FD9">
-        <v>0.03656088399389101</v>
+        <v>3.6560883993891007E-2</v>
       </c>
       <c r="FE9">
         <v>0</v>
       </c>
       <c r="FF9">
-        <v>-0.04483841888432662</v>
+        <v>-4.4838418884326617E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:162">
+    <row r="10" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
@@ -10632,25 +10827,25 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>7.87638888888614</v>
+        <v>7.8763888888861402</v>
       </c>
       <c r="E10">
-        <v>189.0333333332674</v>
+        <v>189.03333333326739</v>
       </c>
       <c r="F10">
         <v>20</v>
       </c>
       <c r="I10">
-        <v>12.50359998474121</v>
+        <v>12.503599984741211</v>
       </c>
       <c r="J10">
-        <v>0.09724043324266418</v>
+        <v>9.7240433242664182E-2</v>
       </c>
       <c r="K10">
         <v>12.60084041798387</v>
       </c>
       <c r="L10">
-        <v>99.22830200195312</v>
+        <v>99.228302001953125</v>
       </c>
       <c r="S10">
         <v>376</v>
@@ -10659,25 +10854,25 @@
         <v>741.35</v>
       </c>
       <c r="U10">
-        <v>4.893</v>
+        <v>4.8929999999999998</v>
       </c>
       <c r="V10">
-        <v>3.009</v>
+        <v>3.0089999999999999</v>
       </c>
       <c r="W10">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="X10">
-        <v>3.567</v>
+        <v>3.5670000000000002</v>
       </c>
       <c r="Y10">
         <v>0.41</v>
       </c>
       <c r="Z10">
-        <v>20.26021892137925</v>
+        <v>20.260218921379249</v>
       </c>
       <c r="AA10">
-        <v>3.481</v>
+        <v>3.4809999999999999</v>
       </c>
       <c r="AB10">
         <v>14.6</v>
@@ -10731,13 +10926,13 @@
         <v>0</v>
       </c>
       <c r="CT10">
-        <v>43.42082962168353</v>
+        <v>43.420829621683531</v>
       </c>
       <c r="DN10">
-        <v>7.87638888888614</v>
+        <v>7.8763888888861402</v>
       </c>
       <c r="DO10">
-        <v>189.0333333332674</v>
+        <v>189.03333333326739</v>
       </c>
       <c r="DP10">
         <v>1760</v>
@@ -10749,7 +10944,7 @@
         <v>777.8284800511758</v>
       </c>
       <c r="DT10">
-        <v>22093.02547147465</v>
+        <v>22093.025471474652</v>
       </c>
       <c r="DU10">
         <v>0</v>
@@ -10758,13 +10953,13 @@
         <v>1320.5606</v>
       </c>
       <c r="DW10">
-        <v>43.42082962168353</v>
+        <v>43.420829621683531</v>
       </c>
       <c r="DX10">
-        <v>21.29440497335701</v>
+        <v>21.294404973357011</v>
       </c>
       <c r="DY10">
-        <v>-6.275329999999999</v>
+        <v>-6.2753299999999994</v>
       </c>
       <c r="DZ10">
         <v>8.114565000000006</v>
@@ -10779,40 +10974,40 @@
         <v>0</v>
       </c>
       <c r="EJ10">
-        <v>0.009345827480107123</v>
+        <v>9.3458274801071235E-3</v>
       </c>
       <c r="EK10">
-        <v>0.009405699589556659</v>
+        <v>9.4056995895566587E-3</v>
       </c>
       <c r="EL10">
-        <v>5.987210944953478E-05</v>
+        <v>5.9872109449534781E-5</v>
       </c>
       <c r="EM10">
-        <v>1.209012781882267</v>
+        <v>1.2090127818822669</v>
       </c>
       <c r="EN10">
-        <v>0.04813783112214134</v>
+        <v>4.8137831122141338E-2</v>
       </c>
       <c r="EO10">
-        <v>0.006084109289185602</v>
+        <v>6.0841092891856024E-3</v>
       </c>
       <c r="EP10">
-        <v>-0.002919314635007348</v>
+        <v>-2.919314635007348E-3</v>
       </c>
       <c r="EQ10">
-        <v>0.01617862979200569</v>
+        <v>1.617862979200569E-2</v>
       </c>
       <c r="ER10">
-        <v>-0.002652593773486025</v>
+        <v>-2.6525937734860252E-3</v>
       </c>
       <c r="ES10">
-        <v>0.1263893521448491</v>
+        <v>0.12638935214484909</v>
       </c>
       <c r="ET10">
         <v>0</v>
       </c>
       <c r="EU10">
-        <v>-0.06064491413416812</v>
+        <v>-6.0644914134168122E-2</v>
       </c>
       <c r="EW10">
         <v>0</v>
@@ -10821,31 +11016,31 @@
         <v>1.051063398575002</v>
       </c>
       <c r="EY10">
-        <v>0.04019213141270235</v>
+        <v>4.019213141270235E-2</v>
       </c>
       <c r="EZ10">
-        <v>1.169416334642453E-05</v>
+        <v>1.169416334642453E-5</v>
       </c>
       <c r="FA10">
-        <v>-0.001294548271543471</v>
+        <v>-1.2945482715434711E-3</v>
       </c>
       <c r="FB10">
-        <v>0.003331227472055939</v>
+        <v>3.331227472055939E-3</v>
       </c>
       <c r="FC10">
-        <v>-0.0004495627982125332</v>
+        <v>-4.4956279821253321E-4</v>
       </c>
       <c r="FD10">
-        <v>0.0002909565364012692</v>
+        <v>2.909565364012692E-4</v>
       </c>
       <c r="FE10">
         <v>0</v>
       </c>
       <c r="FF10">
-        <v>-0.03220899778244507</v>
+        <v>-3.220899778244507E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:162">
+    <row r="11" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -10856,10 +11051,10 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>8.874305555553292</v>
+        <v>8.8743055555532919</v>
       </c>
       <c r="E11">
-        <v>212.983333333279</v>
+        <v>212.98333333327901</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -10868,40 +11063,40 @@
         <v>15.66629968414307</v>
       </c>
       <c r="J11">
-        <v>0.1391988928401204</v>
+        <v>0.13919889284012041</v>
       </c>
       <c r="K11">
         <v>15.80549857698319</v>
       </c>
       <c r="L11">
-        <v>99.11930084228516</v>
+        <v>99.119300842285156</v>
       </c>
       <c r="S11">
         <v>371</v>
       </c>
       <c r="T11">
-        <v>1180.87</v>
+        <v>1180.8699999999999</v>
       </c>
       <c r="U11">
-        <v>6.525</v>
+        <v>6.5250000000000004</v>
       </c>
       <c r="V11">
-        <v>2.533</v>
+        <v>2.5329999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>3.158</v>
+        <v>3.1579999999999999</v>
       </c>
       <c r="Y11">
-        <v>0.237</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="Z11">
-        <v>9.880325939741114</v>
+        <v>9.8803259397411143</v>
       </c>
       <c r="AA11">
-        <v>3.591</v>
+        <v>3.5910000000000002</v>
       </c>
       <c r="AB11">
         <v>11.56</v>
@@ -10916,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>8.992007104795738</v>
+        <v>8.9920071047957375</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -10955,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="CT11">
-        <v>56.4275871541051</v>
+        <v>56.427587154105098</v>
       </c>
       <c r="DN11">
-        <v>8.874305555553292</v>
+        <v>8.8743055555532919</v>
       </c>
       <c r="DO11">
-        <v>212.983333333279</v>
+        <v>212.98333333327901</v>
       </c>
       <c r="DP11">
         <v>1740</v>
@@ -10970,7 +11165,7 @@
         <v>1720</v>
       </c>
       <c r="DS11">
-        <v>1115.163028586229</v>
+        <v>1115.1630285862291</v>
       </c>
       <c r="DT11">
         <v>27596.12294843388</v>
@@ -10979,22 +11174,22 @@
         <v>0</v>
       </c>
       <c r="DV11">
-        <v>2085.3254</v>
+        <v>2085.3254000000002</v>
       </c>
       <c r="DW11">
-        <v>56.4275871541051</v>
+        <v>56.427587154105098</v>
       </c>
       <c r="DX11">
         <v>14.92007104795737</v>
       </c>
       <c r="DY11">
-        <v>-6.46673</v>
+        <v>-6.4667300000000001</v>
       </c>
       <c r="DZ11">
-        <v>10.13296500000001</v>
+        <v>10.132965000000009</v>
       </c>
       <c r="EA11">
-        <v>-2.61115</v>
+        <v>-2.6111499999999999</v>
       </c>
       <c r="EH11">
         <v>0</v>
@@ -11003,73 +11198,73 @@
         <v>0</v>
       </c>
       <c r="EJ11">
-        <v>0.009375558219982358</v>
+        <v>9.3755582199823578E-3</v>
       </c>
       <c r="EK11">
-        <v>0.009499940557278284</v>
+        <v>9.4999405572782844E-3</v>
       </c>
       <c r="EL11">
-        <v>0.000124382337295927</v>
+        <v>1.24382337295927E-4</v>
       </c>
       <c r="EM11">
         <v>1.302920207576451</v>
       </c>
       <c r="EN11">
-        <v>0.03855744271941955</v>
+        <v>3.8557442719419549E-2</v>
       </c>
       <c r="EO11">
-        <v>-0.01085987284096145</v>
+        <v>-1.0859872840961449E-2</v>
       </c>
       <c r="EP11">
-        <v>-0.0003260857818379372</v>
+        <v>-3.2608578183793721E-4</v>
       </c>
       <c r="EQ11">
-        <v>0.003438722790290961</v>
+        <v>3.4387227902909611E-3</v>
       </c>
       <c r="ER11">
-        <v>0.001212446225197416</v>
+        <v>1.2124462251974161E-3</v>
       </c>
       <c r="ES11">
-        <v>-0.2816543856393218</v>
+        <v>-0.28165438563932182</v>
       </c>
       <c r="ET11">
         <v>0</v>
       </c>
       <c r="EU11">
-        <v>-0.008457142352796735</v>
+        <v>-8.4571423527967354E-3</v>
       </c>
       <c r="EW11">
         <v>0</v>
       </c>
       <c r="EX11">
-        <v>0.9334249641805815</v>
+        <v>0.93342496418058152</v>
       </c>
       <c r="EY11">
-        <v>0.03557863210255917</v>
+        <v>3.5578632102559168E-2</v>
       </c>
       <c r="EZ11">
-        <v>-0.001087126195466632</v>
+        <v>-1.0871261954666319E-3</v>
       </c>
       <c r="FA11">
-        <v>-0.0006833743090981701</v>
+        <v>-6.8337430909817007E-4</v>
       </c>
       <c r="FB11">
-        <v>0.002476615291535764</v>
+        <v>2.476615291535764E-3</v>
       </c>
       <c r="FC11">
-        <v>-0.0001877141664819498</v>
+        <v>-1.8771416648194979E-4</v>
       </c>
       <c r="FD11">
-        <v>-0.03055559281573489</v>
+        <v>-3.0555592815734889E-2</v>
       </c>
       <c r="FE11">
         <v>0</v>
       </c>
       <c r="FF11">
-        <v>-0.01920743628164993</v>
+        <v>-1.920743628164993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:162">
+    <row r="12" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -11080,7 +11275,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>9.920833333337214</v>
+        <v>9.9208333333372138</v>
       </c>
       <c r="E12">
         <v>238.1000000000931</v>
@@ -11089,16 +11284,16 @@
         <v>46</v>
       </c>
       <c r="I12">
-        <v>16.47079931030273</v>
+        <v>16.470799310302731</v>
       </c>
       <c r="J12">
-        <v>0.3019431472250709</v>
+        <v>0.30194314722507087</v>
       </c>
       <c r="K12">
-        <v>16.77274245752781</v>
+        <v>16.772742457527809</v>
       </c>
       <c r="L12">
-        <v>98.19979858398438</v>
+        <v>98.199798583984375</v>
       </c>
       <c r="S12">
         <v>369</v>
@@ -11107,28 +11302,28 @@
         <v>1585.31</v>
       </c>
       <c r="U12">
-        <v>7.348</v>
+        <v>7.3479999999999999</v>
       </c>
       <c r="V12">
-        <v>2.311</v>
+        <v>2.3109999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>2.659</v>
+        <v>2.6589999999999998</v>
       </c>
       <c r="Y12">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="Z12">
-        <v>5.495237460867248</v>
+        <v>5.4952374608672478</v>
       </c>
       <c r="AA12">
-        <v>3.498</v>
+        <v>3.4980000000000002</v>
       </c>
       <c r="AB12">
-        <v>8.946999999999999</v>
+        <v>8.9469999999999992</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -11140,7 +11335,7 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>7.326820603907638</v>
+        <v>7.3268206039076382</v>
       </c>
       <c r="AG12">
         <v>0</v>
@@ -11182,7 +11377,7 @@
         <v>69.74347642302024</v>
       </c>
       <c r="DN12">
-        <v>9.920833333337214</v>
+        <v>9.9208333333372138</v>
       </c>
       <c r="DO12">
         <v>238.1000000000931</v>
@@ -11194,31 +11389,31 @@
         <v>1674</v>
       </c>
       <c r="DS12">
-        <v>1518.75143012718</v>
+        <v>1518.7514301271799</v>
       </c>
       <c r="DT12">
-        <v>28979.86230542851</v>
+        <v>28979.862305428509</v>
       </c>
       <c r="DU12">
         <v>0</v>
       </c>
       <c r="DV12">
-        <v>2780.9622</v>
+        <v>2780.9621999999999</v>
       </c>
       <c r="DW12">
         <v>69.74347642302024</v>
       </c>
       <c r="DX12">
-        <v>12.05595026642984</v>
+        <v>12.055950266429839</v>
       </c>
       <c r="DY12">
-        <v>-6.30677</v>
+        <v>-6.3067700000000002</v>
       </c>
       <c r="DZ12">
-        <v>10.13296500000001</v>
+        <v>10.132965000000009</v>
       </c>
       <c r="EA12">
-        <v>-1.75287</v>
+        <v>-1.7528699999999999</v>
       </c>
       <c r="EH12">
         <v>0</v>
@@ -11227,31 +11422,31 @@
         <v>0</v>
       </c>
       <c r="EJ12">
-        <v>0.001993366566254103</v>
+        <v>1.993366566254103E-3</v>
       </c>
       <c r="EK12">
-        <v>0.002396609706452315</v>
+        <v>2.3966097064523151E-3</v>
       </c>
       <c r="EL12">
-        <v>0.0004032431401982128</v>
+        <v>4.0324314019821281E-4</v>
       </c>
       <c r="EM12">
-        <v>1.002110066730851</v>
+        <v>1.0021100667308509</v>
       </c>
       <c r="EN12">
-        <v>0.03299373623739781</v>
+        <v>3.2993736237397812E-2</v>
       </c>
       <c r="EO12">
-        <v>-0.004125952318080025</v>
+        <v>-4.1259523180800254E-3</v>
       </c>
       <c r="EP12">
-        <v>0.0002304327865838419</v>
+        <v>2.304327865838419E-4</v>
       </c>
       <c r="EQ12">
         <v>0</v>
       </c>
       <c r="ER12">
-        <v>0.001236408177476745</v>
+        <v>1.2364081774767449E-3</v>
       </c>
       <c r="ES12">
         <v>-0.1250525944801405</v>
@@ -11260,40 +11455,40 @@
         <v>0</v>
       </c>
       <c r="EU12">
-        <v>0.006984137380678048</v>
+        <v>6.9841373806780477E-3</v>
       </c>
       <c r="EW12">
         <v>0</v>
       </c>
       <c r="EX12">
-        <v>0.9617007994367375</v>
+        <v>0.96170079943673747</v>
       </c>
       <c r="EY12">
-        <v>0.03699306626333915</v>
+        <v>3.6993066263339147E-2</v>
       </c>
       <c r="EZ12">
-        <v>-0.00222516398656104</v>
+        <v>-2.2251639865610399E-3</v>
       </c>
       <c r="FA12">
-        <v>-0.0001707536389308692</v>
+        <v>-1.707536389308692E-4</v>
       </c>
       <c r="FB12">
-        <v>0.001940877263050678</v>
+        <v>1.940877263050678E-3</v>
       </c>
       <c r="FC12">
-        <v>5.475754175464794E-05</v>
+        <v>5.4757541754647942E-5</v>
       </c>
       <c r="FD12">
-        <v>-0.06015083936867977</v>
+        <v>-6.0150839368679772E-2</v>
       </c>
       <c r="FE12">
         <v>0</v>
       </c>
       <c r="FF12">
-        <v>-0.004615828212653175</v>
+        <v>-4.6158282126531752E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:162">
+    <row r="13" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>154</v>
       </c>
@@ -11316,13 +11511,13 @@
         <v>15.79619966278076</v>
       </c>
       <c r="J13">
-        <v>0.3459593550362428</v>
+        <v>0.34595935503624281</v>
       </c>
       <c r="K13">
-        <v>16.142159017817</v>
+        <v>16.142159017817001</v>
       </c>
       <c r="L13">
-        <v>97.85679626464844</v>
+        <v>97.856796264648438</v>
       </c>
       <c r="S13">
         <v>395</v>
@@ -11331,28 +11526,28 @@
         <v>2020.63</v>
       </c>
       <c r="U13">
-        <v>6.203</v>
+        <v>6.2030000000000003</v>
       </c>
       <c r="V13">
         <v>1.97</v>
       </c>
       <c r="W13">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="X13">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="Y13">
-        <v>0.08500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="Z13">
-        <v>7.049446035657986</v>
+        <v>7.0494460356579864</v>
       </c>
       <c r="AA13">
-        <v>2.563</v>
+        <v>2.5630000000000002</v>
       </c>
       <c r="AB13">
-        <v>6.416</v>
+        <v>6.4160000000000004</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -11364,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>5.883658969804618</v>
+        <v>5.8836589698046184</v>
       </c>
       <c r="AG13">
         <v>0</v>
@@ -11403,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="CT13">
-        <v>85.90512590011704</v>
+        <v>85.905125900117042</v>
       </c>
       <c r="DN13">
         <v>10.90625</v>
@@ -11418,10 +11613,10 @@
         <v>1654</v>
       </c>
       <c r="DS13">
-        <v>1900.30869298239</v>
+        <v>1900.3086929823901</v>
       </c>
       <c r="DT13">
-        <v>27850.58249547672</v>
+        <v>27850.582495476719</v>
       </c>
       <c r="DU13">
         <v>0</v>
@@ -11430,19 +11625,19 @@
         <v>3509.68788</v>
       </c>
       <c r="DW13">
-        <v>85.90512590011704</v>
+        <v>85.905125900117042</v>
       </c>
       <c r="DX13">
-        <v>9.640097690941381</v>
+        <v>9.6400976909413814</v>
       </c>
       <c r="DY13">
-        <v>-4.741580000000001</v>
+        <v>-4.7415800000000008</v>
       </c>
       <c r="DZ13">
-        <v>10.01913300000001</v>
+        <v>10.019133000000011</v>
       </c>
       <c r="EA13">
-        <v>-1.469964000000001</v>
+        <v>-1.4699640000000009</v>
       </c>
       <c r="EH13">
         <v>0</v>
@@ -11451,40 +11646,40 @@
         <v>0</v>
       </c>
       <c r="EJ13">
-        <v>-0.001768016791172874</v>
+        <v>-1.768016791172874E-3</v>
       </c>
       <c r="EK13">
-        <v>-0.001652657415015815</v>
+        <v>-1.652657415015815E-3</v>
       </c>
       <c r="EL13">
-        <v>0.0001153593761570588</v>
+        <v>1.1535937615705879E-4</v>
       </c>
       <c r="EM13">
-        <v>1.140903456384191</v>
+        <v>1.1409034563841911</v>
       </c>
       <c r="EN13">
-        <v>0.0423570746790625</v>
+        <v>4.2357074679062502E-2</v>
       </c>
       <c r="EO13">
-        <v>-0.003782293706857465</v>
+        <v>-3.7822937068574649E-3</v>
       </c>
       <c r="EP13">
-        <v>0.002450484084625604</v>
+        <v>2.450484084625604E-3</v>
       </c>
       <c r="EQ13">
-        <v>-0.0001782170243364082</v>
+        <v>-1.7821702433640821E-4</v>
       </c>
       <c r="ER13">
-        <v>0.000442921722247835</v>
+        <v>4.4292172224783498E-4</v>
       </c>
       <c r="ES13">
-        <v>-0.08929544203691403</v>
+        <v>-8.929544203691403E-2</v>
       </c>
       <c r="ET13">
         <v>0</v>
       </c>
       <c r="EU13">
-        <v>0.05785300574208211</v>
+        <v>5.785300574208211E-2</v>
       </c>
       <c r="EW13">
         <v>0</v>
@@ -11493,31 +11688,31 @@
         <v>1.072237765845738</v>
       </c>
       <c r="EY13">
-        <v>0.04133661221600577</v>
+        <v>4.1336612216005771E-2</v>
       </c>
       <c r="EZ13">
-        <v>-0.00364620952964426</v>
+        <v>-3.64620952964426E-3</v>
       </c>
       <c r="FA13">
-        <v>0.000430270047273513</v>
+        <v>4.3027004727351302E-4</v>
       </c>
       <c r="FB13">
-        <v>0.001405164321415797</v>
+        <v>1.405164321415797E-3</v>
       </c>
       <c r="FC13">
-        <v>0.000354840287133932</v>
+        <v>3.5484028713393201E-4</v>
       </c>
       <c r="FD13">
-        <v>-0.08820774935766088</v>
+        <v>-8.8207749357660875E-2</v>
       </c>
       <c r="FE13">
         <v>0</v>
       </c>
       <c r="FF13">
-        <v>0.01040893349036741</v>
+        <v>1.040893349036741E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:162">
+    <row r="14" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -11531,22 +11726,22 @@
         <v>11.86458333333576</v>
       </c>
       <c r="E14">
-        <v>284.7500000000582</v>
+        <v>284.75000000005821</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
       <c r="I14">
-        <v>16.0040005279541</v>
+        <v>16.004000527954101</v>
       </c>
       <c r="J14">
         <v>0.569086624144024</v>
       </c>
       <c r="K14">
-        <v>16.57308715209813</v>
+        <v>16.573087152098129</v>
       </c>
       <c r="L14">
-        <v>96.56620025634766</v>
+        <v>96.566200256347656</v>
       </c>
       <c r="S14">
         <v>403</v>
@@ -11555,28 +11750,28 @@
         <v>2508.6</v>
       </c>
       <c r="U14">
-        <v>4.898</v>
+        <v>4.8979999999999997</v>
       </c>
       <c r="V14">
-        <v>1.632</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="W14">
-        <v>0.063</v>
+        <v>6.3E-2</v>
       </c>
       <c r="X14">
         <v>2.056</v>
       </c>
       <c r="Y14">
-        <v>0.097</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="Z14">
-        <v>8.659162059548391</v>
+        <v>8.6591620595483914</v>
       </c>
       <c r="AA14">
-        <v>2.465</v>
+        <v>2.4649999999999999</v>
       </c>
       <c r="AB14">
-        <v>4.135</v>
+        <v>4.1349999999999998</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -11588,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>4.4404973357016</v>
+        <v>4.4404973357016004</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -11633,7 +11828,7 @@
         <v>11.86458333333576</v>
       </c>
       <c r="DO14">
-        <v>284.7500000000582</v>
+        <v>284.75000000005821</v>
       </c>
       <c r="DP14">
         <v>1654</v>
@@ -11642,31 +11837,31 @@
         <v>1634</v>
       </c>
       <c r="DS14">
-        <v>2266.010995176766</v>
+        <v>2266.0109951767658</v>
       </c>
       <c r="DT14">
-        <v>28194.28512647343</v>
+        <v>28194.285126473431</v>
       </c>
       <c r="DU14">
         <v>0</v>
       </c>
       <c r="DV14">
-        <v>4316.79026</v>
+        <v>4316.7902599999998</v>
       </c>
       <c r="DW14">
         <v>103.6134116406742</v>
       </c>
       <c r="DX14">
-        <v>7.253108348134989</v>
+        <v>7.2531083481349894</v>
       </c>
       <c r="DY14">
-        <v>-4.579488</v>
+        <v>-4.5794879999999996</v>
       </c>
       <c r="DZ14">
         <v>10.027403</v>
       </c>
       <c r="EA14">
-        <v>-0.7521280000000009</v>
+        <v>-0.75212800000000091</v>
       </c>
       <c r="EH14">
         <v>0</v>
@@ -11675,61 +11870,61 @@
         <v>0</v>
       </c>
       <c r="EJ14">
-        <v>0.0005682241099562191</v>
+        <v>5.6822410995621914E-4</v>
       </c>
       <c r="EK14">
-        <v>0.001178357728937884</v>
+        <v>1.1783577289378839E-3</v>
       </c>
       <c r="EL14">
-        <v>0.0006101336189816647</v>
+        <v>6.1013361898166465E-4</v>
       </c>
       <c r="EM14">
-        <v>1.334336691543813</v>
+        <v>1.3343366915438131</v>
       </c>
       <c r="EN14">
-        <v>0.04842268050898105</v>
+        <v>4.8422680508981047E-2</v>
       </c>
       <c r="EO14">
-        <v>-0.003946274402549306</v>
+        <v>-3.946274402549306E-3</v>
       </c>
       <c r="EP14">
-        <v>0.0002679775309369305</v>
+        <v>2.6797753093693051E-4</v>
       </c>
       <c r="EQ14">
-        <v>1.367232300698549E-05</v>
+        <v>1.367232300698549E-5</v>
       </c>
       <c r="ER14">
-        <v>0.001186757637006404</v>
+        <v>1.1867576370064041E-3</v>
       </c>
       <c r="ES14">
-        <v>-0.08149640542549853</v>
+        <v>-8.1496405425498533E-2</v>
       </c>
       <c r="ET14">
         <v>0</v>
       </c>
       <c r="EU14">
-        <v>0.005534132520549501</v>
+        <v>5.5341325205495008E-3</v>
       </c>
       <c r="EW14">
         <v>0</v>
       </c>
       <c r="EX14">
-        <v>1.091204571776932</v>
+        <v>1.0912045717769321</v>
       </c>
       <c r="EY14">
-        <v>0.04314859628159266</v>
+        <v>4.3148596281592663E-2</v>
       </c>
       <c r="EZ14">
-        <v>-0.004936292031930922</v>
+        <v>-4.9362920319309224E-3</v>
       </c>
       <c r="FA14">
-        <v>0.001139042524934544</v>
+        <v>1.139042524934544E-3</v>
       </c>
       <c r="FB14">
-        <v>0.0005366596931943937</v>
+        <v>5.3665969319439369E-4</v>
       </c>
       <c r="FC14">
-        <v>0.0006967759446797673</v>
+        <v>6.9677594467976731E-4</v>
       </c>
       <c r="FD14">
         <v>-0.1144021464734592</v>
@@ -11738,10 +11933,10 @@
         <v>0</v>
       </c>
       <c r="FF14">
-        <v>0.02639813628005469</v>
+        <v>2.639813628005469E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:162">
+    <row r="15" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -11752,10 +11947,10 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>12.85763888889051</v>
+        <v>12.857638888890509</v>
       </c>
       <c r="E15">
-        <v>308.5833333333721</v>
+        <v>308.58333333337208</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -11764,13 +11959,13 @@
         <v>15.92730031738281</v>
       </c>
       <c r="J15">
-        <v>1.12588604453218</v>
+        <v>1.1258860445321801</v>
       </c>
       <c r="K15">
-        <v>17.05318636191499</v>
+        <v>17.053186361914989</v>
       </c>
       <c r="L15">
-        <v>93.39779663085938</v>
+        <v>93.397796630859375</v>
       </c>
       <c r="S15">
         <v>421</v>
@@ -11779,28 +11974,28 @@
         <v>2885.1</v>
       </c>
       <c r="U15">
-        <v>2.933</v>
+        <v>2.9329999999999998</v>
       </c>
       <c r="V15">
-        <v>1.227</v>
+        <v>1.2270000000000001</v>
       </c>
       <c r="W15">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="X15">
         <v>1.48</v>
       </c>
       <c r="Y15">
-        <v>0.172</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="Z15">
         <v>12.98874308932259</v>
       </c>
       <c r="AA15">
-        <v>2.256</v>
+        <v>2.2559999999999998</v>
       </c>
       <c r="AB15">
-        <v>2.357</v>
+        <v>2.3570000000000002</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -11854,10 +12049,10 @@
         <v>120.0597747390547</v>
       </c>
       <c r="DN15">
-        <v>12.85763888889051</v>
+        <v>12.857638888890509</v>
       </c>
       <c r="DO15">
-        <v>308.5833333333721</v>
+        <v>308.58333333337208</v>
       </c>
       <c r="DP15">
         <v>1634</v>
@@ -11869,28 +12064,28 @@
         <v>2646.525663583388</v>
       </c>
       <c r="DT15">
-        <v>28068.95698239994</v>
+        <v>28068.956982399941</v>
       </c>
       <c r="DU15">
         <v>0</v>
       </c>
       <c r="DV15">
-        <v>4931.99126</v>
+        <v>4931.9912599999998</v>
       </c>
       <c r="DW15">
         <v>120.0597747390547</v>
       </c>
       <c r="DX15">
-        <v>3.26243339253996</v>
+        <v>3.2624333925399598</v>
       </c>
       <c r="DY15">
-        <v>-4.237982000000001</v>
+        <v>-4.2379820000000006</v>
       </c>
       <c r="DZ15">
-        <v>10.01433100000001</v>
+        <v>10.014331000000009</v>
       </c>
       <c r="EA15">
-        <v>0.1890559999999988</v>
+        <v>0.18905599999999881</v>
       </c>
       <c r="EH15">
         <v>0</v>
@@ -11899,31 +12094,31 @@
         <v>0</v>
       </c>
       <c r="EJ15">
-        <v>-0.000201569655363006</v>
+        <v>-2.0156965536300599E-4</v>
       </c>
       <c r="EK15">
-        <v>0.001261710124940114</v>
+        <v>1.2617101249401139E-3</v>
       </c>
       <c r="EL15">
-        <v>0.00146327978030312</v>
+        <v>1.4632797803031199E-3</v>
       </c>
       <c r="EM15">
-        <v>0.9894493728101653</v>
+        <v>0.98944937281016532</v>
       </c>
       <c r="EN15">
-        <v>0.0432213642834021</v>
+        <v>4.3221364283402099E-2</v>
       </c>
       <c r="EO15">
-        <v>-0.006418342674837551</v>
+        <v>-6.4183426748375509E-3</v>
       </c>
       <c r="EP15">
-        <v>0.0005492560927418977</v>
+        <v>5.4925609274189774E-4</v>
       </c>
       <c r="EQ15">
-        <v>-2.102415665997584E-05</v>
+        <v>-2.1024156659975839E-5</v>
       </c>
       <c r="ER15">
-        <v>0.00151373927951834</v>
+        <v>1.51373927951834E-3</v>
       </c>
       <c r="ES15">
         <v>-0.1484993077208886</v>
@@ -11932,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="EU15">
-        <v>0.01270797675752275</v>
+        <v>1.270797675752275E-2</v>
       </c>
       <c r="EW15">
         <v>0</v>
@@ -11941,31 +12136,31 @@
         <v>1.109233663814932</v>
       </c>
       <c r="EY15">
-        <v>0.04548399747979521</v>
+        <v>4.5483997479795209E-2</v>
       </c>
       <c r="EZ15">
-        <v>-0.006456069917644156</v>
+        <v>-6.456069917644156E-3</v>
       </c>
       <c r="FA15">
-        <v>0.002026124828783015</v>
+        <v>2.0261248287830151E-3</v>
       </c>
       <c r="FB15">
-        <v>-0.0005923334282187283</v>
+        <v>-5.9233342821872828E-4</v>
       </c>
       <c r="FC15">
-        <v>0.001127228501990497</v>
+        <v>1.127228501990497E-3</v>
       </c>
       <c r="FD15">
-        <v>-0.141941567922038</v>
+        <v>-0.14194156792203799</v>
       </c>
       <c r="FE15">
         <v>0</v>
       </c>
       <c r="FF15">
-        <v>0.04454588297088564</v>
+        <v>4.4545882970885638E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:162">
+    <row r="16" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>154</v>
       </c>
@@ -11979,7 +12174,7 @@
         <v>13.87222222222044</v>
       </c>
       <c r="E16">
-        <v>332.9333333332906</v>
+        <v>332.93333333329059</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -11988,13 +12183,13 @@
         <v>13.3347004486084</v>
       </c>
       <c r="J16">
-        <v>2.877168970869857</v>
+        <v>2.8771689708698571</v>
       </c>
       <c r="K16">
-        <v>16.21186941947825</v>
+        <v>16.211869419478251</v>
       </c>
       <c r="L16">
-        <v>82.25270080566406</v>
+        <v>82.252700805664062</v>
       </c>
       <c r="S16">
         <v>460</v>
@@ -12003,28 +12198,28 @@
         <v>3028.8</v>
       </c>
       <c r="U16">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="V16">
-        <v>1.322</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="W16">
-        <v>0.08599999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="X16">
-        <v>2.486</v>
+        <v>2.4860000000000002</v>
       </c>
       <c r="Y16">
-        <v>0.413</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="Z16">
-        <v>14.70947401141233</v>
+        <v>14.709474011412331</v>
       </c>
       <c r="AA16">
         <v>1.909</v>
       </c>
       <c r="AB16">
-        <v>2.882</v>
+        <v>2.8820000000000001</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -12075,13 +12270,13 @@
         <v>0</v>
       </c>
       <c r="CT16">
-        <v>133.4777265271156</v>
+        <v>133.47772652711561</v>
       </c>
       <c r="DN16">
         <v>13.87222222222044</v>
       </c>
       <c r="DO16">
-        <v>332.9333333332906</v>
+        <v>332.93333333329059</v>
       </c>
       <c r="DP16">
         <v>1614</v>
@@ -12090,28 +12285,28 @@
         <v>1594</v>
       </c>
       <c r="DS16">
-        <v>3002.790522908139</v>
+        <v>3002.7905229081389</v>
       </c>
       <c r="DT16">
-        <v>23884.50079419803</v>
+        <v>23884.500794198029</v>
       </c>
       <c r="DU16">
         <v>0</v>
       </c>
       <c r="DV16">
-        <v>5163.92306</v>
+        <v>5163.9230600000001</v>
       </c>
       <c r="DW16">
-        <v>133.4777265271156</v>
+        <v>133.47772652711561</v>
       </c>
       <c r="DX16">
-        <v>5.412522202486674</v>
+        <v>5.4125222024866737</v>
       </c>
       <c r="DY16">
-        <v>-3.677924000000001</v>
+        <v>-3.6779240000000009</v>
       </c>
       <c r="DZ16">
-        <v>9.990121000000006</v>
+        <v>9.9901210000000056</v>
       </c>
       <c r="EA16">
         <v>-1.434628000000002</v>
@@ -12123,70 +12318,70 @@
         <v>0</v>
       </c>
       <c r="EJ16">
-        <v>-0.007277169782302744</v>
+        <v>-7.2771697823027443E-3</v>
       </c>
       <c r="EK16">
-        <v>-0.002361492918586845</v>
+        <v>-2.3614929185868448E-3</v>
       </c>
       <c r="EL16">
-        <v>0.004915676863715899</v>
+        <v>4.915676863715899E-3</v>
       </c>
       <c r="EM16">
         <v>0.4033515971021196</v>
       </c>
       <c r="EN16">
-        <v>0.03766285513955177</v>
+        <v>3.7662855139551768E-2</v>
       </c>
       <c r="EO16">
-        <v>0.003739210213534331</v>
+        <v>3.739210213534331E-3</v>
       </c>
       <c r="EP16">
-        <v>0.0009739944620350402</v>
+        <v>9.7399446203504016E-4</v>
       </c>
       <c r="EQ16">
-        <v>-4.210350700439668E-05</v>
+        <v>-4.2103507004396677E-5</v>
       </c>
       <c r="ER16">
-        <v>-0.002823741869761531</v>
+        <v>-2.8237418697615309E-3</v>
       </c>
       <c r="ES16">
-        <v>0.09928111396970504</v>
+        <v>9.9281113969705043E-2</v>
       </c>
       <c r="ET16">
         <v>0</v>
       </c>
       <c r="EU16">
-        <v>0.02586087694164739</v>
+        <v>2.586087694164739E-2</v>
       </c>
       <c r="EW16">
         <v>0</v>
       </c>
       <c r="EX16">
-        <v>1.31277783299762</v>
+        <v>1.3127778329976201</v>
       </c>
       <c r="EY16">
-        <v>0.05652444779371728</v>
+        <v>5.6524447793717278E-2</v>
       </c>
       <c r="EZ16">
-        <v>-0.00967102376493512</v>
+        <v>-9.6710237649351195E-3</v>
       </c>
       <c r="FA16">
-        <v>0.003674536008918332</v>
+        <v>3.6745360089183322E-3</v>
       </c>
       <c r="FB16">
-        <v>-0.00240758479328071</v>
+        <v>-2.4075847932807102E-3</v>
       </c>
       <c r="FC16">
-        <v>0.001953538218070897</v>
+        <v>1.9535382180708972E-3</v>
       </c>
       <c r="FD16">
-        <v>-0.1710945288705688</v>
+        <v>-0.17109452887056881</v>
       </c>
       <c r="FE16">
         <v>0</v>
       </c>
       <c r="FF16">
-        <v>0.06500790635458023</v>
+        <v>6.500790635458023E-2</v>
       </c>
     </row>
   </sheetData>

--- a/output_files/cl_3.xlsx
+++ b/output_files/cl_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/development/Reserch/UMN_Research/CCDPA_git/CCDPApy/output_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC65E63-A3D4-A640-AAE8-9DF6CF23858A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C227297B-A6E7-BF44-8F35-FABC2FEE3FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="22360" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="240" yWindow="500" windowWidth="28420" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample CL3_1" sheetId="1" r:id="rId1"/>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="EE1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="EO19" sqref="EO19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1550,7 @@
         <v>2.5694444448163271E-2</v>
       </c>
       <c r="E2">
-        <v>0.61666666675591841</v>
+        <v>0.61666666675591797</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -4820,6 +4820,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4827,9 +4828,174 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FF16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="EL1" workbookViewId="0">
+      <selection activeCell="EO21" sqref="EO21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="23" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="24" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="24" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="20" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="17" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="23" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="15" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="45" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="17" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="142" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="34" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="37" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="31" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="39" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="41" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -8610,9 +8776,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FF16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="19" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="23" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="24" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="24" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="20" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="17" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="15" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="23" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="15" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="45" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="17" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="18" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="34" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="37" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="31" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="39" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="41" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:162" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -12386,5 +12718,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>